--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
     <sheet name="Times of SP" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="TimeStamps" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>Measure time of total SP</t>
   </si>
@@ -189,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -278,6 +278,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -285,12 +296,6 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -298,14 +303,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,100 +410,104 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Times of SP'!$A$2:$A$33</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Times of SP'!$A$2:$A$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Times of SP'!$A$3:$A$33</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>Stored Procedure</c:v>
+                  <c:v>Report 2_6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Report 2_6</c:v>
+                  <c:v>Report 2_5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Report 2_5</c:v>
+                  <c:v>Report 3_1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Report 3_1</c:v>
+                  <c:v>Report 4_2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Report 4_2</c:v>
+                  <c:v>Report 4_4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Report 4_4</c:v>
+                  <c:v>Report 1_1_2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Report 1_1_2</c:v>
+                  <c:v>Report 1_1_1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Report 1_1_1</c:v>
+                  <c:v>Report 1_3_2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Report 1_3_2</c:v>
+                  <c:v>Report 4_3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Report 4_3</c:v>
+                  <c:v>Report 1_1_3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Report 1_1_3</c:v>
+                  <c:v>Report 1_1_9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Report 1_1_9</c:v>
+                  <c:v>Report 1_1_6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Report 1_1_6</c:v>
+                  <c:v>Report 1_1_7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Report 1_1_7</c:v>
+                  <c:v>Report 1_1_4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Report 1_1_4</c:v>
+                  <c:v>Report 1_1_5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Report 1_1_5</c:v>
+                  <c:v>Report 1_1_8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Report 1_1_8</c:v>
+                  <c:v>Report 1_2_2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Report 1_2_2</c:v>
+                  <c:v>Report 2_1_2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Report 2_1_2</c:v>
+                  <c:v>Report 1_5_7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Report 1_5_7</c:v>
+                  <c:v>Report 2_1_1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Report 2_1_1</c:v>
+                  <c:v>Report 4_5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Report 4_5</c:v>
+                  <c:v>Report 1_5_2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Report 1_5_2</c:v>
+                  <c:v>Report 1_6_1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Report 1_6_1</c:v>
+                  <c:v>Report 1_5_1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Report 1_5_1</c:v>
+                  <c:v>Report 3_7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Report 3_7</c:v>
+                  <c:v>Report 3_3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Report 3_3</c:v>
+                  <c:v>Report 3_5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Report 3_5</c:v>
+                  <c:v>Report 3_2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Report 3_2</c:v>
+                  <c:v>Report 3_4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Report 3_4</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>Report 3_6</c:v>
                 </c:pt>
               </c:strCache>
@@ -500,101 +515,105 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Times of SP'!$D$2:$D$33</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Times of SP'!$D$2:$D$33</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Times of SP'!$D$3:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>427017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>427017</c:v>
+                  <c:v>202116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>202116</c:v>
+                  <c:v>147443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147443</c:v>
+                  <c:v>33168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33168</c:v>
+                  <c:v>39300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39300</c:v>
+                  <c:v>21785</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21785</c:v>
+                  <c:v>10634</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10634</c:v>
+                  <c:v>9522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9522</c:v>
+                  <c:v>2536</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2536</c:v>
+                  <c:v>12655</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12655</c:v>
+                  <c:v>8998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8998</c:v>
+                  <c:v>11381</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11381</c:v>
+                  <c:v>6429</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6429</c:v>
+                  <c:v>6347</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6347</c:v>
+                  <c:v>6249</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6249</c:v>
+                  <c:v>5973</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5973</c:v>
+                  <c:v>1244</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1244</c:v>
+                  <c:v>3433</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3433</c:v>
+                  <c:v>5483</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5483</c:v>
+                  <c:v>2650</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2650</c:v>
+                  <c:v>3960</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3960</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>72</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>13</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>184</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
@@ -611,11 +630,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-784221136"/>
-        <c:axId val="-784220048"/>
+        <c:axId val="-1284867344"/>
+        <c:axId val="-1284862992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-784221136"/>
+        <c:axId val="-1284867344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,7 +677,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-784220048"/>
+        <c:crossAx val="-1284862992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -666,7 +685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-784220048"/>
+        <c:axId val="-1284862992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -717,7 +736,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-784221136"/>
+        <c:crossAx val="-1284867344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -729,6 +748,669 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TimeStamps!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SELECT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TimeStamps!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Report 2_6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Report 2_5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Report 3_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Report 4_2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Report 4_4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report 1_1_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Report 1_1_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TimeStamps!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>24200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TimeStamps!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UPDATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TimeStamps!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Report 2_6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Report 2_5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Report 3_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Report 4_2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Report 4_4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report 1_1_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Report 1_1_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TimeStamps!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>87160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TimeStamps!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UPDATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TimeStamps!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Report 2_6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Report 2_5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Report 3_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Report 4_2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Report 4_4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report 1_1_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Report 1_1_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TimeStamps!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7870</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TimeStamps!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UPDATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TimeStamps!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Report 2_6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Report 2_5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Report 3_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Report 4_2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Report 4_4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report 1_1_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Report 1_1_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TimeStamps!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10850</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TimeStamps!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UPDATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TimeStamps!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Report 2_6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Report 2_5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Report 3_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Report 4_2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Report 4_4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report 1_1_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Report 1_1_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TimeStamps!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TimeStamps!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DELETE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TimeStamps!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Report 2_6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Report 2_5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Report 3_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Report 4_2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Report 4_4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report 1_1_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Report 1_1_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TimeStamps!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-976932496"/>
+        <c:axId val="-976943376"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-976932496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-976943376"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-976943376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-976932496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -806,6 +1488,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1309,20 +2031,558 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1633,7 +2893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1725,28 +2985,28 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickTop="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3">
@@ -1756,12 +3016,12 @@
         <f t="shared" ref="C3:C32" si="0">SUM(B3/4)</f>
         <v>116093</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>427017</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B4">
@@ -1771,12 +3031,12 @@
         <f t="shared" si="0"/>
         <v>43648.5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>202116</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B5">
@@ -1786,12 +3046,12 @@
         <f t="shared" si="0"/>
         <v>34500</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>147443</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B6">
@@ -1801,12 +3061,12 @@
         <f t="shared" si="0"/>
         <v>8796.75</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>33168</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B7">
@@ -1816,12 +3076,12 @@
         <f t="shared" si="0"/>
         <v>7296.75</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>39300</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B8">
@@ -1831,12 +3091,12 @@
         <f t="shared" si="0"/>
         <v>4593.75</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>21785</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B9">
@@ -1846,12 +3106,12 @@
         <f t="shared" si="0"/>
         <v>2250.5</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>10634</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B10">
@@ -1861,12 +3121,12 @@
         <f t="shared" si="0"/>
         <v>2085.75</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>9522</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B11">
@@ -1876,12 +3136,12 @@
         <f t="shared" si="0"/>
         <v>2011.5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>2536</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B12">
@@ -1891,12 +3151,12 @@
         <f t="shared" si="0"/>
         <v>1965</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>12655</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B13">
@@ -1906,12 +3166,12 @@
         <f t="shared" si="0"/>
         <v>1921.75</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>8998</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B14">
@@ -1921,12 +3181,12 @@
         <f t="shared" si="0"/>
         <v>1703.25</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>11381</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B15">
@@ -1936,12 +3196,12 @@
         <f t="shared" si="0"/>
         <v>1492</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>6429</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B16">
@@ -1951,12 +3211,12 @@
         <f t="shared" si="0"/>
         <v>1484.25</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>6347</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B17">
@@ -1966,12 +3226,12 @@
         <f t="shared" si="0"/>
         <v>1465</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>6249</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B18">
@@ -1981,12 +3241,12 @@
         <f t="shared" si="0"/>
         <v>1336</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>5973</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B19">
@@ -1996,12 +3256,12 @@
         <f t="shared" si="0"/>
         <v>1113</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>1244</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B20">
@@ -2011,12 +3271,12 @@
         <f t="shared" si="0"/>
         <v>781.25</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>3433</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B21">
@@ -2026,12 +3286,12 @@
         <f t="shared" si="0"/>
         <v>773.5</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>5483</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B22">
@@ -2041,12 +3301,12 @@
         <f t="shared" si="0"/>
         <v>590</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>2650</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B23">
@@ -2056,12 +3316,12 @@
         <f t="shared" si="0"/>
         <v>304.25</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>3960</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B24">
@@ -2071,12 +3331,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B25">
@@ -2086,12 +3346,12 @@
         <f t="shared" si="0"/>
         <v>7.75</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B26">
@@ -2101,12 +3361,12 @@
         <f t="shared" si="0"/>
         <v>7.75</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B27">
@@ -2116,12 +3376,12 @@
         <f t="shared" si="0"/>
         <v>7.75</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B28">
@@ -2131,12 +3391,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B29">
@@ -2146,12 +3406,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B30">
@@ -2161,12 +3421,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="5">
         <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B31">
@@ -2176,12 +3436,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B32">
@@ -2191,7 +3451,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="5">
         <v>34</v>
       </c>
     </row>
@@ -2207,10 +3467,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2218,11 +3478,8 @@
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1">
-      <c r="A1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
+      <c r="B1" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="11"/>
@@ -2230,10 +3487,11 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A2" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1">
+      <c r="A2" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" t="s">
         <v>43</v>
       </c>
@@ -2250,53 +3508,86 @@
         <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickTop="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
+      <c r="B3">
+        <v>24200</v>
+      </c>
+      <c r="C3">
+        <v>87160</v>
+      </c>
+      <c r="D3">
+        <v>10020</v>
+      </c>
+      <c r="E3">
+        <v>10850</v>
+      </c>
+      <c r="F3">
+        <v>9573</v>
+      </c>
+      <c r="G3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="8" t="s">
+      <c r="B4">
+        <v>35043</v>
+      </c>
+      <c r="C4">
+        <v>9116</v>
+      </c>
+      <c r="D4">
+        <v>7870</v>
+      </c>
+      <c r="E4">
+        <v>10140</v>
+      </c>
+      <c r="F4">
+        <v>473</v>
+      </c>
+      <c r="G4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
     <sheet name="Times of SP" sheetId="2" r:id="rId2"/>
     <sheet name="TimeStamps" sheetId="3" r:id="rId3"/>
+    <sheet name="Troublepart of SP" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Measure time of total SP</t>
   </si>
@@ -147,9 +148,6 @@
     <t>Report 3_6</t>
   </si>
   <si>
-    <t>SELECT</t>
-  </si>
-  <si>
     <t>UPDATE</t>
   </si>
   <si>
@@ -160,6 +158,9 @@
   </si>
   <si>
     <t>Stored Procedures</t>
+  </si>
+  <si>
+    <t>INSERT</t>
   </si>
 </sst>
 </file>
@@ -175,18 +176,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -295,29 +290,29 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,11 +625,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1284867344"/>
-        <c:axId val="-1284862992"/>
+        <c:axId val="2116993280"/>
+        <c:axId val="2116982400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1284867344"/>
+        <c:axId val="2116993280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +672,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1284862992"/>
+        <c:crossAx val="2116982400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -685,7 +680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1284862992"/>
+        <c:axId val="2116982400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +731,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1284867344"/>
+        <c:crossAx val="2116993280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -846,7 +841,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SELECT</c:v>
+                  <c:v>INSERT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -902,6 +897,21 @@
                 <c:pt idx="1">
                   <c:v>35043</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>4806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10710</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -971,6 +981,15 @@
                 <c:pt idx="1">
                   <c:v>9116</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>45713</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1040,6 +1059,15 @@
                 <c:pt idx="1">
                   <c:v>7870</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>24616</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1109,6 +1137,15 @@
                 <c:pt idx="1">
                   <c:v>10140</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1247,6 +1284,9 @@
                 <c:pt idx="1">
                   <c:v>490</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>514</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1261,11 +1301,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-976932496"/>
-        <c:axId val="-976943376"/>
+        <c:axId val="2116771760"/>
+        <c:axId val="2116776112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-976932496"/>
+        <c:axId val="2116771760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,7 +1348,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-976943376"/>
+        <c:crossAx val="2116776112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1316,7 +1356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-976943376"/>
+        <c:axId val="2116776112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,7 +1407,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-976932496"/>
+        <c:crossAx val="2116771760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2539,15 +2579,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2573,16 +2613,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2893,7 +2933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2973,485 +3013,486 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="B11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickTop="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>464372</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <f t="shared" ref="C3:C32" si="0">SUM(B3/4)</f>
         <v>116093</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="12">
         <v>427017</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>174594</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <f t="shared" si="0"/>
         <v>43648.5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="12">
         <v>202116</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>138000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>34500</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="12">
         <v>147443</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>35187</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>8796.75</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="12">
         <v>33168</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>29187</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>7296.75</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="12">
         <v>39300</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>18375</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>4593.75</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="12">
         <v>21785</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>9002</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>2250.5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="12">
         <v>10634</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>8343</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>2085.75</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="12">
         <v>9522</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>8046</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>2011.5</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="12">
         <v>2536</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>7860</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>1965</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="12">
         <v>12655</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>7687</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>1921.75</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="12">
         <v>8998</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>6813</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>1703.25</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="12">
         <v>11381</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>5968</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>1492</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="12">
         <v>6429</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>5937</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>1484.25</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="12">
         <v>6347</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>5860</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>1465</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="12">
         <v>6249</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>5344</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>1336</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="12">
         <v>5973</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>4452</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>1113</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="12">
         <v>1244</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>3125</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>781.25</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="12">
         <v>3433</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>3094</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>773.5</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="12">
         <v>5483</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>2360</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>590</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="12">
         <v>2650</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>1217</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>304.25</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="12">
         <v>3960</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>32</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="12">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>31</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>7.75</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>31</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>7.75</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="12">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>31</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>7.75</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="12">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>16</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="12">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>16</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="12">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>16</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="12">
         <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>0</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="12">
         <v>34</v>
       </c>
     </row>
@@ -3469,117 +3510,163 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1">
+      <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>24200</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>87160</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>10020</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>10850</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>9573</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>35043</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>9116</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>7870</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>10140</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>473</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="B5" s="2">
+        <v>4806</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45713</v>
+      </c>
+      <c r="D5" s="2">
+        <v>24616</v>
+      </c>
+      <c r="E5" s="2">
+        <v>243</v>
+      </c>
+      <c r="G5" s="2">
+        <v>514</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="B6" s="2">
+        <v>8134</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B7" s="2">
+        <v>12264</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="B8" s="2">
+        <v>12010</v>
+      </c>
+      <c r="C8" s="2">
+        <v>223</v>
+      </c>
+      <c r="D8" s="2">
+        <v>246</v>
+      </c>
+      <c r="E8" s="2">
+        <v>328</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10710</v>
+      </c>
+      <c r="C9" s="2">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2">
+        <v>70</v>
+      </c>
+      <c r="E9" s="12">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3590,4 +3677,91 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>INDEX(TimeStamps!$B$2:$G$2,,MATCH(MAX(TimeStamps!B3:G3),TimeStamps!B3:G3,0))</f>
+        <v>UPDATE</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>INDEX(TimeStamps!$B$2:$G$2,,MATCH(MAX(TimeStamps!B4:G4),TimeStamps!B4:G4,0))</f>
+        <v>INSERT</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>INDEX(TimeStamps!$B$2:$G$2,,MATCH(MAX(TimeStamps!B5:G5),TimeStamps!B5:G5,0))</f>
+        <v>UPDATE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>INDEX(TimeStamps!$B$2:$G$2,,MATCH(MAX(TimeStamps!B6:G6),TimeStamps!B6:G6,0))</f>
+        <v>INSERT</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>INDEX(TimeStamps!$B$2:$G$2,,MATCH(MAX(TimeStamps!B7:G7),TimeStamps!B7:G7,0))</f>
+        <v>INSERT</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>INDEX(TimeStamps!$B$2:$G$2,,MATCH(MAX(TimeStamps!B8:G8),TimeStamps!B8:G8,0))</f>
+        <v>INSERT</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>INDEX(TimeStamps!$B$2:$G$2,,MATCH(MAX(TimeStamps!B9:G9),TimeStamps!B9:G9,0))</f>
+        <v>INSERT</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
     <sheet name="Times of SP" sheetId="2" r:id="rId2"/>
     <sheet name="TimeStamps" sheetId="3" r:id="rId3"/>
     <sheet name="Troublepart of SP" sheetId="4" r:id="rId4"/>
+    <sheet name="Table content drop" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>Measure time of total SP</t>
   </si>
@@ -162,6 +163,24 @@
   <si>
     <t>INSERT</t>
   </si>
+  <si>
+    <t>Troublesome statement</t>
+  </si>
+  <si>
+    <t>Troublesome Table</t>
+  </si>
+  <si>
+    <t>EXT_HISTORY_MASTER</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>EXT_ITEM</t>
+  </si>
+  <si>
+    <t>EXT_ITEM_LEDGER_ENTRY</t>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -284,11 +303,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -296,23 +352,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,11 +698,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2116993280"/>
-        <c:axId val="2116982400"/>
+        <c:axId val="989351648"/>
+        <c:axId val="989346208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2116993280"/>
+        <c:axId val="989351648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -672,7 +745,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116982400"/>
+        <c:crossAx val="989346208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -680,7 +753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116982400"/>
+        <c:axId val="989346208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,7 +804,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116993280"/>
+        <c:crossAx val="989351648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1301,11 +1374,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2116771760"/>
-        <c:axId val="2116776112"/>
+        <c:axId val="989341312"/>
+        <c:axId val="989341856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2116771760"/>
+        <c:axId val="989341312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1348,7 +1421,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116776112"/>
+        <c:crossAx val="989341856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1356,7 +1429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116776112"/>
+        <c:axId val="989341856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +1480,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116771760"/>
+        <c:crossAx val="989341312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1451,6 +1524,1864 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10447188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9706149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6945334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3726035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop'!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>253501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>236662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1158916912"/>
+        <c:axId val="1158919632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1158916912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1158919632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1158919632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1158916912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop'!$G$3:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10447188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9706149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6945334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3726035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop'!$H$3:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1328</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1160180352"/>
+        <c:axId val="1160184704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1160180352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1160184704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1160184704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1160180352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop'!$I$3:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10447188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9706149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6945334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3726035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop'!$J$3:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1160192864"/>
+        <c:axId val="1160190688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1160192864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1160190688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1160190688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1160192864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Table content drop'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop'!$K$4:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop'!$L$4:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1160179808"/>
+        <c:axId val="1160178720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1160179808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1160178720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1160178720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1160179808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Table content drop'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop'!$M$4:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop'!$N$4:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1160186336"/>
+        <c:axId val="1160190144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1160186336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1160190144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1160190144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1160186336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop'!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>39869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop'!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>64036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1075631600"/>
+        <c:axId val="1075632688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1075631600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075632688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1075632688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075631600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop'!$E$3:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2732242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2572413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1821520</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>978797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop'!$F$3:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>83848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40827</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1075633232"/>
+        <c:axId val="1075628880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1075633232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075628880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1075628880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1075633232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1568,6 +3499,286 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2555,6 +4766,3618 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2636,6 +8459,221 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1557337</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3025,24 +9063,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3057,7 +9095,7 @@
         <f t="shared" ref="C3:C32" si="0">SUM(B3/4)</f>
         <v>116093</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>427017</v>
       </c>
     </row>
@@ -3072,7 +9110,7 @@
         <f t="shared" si="0"/>
         <v>43648.5</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="8">
         <v>202116</v>
       </c>
     </row>
@@ -3087,7 +9125,7 @@
         <f t="shared" si="0"/>
         <v>34500</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>147443</v>
       </c>
     </row>
@@ -3102,7 +9140,7 @@
         <f t="shared" si="0"/>
         <v>8796.75</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>33168</v>
       </c>
     </row>
@@ -3117,7 +9155,7 @@
         <f t="shared" si="0"/>
         <v>7296.75</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>39300</v>
       </c>
     </row>
@@ -3132,7 +9170,7 @@
         <f t="shared" si="0"/>
         <v>4593.75</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <v>21785</v>
       </c>
     </row>
@@ -3147,7 +9185,7 @@
         <f t="shared" si="0"/>
         <v>2250.5</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <v>10634</v>
       </c>
     </row>
@@ -3162,7 +9200,7 @@
         <f t="shared" si="0"/>
         <v>2085.75</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="8">
         <v>9522</v>
       </c>
     </row>
@@ -3177,7 +9215,7 @@
         <f t="shared" si="0"/>
         <v>2011.5</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <v>2536</v>
       </c>
     </row>
@@ -3192,7 +9230,7 @@
         <f t="shared" si="0"/>
         <v>1965</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="8">
         <v>12655</v>
       </c>
     </row>
@@ -3207,7 +9245,7 @@
         <f t="shared" si="0"/>
         <v>1921.75</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="8">
         <v>8998</v>
       </c>
     </row>
@@ -3222,7 +9260,7 @@
         <f t="shared" si="0"/>
         <v>1703.25</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="8">
         <v>11381</v>
       </c>
     </row>
@@ -3237,7 +9275,7 @@
         <f t="shared" si="0"/>
         <v>1492</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="8">
         <v>6429</v>
       </c>
     </row>
@@ -3252,7 +9290,7 @@
         <f t="shared" si="0"/>
         <v>1484.25</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="8">
         <v>6347</v>
       </c>
     </row>
@@ -3267,7 +9305,7 @@
         <f t="shared" si="0"/>
         <v>1465</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="8">
         <v>6249</v>
       </c>
     </row>
@@ -3282,7 +9320,7 @@
         <f t="shared" si="0"/>
         <v>1336</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="8">
         <v>5973</v>
       </c>
     </row>
@@ -3297,7 +9335,7 @@
         <f t="shared" si="0"/>
         <v>1113</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="8">
         <v>1244</v>
       </c>
     </row>
@@ -3312,7 +9350,7 @@
         <f t="shared" si="0"/>
         <v>781.25</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="8">
         <v>3433</v>
       </c>
     </row>
@@ -3327,7 +9365,7 @@
         <f t="shared" si="0"/>
         <v>773.5</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="8">
         <v>5483</v>
       </c>
     </row>
@@ -3342,7 +9380,7 @@
         <f t="shared" si="0"/>
         <v>590</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="8">
         <v>2650</v>
       </c>
     </row>
@@ -3357,7 +9395,7 @@
         <f t="shared" si="0"/>
         <v>304.25</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="8">
         <v>3960</v>
       </c>
     </row>
@@ -3372,7 +9410,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="8">
         <v>35</v>
       </c>
     </row>
@@ -3387,7 +9425,7 @@
         <f t="shared" si="0"/>
         <v>7.75</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="8">
         <v>22</v>
       </c>
     </row>
@@ -3402,7 +9440,7 @@
         <f t="shared" si="0"/>
         <v>7.75</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="8">
         <v>27</v>
       </c>
     </row>
@@ -3417,7 +9455,7 @@
         <f t="shared" si="0"/>
         <v>7.75</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="8">
         <v>72</v>
       </c>
     </row>
@@ -3432,7 +9470,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="8">
         <v>13</v>
       </c>
     </row>
@@ -3447,7 +9485,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="8">
         <v>13</v>
       </c>
     </row>
@@ -3462,7 +9500,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="8">
         <v>184</v>
       </c>
     </row>
@@ -3477,12 +9515,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" thickBot="1">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B32" s="2">
@@ -3492,7 +9530,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="8">
         <v>34</v>
       </c>
     </row>
@@ -3510,7 +9548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3521,14 +9559,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1">
       <c r="A2" s="1" t="s">
@@ -3665,7 +9703,7 @@
       <c r="D9" s="2">
         <v>70</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="8">
         <v>75</v>
       </c>
     </row>
@@ -3681,24 +9719,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -3706,8 +9752,11 @@
         <f>INDEX(TimeStamps!$B$2:$G$2,,MATCH(MAX(TimeStamps!B3:G3),TimeStamps!B3:G3,0))</f>
         <v>UPDATE</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -3715,8 +9764,11 @@
         <f>INDEX(TimeStamps!$B$2:$G$2,,MATCH(MAX(TimeStamps!B4:G4),TimeStamps!B4:G4,0))</f>
         <v>INSERT</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -3724,8 +9776,11 @@
         <f>INDEX(TimeStamps!$B$2:$G$2,,MATCH(MAX(TimeStamps!B5:G5),TimeStamps!B5:G5,0))</f>
         <v>UPDATE</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -3733,8 +9788,11 @@
         <f>INDEX(TimeStamps!$B$2:$G$2,,MATCH(MAX(TimeStamps!B6:G6),TimeStamps!B6:G6,0))</f>
         <v>INSERT</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -3742,8 +9800,11 @@
         <f>INDEX(TimeStamps!$B$2:$G$2,,MATCH(MAX(TimeStamps!B7:G7),TimeStamps!B7:G7,0))</f>
         <v>INSERT</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -3751,8 +9812,11 @@
         <f>INDEX(TimeStamps!$B$2:$G$2,,MATCH(MAX(TimeStamps!B8:G8),TimeStamps!B8:G8,0))</f>
         <v>INSERT</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -3760,8 +9824,342 @@
         <f>INDEX(TimeStamps!$B$2:$G$2,,MATCH(MAX(TimeStamps!B9:G9),TimeStamps!B9:G9,0))</f>
         <v>INSERT</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="14" width="20.75" style="23" customWidth="1"/>
+    <col min="15" max="15" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="15" t="str">
+        <f>CONCATENATE('Troublepart of SP'!$A2," - ",'Troublepart of SP'!$C2)</f>
+        <v>Report 2_6 - EXT_HISTORY_MASTER</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="str">
+        <f>CONCATENATE('Troublepart of SP'!$A3," - ",'Troublepart of SP'!$C3)</f>
+        <v>Report 2_5 - EXT_ITEM</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="16" t="str">
+        <f>CONCATENATE('Troublepart of SP'!$A4," - ",'Troublepart of SP'!$C4)</f>
+        <v>Report 3_1 - EXT_ITEM_LEDGER_ENTRY</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="str">
+        <f>CONCATENATE('Troublepart of SP'!$A5," - ",'Troublepart of SP'!$C5)</f>
+        <v>Report 4_2 - EXT_HISTORY_MASTER</v>
+      </c>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16" t="str">
+        <f>CONCATENATE('Troublepart of SP'!$A6," - ",'Troublepart of SP'!$C6)</f>
+        <v>Report 4_4 - EXT_HISTORY_MASTER</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="str">
+        <f>CONCATENATE('Troublepart of SP'!$A7," - ",'Troublepart of SP'!$C7)</f>
+        <v>Report 1_1_2 - EXT_ITEM</v>
+      </c>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16" t="str">
+        <f>CONCATENATE('Troublepart of SP'!$A8," - ",'Troublepart of SP'!$C8)</f>
+        <v>Report 1_1_1 - EXT_ITEM</v>
+      </c>
+      <c r="N1" s="17"/>
+    </row>
+    <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" customFormat="1">
+      <c r="A3">
+        <v>10447188</v>
+      </c>
+      <c r="B3" s="21">
+        <v>253501</v>
+      </c>
+      <c r="C3" s="14">
+        <v>39869</v>
+      </c>
+      <c r="D3" s="21">
+        <v>64036</v>
+      </c>
+      <c r="E3" s="24">
+        <v>2732242</v>
+      </c>
+      <c r="F3" s="22">
+        <v>83848</v>
+      </c>
+      <c r="G3">
+        <v>10447188</v>
+      </c>
+      <c r="H3" s="22">
+        <v>1328</v>
+      </c>
+      <c r="I3">
+        <v>10447188</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="L3" s="22"/>
+    </row>
+    <row r="4" spans="1:14" customFormat="1">
+      <c r="A4">
+        <v>9706149</v>
+      </c>
+      <c r="B4" s="21">
+        <v>236662</v>
+      </c>
+      <c r="C4" s="14">
+        <v>29876</v>
+      </c>
+      <c r="D4" s="21">
+        <v>50437</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2572413</v>
+      </c>
+      <c r="F4" s="22">
+        <v>67341</v>
+      </c>
+      <c r="G4">
+        <v>9706149</v>
+      </c>
+      <c r="H4" s="22">
+        <v>1372</v>
+      </c>
+      <c r="I4">
+        <v>9706149</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" customFormat="1">
+      <c r="A5">
+        <v>6945334</v>
+      </c>
+      <c r="B5" s="21">
+        <v>171116</v>
+      </c>
+      <c r="C5" s="14">
+        <v>19883</v>
+      </c>
+      <c r="D5" s="21">
+        <v>37977</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1821520</v>
+      </c>
+      <c r="F5" s="22">
+        <v>52987</v>
+      </c>
+      <c r="G5">
+        <v>6945334</v>
+      </c>
+      <c r="H5" s="22">
+        <v>4671</v>
+      </c>
+      <c r="I5">
+        <v>6945334</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:14" customFormat="1">
+      <c r="A6">
+        <v>3726035</v>
+      </c>
+      <c r="B6" s="21">
+        <v>102429</v>
+      </c>
+      <c r="C6" s="14">
+        <v>11053</v>
+      </c>
+      <c r="D6" s="21">
+        <v>22819</v>
+      </c>
+      <c r="E6" s="14">
+        <v>978797</v>
+      </c>
+      <c r="F6" s="22">
+        <v>40827</v>
+      </c>
+      <c r="G6">
+        <v>3726035</v>
+      </c>
+      <c r="H6" s="22">
+        <v>4854</v>
+      </c>
+      <c r="I6">
+        <v>3726035</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="1:14" customFormat="1">
+      <c r="A7">
+        <v>280859</v>
+      </c>
+      <c r="B7" s="21">
+        <v>34252</v>
+      </c>
+      <c r="C7" s="14">
+        <v>724</v>
+      </c>
+      <c r="D7" s="21">
+        <v>124</v>
+      </c>
+      <c r="E7" s="14">
+        <v>71366</v>
+      </c>
+      <c r="F7" s="22">
+        <v>31625</v>
+      </c>
+      <c r="G7">
+        <v>280859</v>
+      </c>
+      <c r="H7" s="22">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>280859</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" customFormat="1">
+      <c r="B8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="1:14" customFormat="1">
+      <c r="B9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:14" customFormat="1">
+      <c r="B10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:14" customFormat="1">
+      <c r="B11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="1:14" customFormat="1">
+      <c r="B12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:14" customFormat="1">
+      <c r="B13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:14" customFormat="1">
+      <c r="B14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:14" customFormat="1">
+      <c r="B15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="L15" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
     <sheet name="Times of SP" sheetId="2" r:id="rId2"/>
     <sheet name="TimeStamps" sheetId="3" r:id="rId3"/>
     <sheet name="Troublepart of SP" sheetId="4" r:id="rId4"/>
-    <sheet name="Table content drop" sheetId="5" r:id="rId5"/>
+    <sheet name="Table content drop wo I&amp;Keys" sheetId="5" r:id="rId5"/>
+    <sheet name="Table content drop w I&amp;Keys" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
   <si>
     <t>Measure time of total SP</t>
   </si>
@@ -357,6 +358,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,23 +378,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +419,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -698,11 +698,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="989351648"/>
-        <c:axId val="989346208"/>
+        <c:axId val="-684916144"/>
+        <c:axId val="-684913968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="989351648"/>
+        <c:axId val="-684916144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,7 +745,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="989346208"/>
+        <c:crossAx val="-684913968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -753,7 +753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="989346208"/>
+        <c:axId val="-684913968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,9 +804,1864 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="989351648"/>
+        <c:crossAx val="-684916144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop wo I&amp;Keys'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10447188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9706149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6945334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3726035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop wo I&amp;Keys'!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>253501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>236662</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>171116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-681484224"/>
+        <c:axId val="-681484768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-681484224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-681484768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-681484768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-681484224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop wo I&amp;Keys'!$G$3:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10447188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9706149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6945334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3726035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop wo I&amp;Keys'!$H$3:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1328</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-681476064"/>
+        <c:axId val="-681485856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-681476064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-681485856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-681485856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-681476064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop wo I&amp;Keys'!$I$3:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10447188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9706149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6945334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3726035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop wo I&amp;Keys'!$J$3:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-681472800"/>
+        <c:axId val="-681488032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-681472800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-681488032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-681488032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-681472800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop wo I&amp;Keys'!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>39869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop wo I&amp;Keys'!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>64036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-681479872"/>
+        <c:axId val="-681482592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-681479872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-681482592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-681482592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-681479872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop wo I&amp;Keys'!$E$3:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2732242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2572413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1821520</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>978797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop wo I&amp;Keys'!$F$3:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>83848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40827</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-607944912"/>
+        <c:axId val="-607949264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-607944912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-607949264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-607949264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-607944912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop wo I&amp;Keys'!$K$3:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>39869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop wo I&amp;Keys'!$L$3:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>11983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11126</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10769</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-607943824"/>
+        <c:axId val="-607948720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-607943824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-607948720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-607948720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-607943824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop wo I&amp;Keys'!$M$3:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>39869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop wo I&amp;Keys'!$N$3:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-607951984"/>
+        <c:axId val="-607941648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-607951984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-607941648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-607941648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-607951984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -868,7 +2723,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1374,11 +3228,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="989341312"/>
-        <c:axId val="989341856"/>
+        <c:axId val="-684912880"/>
+        <c:axId val="-684920496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="989341312"/>
+        <c:axId val="-684912880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,7 +3275,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="989341856"/>
+        <c:crossAx val="-684920496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1429,7 +3283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="989341856"/>
+        <c:axId val="-684920496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,7 +3334,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="989341312"/>
+        <c:crossAx val="-684912880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1494,7 +3348,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1598,7 +3451,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop'!$A$3:$A$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$A$3:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1622,7 +3475,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop'!$B$3:$B$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1654,11 +3507,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1158916912"/>
-        <c:axId val="1158919632"/>
+        <c:axId val="-684914512"/>
+        <c:axId val="-684905264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1158916912"/>
+        <c:axId val="-684914512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,12 +3568,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1158919632"/>
+        <c:crossAx val="-684905264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1158919632"/>
+        <c:axId val="-684905264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +3630,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1158916912"/>
+        <c:crossAx val="-684914512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1863,7 +3716,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop'!$G$3:$G$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$G$3:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1887,7 +3740,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop'!$H$3:$H$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$H$3:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1919,11 +3772,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1160180352"/>
-        <c:axId val="1160184704"/>
+        <c:axId val="-684909616"/>
+        <c:axId val="-684919952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1160180352"/>
+        <c:axId val="-684909616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,12 +3833,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1160184704"/>
+        <c:crossAx val="-684919952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1160184704"/>
+        <c:axId val="-684919952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2042,7 +3895,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1160180352"/>
+        <c:crossAx val="-684909616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2128,7 +3981,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop'!$I$3:$I$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$I$3:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2152,10 +4005,25 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop'!$J$3:$J$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$J$3:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2169,11 +4037,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1160192864"/>
-        <c:axId val="1160190688"/>
+        <c:axId val="-684911792"/>
+        <c:axId val="-684910704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1160192864"/>
+        <c:axId val="-684911792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,12 +4098,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1160190688"/>
+        <c:crossAx val="-684910704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1160190688"/>
+        <c:axId val="-684910704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2292,7 +4160,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1160192864"/>
+        <c:crossAx val="-684911792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2355,38 +4223,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2395,14 +4232,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Table content drop'!$L$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2417,19 +4246,49 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop'!$K$4:$K$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>39869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>724</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop'!$L$4:$L$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$D$3:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>64036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50437</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2443,11 +4302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1160179808"/>
-        <c:axId val="1160178720"/>
+        <c:axId val="-684915600"/>
+        <c:axId val="-683659536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1160179808"/>
+        <c:axId val="-684915600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2504,12 +4363,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1160178720"/>
+        <c:crossAx val="-683659536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1160178720"/>
+        <c:axId val="-683659536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2566,7 +4425,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1160179808"/>
+        <c:crossAx val="-684915600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2629,38 +4488,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2669,14 +4497,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Table content drop'!$N$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2691,19 +4511,49 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop'!$M$4:$M$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$E$3:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2732242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2572413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1821520</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>978797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71366</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop'!$N$4:$N$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$F$3:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>83848</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67341</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40827</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31625</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2717,11 +4567,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1160186336"/>
-        <c:axId val="1160190144"/>
+        <c:axId val="-683662256"/>
+        <c:axId val="-683651376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1160186336"/>
+        <c:axId val="-683662256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2778,12 +4628,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1160190144"/>
+        <c:crossAx val="-683651376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1160190144"/>
+        <c:axId val="-683651376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2840,7 +4690,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1160186336"/>
+        <c:crossAx val="-683662256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2926,7 +4776,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop'!$C$3:$C$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$K$3:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2950,24 +4800,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop'!$D$3:$D$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$L$3:$L$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>64036</c:v>
+                  <c:v>11983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50437</c:v>
+                  <c:v>11126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37977</c:v>
+                  <c:v>10769</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22819</c:v>
+                  <c:v>6137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>124</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2982,11 +4832,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1075631600"/>
-        <c:axId val="1075632688"/>
+        <c:axId val="-618586672"/>
+        <c:axId val="-618587760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1075631600"/>
+        <c:axId val="-618586672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3043,12 +4893,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1075632688"/>
+        <c:crossAx val="-618587760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1075632688"/>
+        <c:axId val="-618587760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3105,7 +4955,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1075631600"/>
+        <c:crossAx val="-618586672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3191,48 +5041,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop'!$E$3:$E$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$M$3:$M$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2732242</c:v>
+                  <c:v>39869</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2572413</c:v>
+                  <c:v>29876</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1821520</c:v>
+                  <c:v>19883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>978797</c:v>
+                  <c:v>11053</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71366</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop'!$F$3:$F$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$N$3:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>83848</c:v>
+                  <c:v>10343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67341</c:v>
+                  <c:v>9671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52987</c:v>
+                  <c:v>8947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40827</c:v>
+                  <c:v>5278</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31625</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3247,11 +5097,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1075633232"/>
-        <c:axId val="1075628880"/>
+        <c:axId val="-683654640"/>
+        <c:axId val="-683647568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1075633232"/>
+        <c:axId val="-683654640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3308,12 +5158,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1075628880"/>
+        <c:crossAx val="-683647568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1075628880"/>
+        <c:axId val="-683647568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3370,7 +5220,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1075633232"/>
+        <c:crossAx val="-683654640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3420,6 +5270,286 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4282,6 +6412,3618 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -8561,66 +14303,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1571625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -8643,7 +14325,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8666,6 +14348,295 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="11" name="Chart 10"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1557337</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1571625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9064,11 +15035,11 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
@@ -9559,14 +15530,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1">
       <c r="A2" s="1" t="s">
@@ -9838,94 +15809,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="14" width="20.75" style="23" customWidth="1"/>
-    <col min="15" max="15" width="9" style="23"/>
+    <col min="1" max="14" width="20.75" style="16" customWidth="1"/>
+    <col min="15" max="15" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="15" t="str">
+      <c r="A1" s="24" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A2," - ",'Troublepart of SP'!$C2)</f>
         <v>Report 2_6 - EXT_HISTORY_MASTER</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="str">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A3," - ",'Troublepart of SP'!$C3)</f>
         <v>Report 2_5 - EXT_ITEM</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16" t="str">
+      <c r="D1" s="24"/>
+      <c r="E1" s="22" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A4," - ",'Troublepart of SP'!$C4)</f>
         <v>Report 3_1 - EXT_ITEM_LEDGER_ENTRY</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="str">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A5," - ",'Troublepart of SP'!$C5)</f>
         <v>Report 4_2 - EXT_HISTORY_MASTER</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16" t="str">
+      <c r="H1" s="22"/>
+      <c r="I1" s="22" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A6," - ",'Troublepart of SP'!$C6)</f>
         <v>Report 4_4 - EXT_HISTORY_MASTER</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16" t="str">
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A7," - ",'Troublepart of SP'!$C7)</f>
         <v>Report 1_1_2 - EXT_ITEM</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16" t="str">
+      <c r="L1" s="22"/>
+      <c r="M1" s="22" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A8," - ",'Troublepart of SP'!$C8)</f>
         <v>Report 1_1_1 - EXT_ITEM</v>
       </c>
-      <c r="N1" s="17"/>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="12" t="s">
         <v>45</v>
       </c>
     </row>
@@ -9933,220 +15904,285 @@
       <c r="A3">
         <v>10447188</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="14">
         <v>253501</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>39869</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="14">
         <v>64036</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="17">
         <v>2732242</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="15">
         <v>83848</v>
       </c>
       <c r="G3">
         <v>10447188</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="15">
         <v>1328</v>
       </c>
       <c r="I3">
         <v>10447188</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="J3" s="15">
+        <v>2129</v>
+      </c>
+      <c r="K3" s="10">
+        <v>39869</v>
+      </c>
+      <c r="L3" s="15">
+        <v>11983</v>
+      </c>
+      <c r="M3" s="10">
+        <v>39869</v>
+      </c>
+      <c r="N3" s="17">
+        <v>10343</v>
+      </c>
     </row>
     <row r="4" spans="1:14" customFormat="1">
       <c r="A4">
         <v>9706149</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="14">
         <v>236662</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>29876</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="14">
         <v>50437</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="10">
         <v>2572413</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="15">
         <v>67341</v>
       </c>
       <c r="G4">
         <v>9706149</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="15">
         <v>1372</v>
       </c>
       <c r="I4">
         <v>9706149</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="L4" s="22"/>
+      <c r="J4" s="15">
+        <v>1947</v>
+      </c>
+      <c r="K4" s="10">
+        <v>29876</v>
+      </c>
+      <c r="L4" s="15">
+        <v>11126</v>
+      </c>
+      <c r="M4" s="10">
+        <v>29876</v>
+      </c>
+      <c r="N4">
+        <v>9671</v>
+      </c>
     </row>
     <row r="5" spans="1:14" customFormat="1">
       <c r="A5">
         <v>6945334</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="14">
         <v>171116</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>19883</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="14">
         <v>37977</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>1821520</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="15">
         <v>52987</v>
       </c>
       <c r="G5">
         <v>6945334</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="15">
         <v>4671</v>
       </c>
       <c r="I5">
         <v>6945334</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="L5" s="22"/>
+      <c r="J5" s="15">
+        <v>1370</v>
+      </c>
+      <c r="K5" s="10">
+        <v>19883</v>
+      </c>
+      <c r="L5" s="15">
+        <v>10769</v>
+      </c>
+      <c r="M5" s="10">
+        <v>19883</v>
+      </c>
+      <c r="N5">
+        <v>8947</v>
+      </c>
     </row>
     <row r="6" spans="1:14" customFormat="1">
       <c r="A6">
         <v>3726035</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="14">
         <v>102429</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>11053</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="14">
         <v>22819</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="10">
         <v>978797</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="15">
         <v>40827</v>
       </c>
       <c r="G6">
         <v>3726035</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="15">
         <v>4854</v>
       </c>
       <c r="I6">
         <v>3726035</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="J6" s="15">
+        <v>1079</v>
+      </c>
+      <c r="K6" s="10">
+        <v>11053</v>
+      </c>
+      <c r="L6" s="15">
+        <v>6137</v>
+      </c>
+      <c r="M6" s="10">
+        <v>11053</v>
+      </c>
+      <c r="N6">
+        <v>5278</v>
+      </c>
     </row>
     <row r="7" spans="1:14" customFormat="1">
       <c r="A7">
         <v>280859</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="14">
         <v>34252</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>724</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="14">
         <v>124</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>71366</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="15">
         <v>31625</v>
       </c>
       <c r="G7">
         <v>280859</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="15">
         <v>11</v>
       </c>
       <c r="I7">
         <v>280859</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="J7" s="15">
+        <v>60</v>
+      </c>
+      <c r="K7" s="10">
+        <v>724</v>
+      </c>
+      <c r="L7" s="15">
+        <v>15</v>
+      </c>
+      <c r="M7" s="10">
+        <v>724</v>
+      </c>
+      <c r="N7">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:14" customFormat="1">
-      <c r="B8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="L8" s="22"/>
+      <c r="B8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:14" customFormat="1">
-      <c r="B9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="L9" s="22"/>
+      <c r="B9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:14" customFormat="1">
-      <c r="B10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="B10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:14" customFormat="1">
-      <c r="B11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="L11" s="22"/>
+      <c r="B11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:14" customFormat="1">
-      <c r="B12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="L12" s="22"/>
+      <c r="B12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:14" customFormat="1">
-      <c r="B13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="B13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:14" customFormat="1">
-      <c r="B14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="B14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:14" customFormat="1">
-      <c r="B15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="B15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="L15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10162,4 +16198,324 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="14" width="20.75" style="16" customWidth="1"/>
+    <col min="15" max="15" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="24" t="str">
+        <f>CONCATENATE('Troublepart of SP'!$A2," - ",'Troublepart of SP'!$C2)</f>
+        <v>Report 2_6 - EXT_HISTORY_MASTER</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="str">
+        <f>CONCATENATE('Troublepart of SP'!$A3," - ",'Troublepart of SP'!$C3)</f>
+        <v>Report 2_5 - EXT_ITEM</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="22" t="str">
+        <f>CONCATENATE('Troublepart of SP'!$A4," - ",'Troublepart of SP'!$C4)</f>
+        <v>Report 3_1 - EXT_ITEM_LEDGER_ENTRY</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="str">
+        <f>CONCATENATE('Troublepart of SP'!$A5," - ",'Troublepart of SP'!$C5)</f>
+        <v>Report 4_2 - EXT_HISTORY_MASTER</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22" t="str">
+        <f>CONCATENATE('Troublepart of SP'!$A6," - ",'Troublepart of SP'!$C6)</f>
+        <v>Report 4_4 - EXT_HISTORY_MASTER</v>
+      </c>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22" t="str">
+        <f>CONCATENATE('Troublepart of SP'!$A7," - ",'Troublepart of SP'!$C7)</f>
+        <v>Report 1_1_2 - EXT_ITEM</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22" t="str">
+        <f>CONCATENATE('Troublepart of SP'!$A8," - ",'Troublepart of SP'!$C8)</f>
+        <v>Report 1_1_1 - EXT_ITEM</v>
+      </c>
+      <c r="N1" s="23"/>
+    </row>
+    <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" customFormat="1">
+      <c r="A3">
+        <v>10447188</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="10">
+        <v>39869</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="17">
+        <v>2732242</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3">
+        <v>10447188</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3">
+        <v>10447188</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="10">
+        <v>39869</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="10">
+        <v>39869</v>
+      </c>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" customFormat="1">
+      <c r="A4">
+        <v>9706149</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="10">
+        <v>29876</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10">
+        <v>2572413</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4">
+        <v>9706149</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4">
+        <v>9706149</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="10">
+        <v>29876</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="10">
+        <v>29876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" customFormat="1">
+      <c r="A5">
+        <v>6945334</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="10">
+        <v>19883</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10">
+        <v>1821520</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5">
+        <v>6945334</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5">
+        <v>6945334</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="10">
+        <v>19883</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="10">
+        <v>19883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" customFormat="1">
+      <c r="A6">
+        <v>3726035</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10">
+        <v>11053</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="10">
+        <v>978797</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6">
+        <v>3726035</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6">
+        <v>3726035</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="10">
+        <v>11053</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="10">
+        <v>11053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" customFormat="1">
+      <c r="A7">
+        <v>280859</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10">
+        <v>724</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="10">
+        <v>71366</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7">
+        <v>280859</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7">
+        <v>280859</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="10">
+        <v>724</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="10">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" customFormat="1">
+      <c r="B8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" customFormat="1">
+      <c r="B9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" customFormat="1">
+      <c r="B10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" customFormat="1">
+      <c r="B11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" customFormat="1">
+      <c r="B12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:14" customFormat="1">
+      <c r="B13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:14" customFormat="1">
+      <c r="B14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:14" customFormat="1">
+      <c r="B15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="L15" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Table content drop w I&amp;Keys" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -698,11 +699,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-684916144"/>
-        <c:axId val="-684913968"/>
+        <c:axId val="723981376"/>
+        <c:axId val="723982464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-684916144"/>
+        <c:axId val="723981376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -745,7 +746,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-684913968"/>
+        <c:crossAx val="723982464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -753,7 +754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-684913968"/>
+        <c:axId val="723982464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,1864 +805,9 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-684916144"/>
+        <c:crossAx val="723981376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$A$3:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>10447188</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9706149</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6945334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3726035</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>280859</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$B$3:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>253501</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>236662</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>171116</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>102429</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>34252</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-681484224"/>
-        <c:axId val="-681484768"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-681484224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-681484768"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-681484768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-681484224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$G$3:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>10447188</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9706149</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6945334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3726035</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>280859</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$H$3:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1328</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1372</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4671</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4854</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-681476064"/>
-        <c:axId val="-681485856"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-681476064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-681485856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-681485856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-681476064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$I$3:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>10447188</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9706149</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6945334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3726035</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>280859</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$J$3:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2129</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1947</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1370</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1079</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-681472800"/>
-        <c:axId val="-681488032"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-681472800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-681488032"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-681488032"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-681472800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$C$3:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>39869</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29876</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19883</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11053</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>724</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$D$3:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>64036</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50437</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37977</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22819</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>124</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-681479872"/>
-        <c:axId val="-681482592"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-681479872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-681482592"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-681482592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-681479872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$E$3:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2732242</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2572413</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1821520</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>978797</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>71366</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$F$3:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>83848</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>67341</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52987</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40827</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-607944912"/>
-        <c:axId val="-607949264"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-607944912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-607949264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-607949264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-607944912"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$K$3:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>39869</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29876</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19883</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11053</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>724</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$L$3:$L$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>11983</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11126</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10769</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6137</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-607943824"/>
-        <c:axId val="-607948720"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-607943824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-607948720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-607948720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-607943824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$M$3:$M$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>39869</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29876</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19883</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11053</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>724</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$N$3:$N$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>10343</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9671</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8947</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5278</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-607951984"/>
-        <c:axId val="-607941648"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-607951984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-607941648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-607941648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-607951984"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3228,11 +1374,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-684912880"/>
-        <c:axId val="-684920496"/>
+        <c:axId val="723974304"/>
+        <c:axId val="723969952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-684912880"/>
+        <c:axId val="723974304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3275,7 +1421,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-684920496"/>
+        <c:crossAx val="723969952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3283,7 +1429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-684920496"/>
+        <c:axId val="723969952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,7 +1480,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-684912880"/>
+        <c:crossAx val="723974304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3507,11 +1653,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-684914512"/>
-        <c:axId val="-684905264"/>
+        <c:axId val="723967776"/>
+        <c:axId val="723977568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-684914512"/>
+        <c:axId val="723967776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3568,12 +1714,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-684905264"/>
+        <c:crossAx val="723977568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-684905264"/>
+        <c:axId val="723977568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3630,7 +1776,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-684914512"/>
+        <c:crossAx val="723967776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3772,11 +1918,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-684909616"/>
-        <c:axId val="-684919952"/>
+        <c:axId val="723819424"/>
+        <c:axId val="881607568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-684909616"/>
+        <c:axId val="723819424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,12 +1979,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-684919952"/>
+        <c:crossAx val="881607568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-684919952"/>
+        <c:axId val="881607568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3895,7 +2041,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-684909616"/>
+        <c:crossAx val="723819424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4037,11 +2183,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-684911792"/>
-        <c:axId val="-684910704"/>
+        <c:axId val="881616816"/>
+        <c:axId val="881602672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-684911792"/>
+        <c:axId val="881616816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4098,12 +2244,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-684910704"/>
+        <c:crossAx val="881602672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-684910704"/>
+        <c:axId val="881602672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4160,7 +2306,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-684911792"/>
+        <c:crossAx val="881616816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4302,11 +2448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-684915600"/>
-        <c:axId val="-683659536"/>
+        <c:axId val="881612464"/>
+        <c:axId val="881607024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-684915600"/>
+        <c:axId val="881612464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4363,12 +2509,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-683659536"/>
+        <c:crossAx val="881607024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-683659536"/>
+        <c:axId val="881607024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4425,7 +2571,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-684915600"/>
+        <c:crossAx val="881612464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4567,11 +2713,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-683662256"/>
-        <c:axId val="-683651376"/>
+        <c:axId val="881611376"/>
+        <c:axId val="881604848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-683662256"/>
+        <c:axId val="881611376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4628,12 +2774,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-683651376"/>
+        <c:crossAx val="881604848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-683651376"/>
+        <c:axId val="881604848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4690,7 +2836,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-683662256"/>
+        <c:crossAx val="881611376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4832,11 +2978,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-618586672"/>
-        <c:axId val="-618587760"/>
+        <c:axId val="881608656"/>
+        <c:axId val="881611920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-618586672"/>
+        <c:axId val="881608656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4893,12 +3039,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-618587760"/>
+        <c:crossAx val="881611920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-618587760"/>
+        <c:axId val="881611920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4955,7 +3101,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-618586672"/>
+        <c:crossAx val="881608656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5097,11 +3243,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-683654640"/>
-        <c:axId val="-683647568"/>
+        <c:axId val="881609200"/>
+        <c:axId val="881605392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-683654640"/>
+        <c:axId val="881609200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5158,12 +3304,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-683647568"/>
+        <c:crossAx val="881605392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-683647568"/>
+        <c:axId val="881605392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5220,7 +3366,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-683654640"/>
+        <c:crossAx val="881609200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5270,286 +3416,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6412,3618 +4278,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -14424,235 +8678,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1562100</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1543050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1557337</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1571625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1571625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16205,7 +10230,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16516,6 +10541,5 @@
     <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Table content drop w I&amp;Keys" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -205,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -342,11 +341,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -367,6 +390,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -699,11 +725,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="723981376"/>
-        <c:axId val="723982464"/>
+        <c:axId val="-1524066528"/>
+        <c:axId val="-1524071424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="723981376"/>
+        <c:axId val="-1524066528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,7 +772,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723982464"/>
+        <c:crossAx val="-1524071424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -754,7 +780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="723982464"/>
+        <c:axId val="-1524071424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -805,9 +831,274 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723981376"/>
+        <c:crossAx val="-1524066528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10447188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9706149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6945334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3726035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>145645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1310571216"/>
+        <c:axId val="-1310568496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1310571216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1310568496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1310568496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1310571216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1374,11 +1665,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="723974304"/>
-        <c:axId val="723969952"/>
+        <c:axId val="-1311397728"/>
+        <c:axId val="-1311394464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="723974304"/>
+        <c:axId val="-1311397728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,7 +1712,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723969952"/>
+        <c:crossAx val="-1311394464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1429,7 +1720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="723969952"/>
+        <c:axId val="-1311394464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,7 +1771,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723974304"/>
+        <c:crossAx val="-1311397728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1597,23 +1888,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$A$3:$A$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$A$3:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
                   <c:v>10447188</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9706149</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6945334</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3726035</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>280859</c:v>
                 </c:pt>
               </c:numCache>
@@ -1621,23 +1912,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$B$3:$B$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$B$3:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
                   <c:v>253501</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>236662</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>171116</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>102429</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>34252</c:v>
                 </c:pt>
               </c:numCache>
@@ -1653,11 +1944,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="723967776"/>
-        <c:axId val="723977568"/>
+        <c:axId val="-1311405344"/>
+        <c:axId val="-1311406432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="723967776"/>
+        <c:axId val="-1311405344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,12 +2005,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723977568"/>
+        <c:crossAx val="-1311406432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="723977568"/>
+        <c:axId val="-1311406432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1776,7 +2067,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723967776"/>
+        <c:crossAx val="-1311405344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1862,23 +2153,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$G$3:$G$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$G$3:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
                   <c:v>10447188</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9706149</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6945334</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3726035</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>280859</c:v>
                 </c:pt>
               </c:numCache>
@@ -1886,23 +2177,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$H$3:$H$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$H$3:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
                   <c:v>1328</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1372</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4671</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4854</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
@@ -1918,11 +2209,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="723819424"/>
-        <c:axId val="881607568"/>
+        <c:axId val="-1311405888"/>
+        <c:axId val="-1311397184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="723819424"/>
+        <c:axId val="-1311405888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1979,12 +2270,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881607568"/>
+        <c:crossAx val="-1311397184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="881607568"/>
+        <c:axId val="-1311397184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2041,7 +2332,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723819424"/>
+        <c:crossAx val="-1311405888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2127,23 +2418,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$I$3:$I$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$I$3:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
                   <c:v>10447188</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9706149</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6945334</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3726035</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>280859</c:v>
                 </c:pt>
               </c:numCache>
@@ -2151,23 +2442,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$J$3:$J$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$J$3:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
                   <c:v>2129</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1947</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1370</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1079</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
@@ -2183,11 +2474,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="881616816"/>
-        <c:axId val="881602672"/>
+        <c:axId val="-1311393920"/>
+        <c:axId val="-1311395552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="881616816"/>
+        <c:axId val="-1311393920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2244,12 +2535,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881602672"/>
+        <c:crossAx val="-1311395552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="881602672"/>
+        <c:axId val="-1311395552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,7 +2597,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881616816"/>
+        <c:crossAx val="-1311393920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2392,23 +2683,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$C$3:$C$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$C$3:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
                   <c:v>39869</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>29876</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>19883</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>11053</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>724</c:v>
                 </c:pt>
               </c:numCache>
@@ -2416,23 +2707,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$D$3:$D$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$D$3:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
                   <c:v>64036</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>50437</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>37977</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>22819</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
@@ -2448,11 +2739,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="881612464"/>
-        <c:axId val="881607024"/>
+        <c:axId val="-1311408064"/>
+        <c:axId val="-1311404800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="881612464"/>
+        <c:axId val="-1311408064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,12 +2800,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881607024"/>
+        <c:crossAx val="-1311404800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="881607024"/>
+        <c:axId val="-1311404800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2571,7 +2862,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881612464"/>
+        <c:crossAx val="-1311408064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2657,23 +2948,23 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$E$3:$E$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$E$3:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
                   <c:v>2732242</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2572413</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1821520</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>978797</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>71366</c:v>
                 </c:pt>
               </c:numCache>
@@ -2681,23 +2972,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$F$3:$F$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$F$3:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
                   <c:v>83848</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>67341</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>52987</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>40827</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>31625</c:v>
                 </c:pt>
               </c:numCache>
@@ -2713,11 +3004,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="881611376"/>
-        <c:axId val="881604848"/>
+        <c:axId val="-1311403712"/>
+        <c:axId val="-1311407520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="881611376"/>
+        <c:axId val="-1311403712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2774,12 +3065,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881604848"/>
+        <c:crossAx val="-1311407520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="881604848"/>
+        <c:axId val="-1311407520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2836,7 +3127,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881611376"/>
+        <c:crossAx val="-1311403712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2922,23 +3213,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$K$3:$K$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$K$3:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>79738</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>39869</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>29876</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>19883</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>11053</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>724</c:v>
                 </c:pt>
               </c:numCache>
@@ -2946,23 +3240,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$L$3:$L$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$L$3:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>23580</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>11983</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>11126</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10769</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>6137</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -2978,11 +3275,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="881608656"/>
-        <c:axId val="881611920"/>
+        <c:axId val="-1311402080"/>
+        <c:axId val="-1311401536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="881608656"/>
+        <c:axId val="-1311402080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3039,12 +3336,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881611920"/>
+        <c:crossAx val="-1311401536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="881611920"/>
+        <c:axId val="-1311401536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3101,7 +3398,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881608656"/>
+        <c:crossAx val="-1311402080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3187,23 +3484,26 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$M$3:$M$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$M$3:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>79738</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>39869</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>29876</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>19883</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>11053</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>724</c:v>
                 </c:pt>
               </c:numCache>
@@ -3211,23 +3511,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$N$3:$N$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$N$3:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>20500</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>10343</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9671</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>8947</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5278</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
@@ -3243,11 +3546,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="881609200"/>
-        <c:axId val="881605392"/>
+        <c:axId val="-1311398272"/>
+        <c:axId val="-1310569040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="881609200"/>
+        <c:axId val="-1311398272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3304,12 +3607,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881605392"/>
+        <c:crossAx val="-1310569040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="881605392"/>
+        <c:axId val="-1310569040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3366,7 +3669,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="881609200"/>
+        <c:crossAx val="-1311398272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3416,6 +3719,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4278,6 +4621,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -8469,13 +9328,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8499,13 +9358,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8529,13 +9388,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1562100</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8559,13 +9418,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1543050</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8589,13 +9448,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1557337</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1571625</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8617,16 +9476,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1571625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6804</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>23133</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>172811</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8649,13 +9508,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8670,6 +9529,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9060,11 +9954,11 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
@@ -9555,14 +10449,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickTop="1">
       <c r="A2" s="1" t="s">
@@ -9832,10 +10726,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q9" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9845,41 +10739,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="24" t="str">
+      <c r="A1" s="27" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A2," - ",'Troublepart of SP'!$C2)</f>
         <v>Report 2_6 - EXT_HISTORY_MASTER</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A3," - ",'Troublepart of SP'!$C3)</f>
         <v>Report 2_5 - EXT_ITEM</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="22" t="str">
+      <c r="D1" s="27"/>
+      <c r="E1" s="25" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A4," - ",'Troublepart of SP'!$C4)</f>
         <v>Report 3_1 - EXT_ITEM_LEDGER_ENTRY</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="str">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A5," - ",'Troublepart of SP'!$C5)</f>
         <v>Report 4_2 - EXT_HISTORY_MASTER</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22" t="str">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A6," - ",'Troublepart of SP'!$C6)</f>
         <v>Report 4_4 - EXT_HISTORY_MASTER</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="str">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A7," - ",'Troublepart of SP'!$C7)</f>
         <v>Report 1_1_2 - EXT_ITEM</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22" t="str">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A8," - ",'Troublepart of SP'!$C8)</f>
         <v>Report 1_1_1 - EXT_ITEM</v>
       </c>
-      <c r="N1" s="23"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
       <c r="A2" s="11" t="s">
@@ -9925,233 +10819,249 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" customFormat="1">
-      <c r="A3">
-        <v>10447188</v>
-      </c>
-      <c r="B3" s="14">
-        <v>253501</v>
-      </c>
-      <c r="C3" s="10">
-        <v>39869</v>
-      </c>
-      <c r="D3" s="14">
-        <v>64036</v>
-      </c>
-      <c r="E3" s="17">
-        <v>2732242</v>
-      </c>
-      <c r="F3" s="15">
-        <v>83848</v>
-      </c>
-      <c r="G3">
-        <v>10447188</v>
-      </c>
-      <c r="H3" s="15">
-        <v>1328</v>
-      </c>
-      <c r="I3">
-        <v>10447188</v>
-      </c>
-      <c r="J3" s="15">
-        <v>2129</v>
-      </c>
-      <c r="K3" s="10">
-        <v>39869</v>
-      </c>
-      <c r="L3" s="15">
-        <v>11983</v>
-      </c>
-      <c r="M3" s="10">
-        <v>39869</v>
-      </c>
-      <c r="N3" s="17">
-        <v>10343</v>
+    <row r="3" spans="1:14" customFormat="1" ht="15" thickBot="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="18">
+        <v>79738</v>
+      </c>
+      <c r="L3" s="19">
+        <v>23580</v>
+      </c>
+      <c r="M3" s="18">
+        <v>79738</v>
+      </c>
+      <c r="N3" s="20">
+        <v>20500</v>
       </c>
     </row>
     <row r="4" spans="1:14" customFormat="1">
       <c r="A4">
-        <v>9706149</v>
+        <v>10447188</v>
       </c>
       <c r="B4" s="14">
-        <v>236662</v>
+        <v>253501</v>
       </c>
       <c r="C4" s="10">
-        <v>29876</v>
+        <v>39869</v>
       </c>
       <c r="D4" s="14">
-        <v>50437</v>
-      </c>
-      <c r="E4" s="10">
-        <v>2572413</v>
+        <v>64036</v>
+      </c>
+      <c r="E4" s="17">
+        <v>2732242</v>
       </c>
       <c r="F4" s="15">
-        <v>67341</v>
+        <v>83848</v>
       </c>
       <c r="G4">
-        <v>9706149</v>
+        <v>10447188</v>
       </c>
       <c r="H4" s="15">
-        <v>1372</v>
+        <v>1328</v>
       </c>
       <c r="I4">
-        <v>9706149</v>
+        <v>10447188</v>
       </c>
       <c r="J4" s="15">
-        <v>1947</v>
+        <v>2129</v>
       </c>
       <c r="K4" s="10">
-        <v>29876</v>
+        <v>39869</v>
       </c>
       <c r="L4" s="15">
-        <v>11126</v>
+        <v>11983</v>
       </c>
       <c r="M4" s="10">
-        <v>29876</v>
-      </c>
-      <c r="N4">
-        <v>9671</v>
+        <v>39869</v>
+      </c>
+      <c r="N4" s="17">
+        <v>10343</v>
       </c>
     </row>
     <row r="5" spans="1:14" customFormat="1">
       <c r="A5">
-        <v>6945334</v>
+        <v>9706149</v>
       </c>
       <c r="B5" s="14">
-        <v>171116</v>
+        <v>236662</v>
       </c>
       <c r="C5" s="10">
-        <v>19883</v>
+        <v>29876</v>
       </c>
       <c r="D5" s="14">
-        <v>37977</v>
+        <v>50437</v>
       </c>
       <c r="E5" s="10">
-        <v>1821520</v>
+        <v>2572413</v>
       </c>
       <c r="F5" s="15">
-        <v>52987</v>
+        <v>67341</v>
       </c>
       <c r="G5">
-        <v>6945334</v>
+        <v>9706149</v>
       </c>
       <c r="H5" s="15">
-        <v>4671</v>
+        <v>1372</v>
       </c>
       <c r="I5">
-        <v>6945334</v>
+        <v>9706149</v>
       </c>
       <c r="J5" s="15">
-        <v>1370</v>
+        <v>1947</v>
       </c>
       <c r="K5" s="10">
-        <v>19883</v>
+        <v>29876</v>
       </c>
       <c r="L5" s="15">
-        <v>10769</v>
+        <v>11126</v>
       </c>
       <c r="M5" s="10">
-        <v>19883</v>
+        <v>29876</v>
       </c>
       <c r="N5">
-        <v>8947</v>
+        <v>9671</v>
       </c>
     </row>
     <row r="6" spans="1:14" customFormat="1">
       <c r="A6">
-        <v>3726035</v>
+        <v>6945334</v>
       </c>
       <c r="B6" s="14">
-        <v>102429</v>
+        <v>171116</v>
       </c>
       <c r="C6" s="10">
-        <v>11053</v>
+        <v>19883</v>
       </c>
       <c r="D6" s="14">
-        <v>22819</v>
+        <v>37977</v>
       </c>
       <c r="E6" s="10">
-        <v>978797</v>
+        <v>1821520</v>
       </c>
       <c r="F6" s="15">
-        <v>40827</v>
+        <v>52987</v>
       </c>
       <c r="G6">
-        <v>3726035</v>
+        <v>6945334</v>
       </c>
       <c r="H6" s="15">
-        <v>4854</v>
+        <v>4671</v>
       </c>
       <c r="I6">
-        <v>3726035</v>
+        <v>6945334</v>
       </c>
       <c r="J6" s="15">
-        <v>1079</v>
+        <v>1370</v>
       </c>
       <c r="K6" s="10">
-        <v>11053</v>
+        <v>19883</v>
       </c>
       <c r="L6" s="15">
-        <v>6137</v>
+        <v>10769</v>
       </c>
       <c r="M6" s="10">
-        <v>11053</v>
+        <v>19883</v>
       </c>
       <c r="N6">
-        <v>5278</v>
+        <v>8947</v>
       </c>
     </row>
     <row r="7" spans="1:14" customFormat="1">
       <c r="A7">
-        <v>280859</v>
+        <v>3726035</v>
       </c>
       <c r="B7" s="14">
-        <v>34252</v>
+        <v>102429</v>
       </c>
       <c r="C7" s="10">
-        <v>724</v>
+        <v>11053</v>
       </c>
       <c r="D7" s="14">
-        <v>124</v>
+        <v>22819</v>
       </c>
       <c r="E7" s="10">
-        <v>71366</v>
+        <v>978797</v>
       </c>
       <c r="F7" s="15">
-        <v>31625</v>
+        <v>40827</v>
       </c>
       <c r="G7">
-        <v>280859</v>
+        <v>3726035</v>
       </c>
       <c r="H7" s="15">
-        <v>11</v>
+        <v>4854</v>
       </c>
       <c r="I7">
-        <v>280859</v>
+        <v>3726035</v>
       </c>
       <c r="J7" s="15">
-        <v>60</v>
+        <v>1079</v>
       </c>
       <c r="K7" s="10">
-        <v>724</v>
+        <v>11053</v>
       </c>
       <c r="L7" s="15">
-        <v>15</v>
+        <v>6137</v>
       </c>
       <c r="M7" s="10">
-        <v>724</v>
+        <v>11053</v>
       </c>
       <c r="N7">
-        <v>11</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="8" spans="1:14" customFormat="1">
-      <c r="B8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="A8">
+        <v>280859</v>
+      </c>
+      <c r="B8" s="14">
+        <v>34252</v>
+      </c>
+      <c r="C8" s="10">
+        <v>724</v>
+      </c>
+      <c r="D8" s="14">
+        <v>124</v>
+      </c>
+      <c r="E8" s="10">
+        <v>71366</v>
+      </c>
+      <c r="F8" s="15">
+        <v>31625</v>
+      </c>
+      <c r="G8">
+        <v>280859</v>
+      </c>
+      <c r="H8" s="15">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>280859</v>
+      </c>
+      <c r="J8" s="15">
+        <v>60</v>
+      </c>
+      <c r="K8" s="10">
+        <v>724</v>
+      </c>
+      <c r="L8" s="15">
+        <v>15</v>
+      </c>
+      <c r="M8" s="10">
+        <v>724</v>
+      </c>
+      <c r="N8">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:14" customFormat="1">
       <c r="B9" s="15"/>
@@ -10209,6 +11119,22 @@
       <c r="J15" s="15"/>
       <c r="L15" s="15"/>
     </row>
+    <row r="16" spans="1:14">
+      <c r="A16"/>
+      <c r="B16" s="15"/>
+      <c r="C16"/>
+      <c r="D16" s="15"/>
+      <c r="E16"/>
+      <c r="F16" s="15"/>
+      <c r="G16"/>
+      <c r="H16" s="15"/>
+      <c r="I16"/>
+      <c r="J16" s="15"/>
+      <c r="K16"/>
+      <c r="L16" s="15"/>
+      <c r="M16"/>
+      <c r="N16"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="K1:L1"/>
@@ -10230,7 +11156,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10240,41 +11166,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1">
-      <c r="A1" s="24" t="str">
+      <c r="A1" s="27" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A2," - ",'Troublepart of SP'!$C2)</f>
         <v>Report 2_6 - EXT_HISTORY_MASTER</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="str">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A3," - ",'Troublepart of SP'!$C3)</f>
         <v>Report 2_5 - EXT_ITEM</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="22" t="str">
+      <c r="D1" s="27"/>
+      <c r="E1" s="25" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A4," - ",'Troublepart of SP'!$C4)</f>
         <v>Report 3_1 - EXT_ITEM_LEDGER_ENTRY</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="str">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A5," - ",'Troublepart of SP'!$C5)</f>
         <v>Report 4_2 - EXT_HISTORY_MASTER</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22" t="str">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A6," - ",'Troublepart of SP'!$C6)</f>
         <v>Report 4_4 - EXT_HISTORY_MASTER</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="str">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A7," - ",'Troublepart of SP'!$C7)</f>
         <v>Report 1_1_2 - EXT_ITEM</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22" t="str">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A8," - ",'Troublepart of SP'!$C8)</f>
         <v>Report 1_1_1 - EXT_ITEM</v>
       </c>
-      <c r="N1" s="23"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
       <c r="A2" s="11" t="s">
@@ -10324,7 +11250,9 @@
       <c r="A3">
         <v>10447188</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="15">
+        <v>145645</v>
+      </c>
       <c r="C3" s="10">
         <v>39869</v>
       </c>
@@ -10336,7 +11264,7 @@
       <c r="G3">
         <v>10447188</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="16"/>
       <c r="I3">
         <v>10447188</v>
       </c>
@@ -10354,7 +11282,9 @@
       <c r="A4">
         <v>9706149</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="14">
+        <v>177675</v>
+      </c>
       <c r="C4" s="10">
         <v>29876</v>
       </c>
@@ -10383,7 +11313,9 @@
       <c r="A5">
         <v>6945334</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="14">
+        <v>127056</v>
+      </c>
       <c r="C5" s="10">
         <v>19883</v>
       </c>
@@ -10412,7 +11344,9 @@
       <c r="A6">
         <v>3726035</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="14">
+        <v>81026</v>
+      </c>
       <c r="C6" s="10">
         <v>11053</v>
       </c>
@@ -10441,7 +11375,9 @@
       <c r="A7">
         <v>280859</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="14">
+        <v>31979</v>
+      </c>
       <c r="C7" s="10">
         <v>724</v>
       </c>
@@ -10541,5 +11477,7 @@
     <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,11 +725,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1524066528"/>
-        <c:axId val="-1524071424"/>
+        <c:axId val="-40145008"/>
+        <c:axId val="-40149904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1524066528"/>
+        <c:axId val="-40145008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +772,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1524071424"/>
+        <c:crossAx val="-40149904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1524071424"/>
+        <c:axId val="-40149904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +831,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1524066528"/>
+        <c:crossAx val="-40145008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -973,11 +973,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1310571216"/>
-        <c:axId val="-1310568496"/>
+        <c:axId val="-2012877696"/>
+        <c:axId val="-2012874976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1310571216"/>
+        <c:axId val="-2012877696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,12 +1034,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1310568496"/>
+        <c:crossAx val="-2012874976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1310568496"/>
+        <c:axId val="-2012874976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +1096,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1310571216"/>
+        <c:crossAx val="-2012877696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1665,11 +1665,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1311397728"/>
-        <c:axId val="-1311394464"/>
+        <c:axId val="-40148816"/>
+        <c:axId val="-40136848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1311397728"/>
+        <c:axId val="-40148816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,7 +1712,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1311394464"/>
+        <c:crossAx val="-40136848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1720,7 +1720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1311394464"/>
+        <c:axId val="-40136848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1771,7 +1771,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1311397728"/>
+        <c:crossAx val="-40148816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1892,6 +1892,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17449200</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>10447188</c:v>
                 </c:pt>
@@ -1916,6 +1919,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>403186</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>253501</c:v>
                 </c:pt>
@@ -1944,11 +1950,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1311405344"/>
-        <c:axId val="-1311406432"/>
+        <c:axId val="-40147728"/>
+        <c:axId val="-40144464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1311405344"/>
+        <c:axId val="-40147728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,12 +2011,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1311406432"/>
+        <c:crossAx val="-40144464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1311406432"/>
+        <c:axId val="-40144464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,7 +2073,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1311405344"/>
+        <c:crossAx val="-40147728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2157,6 +2163,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17449200</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>10447188</c:v>
                 </c:pt>
@@ -2181,6 +2190,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1427</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>1328</c:v>
                 </c:pt>
@@ -2209,11 +2221,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1311405888"/>
-        <c:axId val="-1311397184"/>
+        <c:axId val="-40138480"/>
+        <c:axId val="-40142288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1311405888"/>
+        <c:axId val="-40138480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,12 +2282,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1311397184"/>
+        <c:crossAx val="-40142288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1311397184"/>
+        <c:axId val="-40142288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2332,7 +2344,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1311405888"/>
+        <c:crossAx val="-40138480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2422,6 +2434,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17449200</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>10447188</c:v>
                 </c:pt>
@@ -2446,6 +2461,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>3413</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>2129</c:v>
                 </c:pt>
@@ -2474,11 +2492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1311393920"/>
-        <c:axId val="-1311395552"/>
+        <c:axId val="-40137936"/>
+        <c:axId val="-2013222448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1311393920"/>
+        <c:axId val="-40137936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2535,12 +2553,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1311395552"/>
+        <c:crossAx val="-2013222448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1311395552"/>
+        <c:axId val="-2013222448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2597,7 +2615,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1311393920"/>
+        <c:crossAx val="-40137936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2687,6 +2705,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>69409</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>39869</c:v>
                 </c:pt>
@@ -2711,6 +2732,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>83584</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>64036</c:v>
                 </c:pt>
@@ -2739,11 +2763,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1311408064"/>
-        <c:axId val="-1311404800"/>
+        <c:axId val="-2013218640"/>
+        <c:axId val="-2013218096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1311408064"/>
+        <c:axId val="-2013218640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2800,12 +2824,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1311404800"/>
+        <c:crossAx val="-2013218096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1311404800"/>
+        <c:axId val="-2013218096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2862,7 +2886,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1311408064"/>
+        <c:crossAx val="-2013218640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2952,6 +2976,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4557053</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>2732242</c:v>
                 </c:pt>
@@ -2976,6 +3003,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>104503</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>83848</c:v>
                 </c:pt>
@@ -3004,11 +3034,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1311403712"/>
-        <c:axId val="-1311407520"/>
+        <c:axId val="-2013219728"/>
+        <c:axId val="-2013217552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1311403712"/>
+        <c:axId val="-2013219728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3065,12 +3095,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1311407520"/>
+        <c:crossAx val="-2013217552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1311407520"/>
+        <c:axId val="-2013217552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3127,7 +3157,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1311403712"/>
+        <c:crossAx val="-2013219728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3218,7 +3248,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>79738</c:v>
+                  <c:v>69409</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>39869</c:v>
@@ -3245,7 +3275,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>23580</c:v>
+                  <c:v>18111</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11983</c:v>
@@ -3275,11 +3305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1311402080"/>
-        <c:axId val="-1311401536"/>
+        <c:axId val="-2013220272"/>
+        <c:axId val="-2013222992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1311402080"/>
+        <c:axId val="-2013220272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3336,12 +3366,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1311401536"/>
+        <c:crossAx val="-2013222992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1311401536"/>
+        <c:axId val="-2013222992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3398,7 +3428,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1311402080"/>
+        <c:crossAx val="-2013220272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3489,7 +3519,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>79738</c:v>
+                  <c:v>69409</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>39869</c:v>
@@ -3516,7 +3546,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>20500</c:v>
+                  <c:v>15218</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10343</c:v>
@@ -3546,11 +3576,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1311398272"/>
-        <c:axId val="-1310569040"/>
+        <c:axId val="-2012873344"/>
+        <c:axId val="-2012873888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1311398272"/>
+        <c:axId val="-2012873344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3607,12 +3637,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1310569040"/>
+        <c:crossAx val="-2012873888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1310569040"/>
+        <c:axId val="-2012873888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3669,7 +3699,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1311398272"/>
+        <c:crossAx val="-2012873344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9865,9 +9895,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -9875,7 +9905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9883,7 +9913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9891,7 +9921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -9899,7 +9929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -9907,7 +9937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9915,7 +9945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9923,7 +9953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -9944,7 +9974,7 @@
       <selection activeCell="B11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
@@ -9952,7 +9982,7 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="21" t="s">
         <v>8</v>
@@ -9960,7 +9990,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -9974,7 +10004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickTop="1">
+    <row r="3" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -9989,7 +10019,7 @@
         <v>427017</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -10004,7 +10034,7 @@
         <v>202116</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -10019,7 +10049,7 @@
         <v>147443</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -10034,7 +10064,7 @@
         <v>33168</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -10049,7 +10079,7 @@
         <v>39300</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -10064,7 +10094,7 @@
         <v>21785</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -10079,7 +10109,7 @@
         <v>10634</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -10094,7 +10124,7 @@
         <v>9522</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -10109,7 +10139,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -10124,7 +10154,7 @@
         <v>12655</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -10139,7 +10169,7 @@
         <v>8998</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -10154,7 +10184,7 @@
         <v>11381</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -10169,7 +10199,7 @@
         <v>6429</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -10184,7 +10214,7 @@
         <v>6347</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -10199,7 +10229,7 @@
         <v>6249</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -10214,7 +10244,7 @@
         <v>5973</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -10229,7 +10259,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
@@ -10244,7 +10274,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
@@ -10259,7 +10289,7 @@
         <v>5483</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
@@ -10274,7 +10304,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
@@ -10289,7 +10319,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
@@ -10304,7 +10334,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
@@ -10319,7 +10349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
@@ -10334,7 +10364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
@@ -10349,7 +10379,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
@@ -10364,7 +10394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
@@ -10379,7 +10409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
@@ -10394,7 +10424,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
@@ -10409,7 +10439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>42</v>
       </c>
@@ -10424,7 +10454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" ht="15" thickTop="1"/>
+    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -10442,13 +10472,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
         <v>45</v>
       </c>
@@ -10458,7 +10488,7 @@
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1">
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -10481,7 +10511,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -10504,7 +10534,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -10527,7 +10557,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -10547,7 +10577,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -10555,7 +10585,7 @@
         <v>8134</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -10563,7 +10593,7 @@
         <v>12264</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -10580,7 +10610,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -10615,7 +10645,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="2" bestFit="1" customWidth="1"/>
@@ -10623,7 +10653,7 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -10634,7 +10664,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -10646,7 +10676,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -10658,7 +10688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -10670,7 +10700,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -10682,7 +10712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -10694,7 +10724,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -10706,7 +10736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -10728,17 +10758,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="20.75" style="16" customWidth="1"/>
     <col min="15" max="15" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A2," - ",'Troublepart of SP'!$C2)</f>
         <v>Report 2_6 - EXT_HISTORY_MASTER</v>
@@ -10775,7 +10805,7 @@
       </c>
       <c r="N1" s="26"/>
     </row>
-    <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
@@ -10819,31 +10849,51 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" customFormat="1" ht="15" thickBot="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
+    <row r="3" spans="1:14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>17449200</v>
+      </c>
+      <c r="B3" s="19">
+        <v>403186</v>
+      </c>
+      <c r="C3" s="18">
+        <v>69409</v>
+      </c>
+      <c r="D3" s="19">
+        <v>83584</v>
+      </c>
+      <c r="E3" s="18">
+        <v>4557053</v>
+      </c>
+      <c r="F3" s="19">
+        <v>104503</v>
+      </c>
+      <c r="G3" s="18">
+        <v>17449200</v>
+      </c>
+      <c r="H3" s="19">
+        <v>1427</v>
+      </c>
+      <c r="I3" s="18">
+        <v>17449200</v>
+      </c>
+      <c r="J3" s="19">
+        <v>3413</v>
+      </c>
       <c r="K3" s="18">
-        <v>79738</v>
+        <v>69409</v>
       </c>
       <c r="L3" s="19">
-        <v>23580</v>
+        <v>18111</v>
       </c>
       <c r="M3" s="18">
-        <v>79738</v>
+        <v>69409</v>
       </c>
       <c r="N3" s="20">
-        <v>20500</v>
+        <v>15218</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1">
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10447188</v>
       </c>
@@ -10887,7 +10937,7 @@
         <v>10343</v>
       </c>
     </row>
-    <row r="5" spans="1:14" customFormat="1">
+    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9706149</v>
       </c>
@@ -10931,7 +10981,7 @@
         <v>9671</v>
       </c>
     </row>
-    <row r="6" spans="1:14" customFormat="1">
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6945334</v>
       </c>
@@ -10975,7 +11025,7 @@
         <v>8947</v>
       </c>
     </row>
-    <row r="7" spans="1:14" customFormat="1">
+    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3726035</v>
       </c>
@@ -11019,7 +11069,7 @@
         <v>5278</v>
       </c>
     </row>
-    <row r="8" spans="1:14" customFormat="1">
+    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>280859</v>
       </c>
@@ -11063,7 +11113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:14" customFormat="1">
+    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="D9" s="15"/>
       <c r="F9" s="15"/>
@@ -11071,7 +11121,7 @@
       <c r="J9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:14" customFormat="1">
+    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
       <c r="D10" s="15"/>
       <c r="F10" s="15"/>
@@ -11079,7 +11129,7 @@
       <c r="J10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:14" customFormat="1">
+    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="15"/>
       <c r="D11" s="15"/>
       <c r="F11" s="15"/>
@@ -11087,7 +11137,7 @@
       <c r="J11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:14" customFormat="1">
+    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
       <c r="D12" s="15"/>
       <c r="F12" s="15"/>
@@ -11095,7 +11145,7 @@
       <c r="J12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:14" customFormat="1">
+    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="D13" s="15"/>
       <c r="F13" s="15"/>
@@ -11103,7 +11153,7 @@
       <c r="J13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:14" customFormat="1">
+    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="D14" s="15"/>
       <c r="F14" s="15"/>
@@ -11111,7 +11161,7 @@
       <c r="J14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:14" customFormat="1">
+    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="D15" s="15"/>
       <c r="F15" s="15"/>
@@ -11119,7 +11169,7 @@
       <c r="J15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="15"/>
       <c r="C16"/>
@@ -11155,17 +11205,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="20.75" style="16" customWidth="1"/>
     <col min="15" max="15" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A2," - ",'Troublepart of SP'!$C2)</f>
         <v>Report 2_6 - EXT_HISTORY_MASTER</v>
@@ -11202,7 +11252,7 @@
       </c>
       <c r="N1" s="26"/>
     </row>
-    <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
@@ -11246,7 +11296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" customFormat="1">
+    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10447188</v>
       </c>
@@ -11278,7 +11328,7 @@
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" customFormat="1">
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9706149</v>
       </c>
@@ -11309,7 +11359,7 @@
         <v>29876</v>
       </c>
     </row>
-    <row r="5" spans="1:14" customFormat="1">
+    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6945334</v>
       </c>
@@ -11340,7 +11390,7 @@
         <v>19883</v>
       </c>
     </row>
-    <row r="6" spans="1:14" customFormat="1">
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3726035</v>
       </c>
@@ -11371,7 +11421,7 @@
         <v>11053</v>
       </c>
     </row>
-    <row r="7" spans="1:14" customFormat="1">
+    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>280859</v>
       </c>
@@ -11402,7 +11452,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="8" spans="1:14" customFormat="1">
+    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="15"/>
       <c r="D8" s="15"/>
       <c r="F8" s="15"/>
@@ -11410,7 +11460,7 @@
       <c r="J8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:14" customFormat="1">
+    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="D9" s="15"/>
       <c r="F9" s="15"/>
@@ -11418,7 +11468,7 @@
       <c r="J9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:14" customFormat="1">
+    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
       <c r="D10" s="15"/>
       <c r="F10" s="15"/>
@@ -11426,7 +11476,7 @@
       <c r="J10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:14" customFormat="1">
+    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="15"/>
       <c r="D11" s="15"/>
       <c r="F11" s="15"/>
@@ -11434,7 +11484,7 @@
       <c r="J11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:14" customFormat="1">
+    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
       <c r="D12" s="15"/>
       <c r="F12" s="15"/>
@@ -11442,7 +11492,7 @@
       <c r="J12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:14" customFormat="1">
+    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="D13" s="15"/>
       <c r="F13" s="15"/>
@@ -11450,7 +11500,7 @@
       <c r="J13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:14" customFormat="1">
+    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="D14" s="15"/>
       <c r="F14" s="15"/>
@@ -11458,7 +11508,7 @@
       <c r="J14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:14" customFormat="1">
+    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="D15" s="15"/>
       <c r="F15" s="15"/>

--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -10758,7 +10758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -725,11 +725,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-40145008"/>
-        <c:axId val="-40149904"/>
+        <c:axId val="256114304"/>
+        <c:axId val="256115392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-40145008"/>
+        <c:axId val="256114304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +772,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-40149904"/>
+        <c:crossAx val="256115392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-40149904"/>
+        <c:axId val="256115392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +831,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-40145008"/>
+        <c:crossAx val="256114304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -901,8 +901,73 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10447188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9706149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6945334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3726035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>145645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -973,11 +1038,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2012877696"/>
-        <c:axId val="-2012874976"/>
+        <c:axId val="321921248"/>
+        <c:axId val="321907648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2012877696"/>
+        <c:axId val="321921248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,12 +1099,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2012874976"/>
+        <c:crossAx val="321907648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2012874976"/>
+        <c:axId val="321907648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,7 +1161,537 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2012877696"/>
+        <c:crossAx val="321921248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>66826</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="316710880"/>
+        <c:axId val="316702176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="316710880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316702176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="316702176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316710880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2732242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2572413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1821520</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>978797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>76997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="316703264"/>
+        <c:axId val="316700000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="316703264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316700000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="316700000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316703264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1160,6 +1755,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1665,11 +2261,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-40148816"/>
-        <c:axId val="-40136848"/>
+        <c:axId val="256107776"/>
+        <c:axId val="256105600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-40148816"/>
+        <c:axId val="256107776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,7 +2308,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-40136848"/>
+        <c:crossAx val="256105600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1720,7 +2316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-40136848"/>
+        <c:axId val="256105600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1771,7 +2367,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-40148816"/>
+        <c:crossAx val="256107776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1785,6 +2381,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1950,11 +2547,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-40147728"/>
-        <c:axId val="-40144464"/>
+        <c:axId val="256106144"/>
+        <c:axId val="256115936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-40147728"/>
+        <c:axId val="256106144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,12 +2608,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-40144464"/>
+        <c:crossAx val="256115936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-40144464"/>
+        <c:axId val="256115936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,7 +2670,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-40147728"/>
+        <c:crossAx val="256106144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2221,11 +2818,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-40138480"/>
-        <c:axId val="-40142288"/>
+        <c:axId val="256110496"/>
+        <c:axId val="256103968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-40138480"/>
+        <c:axId val="256110496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,12 +2879,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-40142288"/>
+        <c:crossAx val="256103968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-40142288"/>
+        <c:axId val="256103968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2344,7 +2941,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-40138480"/>
+        <c:crossAx val="256110496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2492,11 +3089,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-40137936"/>
-        <c:axId val="-2013222448"/>
+        <c:axId val="256108320"/>
+        <c:axId val="260753856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-40137936"/>
+        <c:axId val="256108320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,12 +3150,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2013222448"/>
+        <c:crossAx val="260753856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2013222448"/>
+        <c:axId val="260753856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2615,7 +3212,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-40137936"/>
+        <c:crossAx val="256108320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2763,11 +3360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2013218640"/>
-        <c:axId val="-2013218096"/>
+        <c:axId val="260750592"/>
+        <c:axId val="260749504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2013218640"/>
+        <c:axId val="260750592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2824,12 +3421,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2013218096"/>
+        <c:crossAx val="260749504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2013218096"/>
+        <c:axId val="260749504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2886,7 +3483,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2013218640"/>
+        <c:crossAx val="260750592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3034,11 +3631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2013219728"/>
-        <c:axId val="-2013217552"/>
+        <c:axId val="260747872"/>
+        <c:axId val="260751680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2013219728"/>
+        <c:axId val="260747872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3095,12 +3692,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2013217552"/>
+        <c:crossAx val="260751680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2013217552"/>
+        <c:axId val="260751680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3157,7 +3754,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2013219728"/>
+        <c:crossAx val="260747872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3305,11 +3902,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2013220272"/>
-        <c:axId val="-2013222992"/>
+        <c:axId val="260757120"/>
+        <c:axId val="260760928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2013220272"/>
+        <c:axId val="260757120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3366,12 +3963,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2013222992"/>
+        <c:crossAx val="260760928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2013222992"/>
+        <c:axId val="260760928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3428,7 +4025,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2013220272"/>
+        <c:crossAx val="260757120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3576,11 +4173,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2012873344"/>
-        <c:axId val="-2012873888"/>
+        <c:axId val="260747328"/>
+        <c:axId val="260752224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2012873344"/>
+        <c:axId val="260747328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3637,12 +4234,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2012873888"/>
+        <c:crossAx val="260752224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2012873888"/>
+        <c:axId val="260752224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3699,7 +4296,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2012873344"/>
+        <c:crossAx val="260747328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3789,6 +4386,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5167,6 +5844,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -9574,13 +11283,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9594,6 +11303,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9895,9 +11668,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -9905,7 +11678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9913,7 +11686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9921,7 +11694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -9929,7 +11702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -9937,7 +11710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9945,7 +11718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9953,7 +11726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -9974,15 +11747,15 @@
       <selection activeCell="B11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="21" t="s">
         <v>8</v>
@@ -9990,7 +11763,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -10004,7 +11777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -10019,7 +11792,7 @@
         <v>427017</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -10034,7 +11807,7 @@
         <v>202116</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -10049,7 +11822,7 @@
         <v>147443</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -10064,7 +11837,7 @@
         <v>33168</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -10079,7 +11852,7 @@
         <v>39300</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -10094,7 +11867,7 @@
         <v>21785</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -10109,7 +11882,7 @@
         <v>10634</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -10124,7 +11897,7 @@
         <v>9522</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -10139,7 +11912,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -10154,7 +11927,7 @@
         <v>12655</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -10169,7 +11942,7 @@
         <v>8998</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -10184,7 +11957,7 @@
         <v>11381</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -10199,7 +11972,7 @@
         <v>6429</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -10214,7 +11987,7 @@
         <v>6347</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -10229,7 +12002,7 @@
         <v>6249</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -10244,7 +12017,7 @@
         <v>5973</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -10259,7 +12032,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
@@ -10274,7 +12047,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
@@ -10289,7 +12062,7 @@
         <v>5483</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
@@ -10304,7 +12077,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
@@ -10319,7 +12092,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
@@ -10334,7 +12107,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
@@ -10349,7 +12122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
@@ -10364,7 +12137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
@@ -10379,7 +12152,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
@@ -10394,7 +12167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
@@ -10409,7 +12182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
@@ -10424,7 +12197,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
@@ -10439,7 +12212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>42</v>
       </c>
@@ -10454,7 +12227,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -10472,13 +12245,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="23" t="s">
         <v>45</v>
       </c>
@@ -10488,7 +12261,7 @@
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -10511,7 +12284,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -10534,7 +12307,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -10557,7 +12330,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -10577,7 +12350,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -10585,7 +12358,7 @@
         <v>8134</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -10593,7 +12366,7 @@
         <v>12264</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -10610,7 +12383,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -10642,18 +12415,18 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -10664,7 +12437,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -10676,7 +12449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -10688,7 +12461,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -10700,7 +12473,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -10712,7 +12485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -10724,7 +12497,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -10736,7 +12509,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -10758,17 +12531,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="20.75" style="16" customWidth="1"/>
+    <col min="1" max="14" width="20.7109375" style="16" customWidth="1"/>
     <col min="15" max="15" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A2," - ",'Troublepart of SP'!$C2)</f>
         <v>Report 2_6 - EXT_HISTORY_MASTER</v>
@@ -10805,7 +12578,7 @@
       </c>
       <c r="N1" s="26"/>
     </row>
-    <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
@@ -10849,7 +12622,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>17449200</v>
       </c>
@@ -10893,7 +12666,7 @@
         <v>15218</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10447188</v>
       </c>
@@ -10937,7 +12710,7 @@
         <v>10343</v>
       </c>
     </row>
-    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9706149</v>
       </c>
@@ -10981,7 +12754,7 @@
         <v>9671</v>
       </c>
     </row>
-    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6945334</v>
       </c>
@@ -11025,7 +12798,7 @@
         <v>8947</v>
       </c>
     </row>
-    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3726035</v>
       </c>
@@ -11069,7 +12842,7 @@
         <v>5278</v>
       </c>
     </row>
-    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>280859</v>
       </c>
@@ -11113,7 +12886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="D9" s="15"/>
       <c r="F9" s="15"/>
@@ -11121,7 +12894,7 @@
       <c r="J9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="D10" s="15"/>
       <c r="F10" s="15"/>
@@ -11129,7 +12902,7 @@
       <c r="J10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="D11" s="15"/>
       <c r="F11" s="15"/>
@@ -11137,7 +12910,7 @@
       <c r="J11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="D12" s="15"/>
       <c r="F12" s="15"/>
@@ -11145,7 +12918,7 @@
       <c r="J12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="D13" s="15"/>
       <c r="F13" s="15"/>
@@ -11153,7 +12926,7 @@
       <c r="J13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="D14" s="15"/>
       <c r="F14" s="15"/>
@@ -11161,7 +12934,7 @@
       <c r="J14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="D15" s="15"/>
       <c r="F15" s="15"/>
@@ -11169,7 +12942,7 @@
       <c r="J15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="15"/>
       <c r="C16"/>
@@ -11205,17 +12978,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="20.75" style="16" customWidth="1"/>
+    <col min="1" max="14" width="20.7109375" style="16" customWidth="1"/>
     <col min="15" max="15" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A2," - ",'Troublepart of SP'!$C2)</f>
         <v>Report 2_6 - EXT_HISTORY_MASTER</v>
@@ -11252,7 +13025,7 @@
       </c>
       <c r="N1" s="26"/>
     </row>
-    <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
@@ -11296,7 +13069,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10447188</v>
       </c>
@@ -11306,19 +13079,27 @@
       <c r="C3" s="10">
         <v>39869</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="14">
+        <v>66826</v>
+      </c>
       <c r="E3" s="17">
         <v>2732242</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="15">
+        <v>76997</v>
+      </c>
       <c r="G3">
         <v>10447188</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="15">
+        <v>10951</v>
+      </c>
       <c r="I3">
         <v>10447188</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="15">
+        <v>21549</v>
+      </c>
       <c r="K3" s="10">
         <v>39869</v>
       </c>
@@ -11328,7 +13109,7 @@
       </c>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9706149</v>
       </c>
@@ -11338,11 +13119,15 @@
       <c r="C4" s="10">
         <v>29876</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="14">
+        <v>49032</v>
+      </c>
       <c r="E4" s="10">
         <v>2572413</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="15">
+        <v>69353</v>
+      </c>
       <c r="G4">
         <v>9706149</v>
       </c>
@@ -11359,7 +13144,7 @@
         <v>29876</v>
       </c>
     </row>
-    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6945334</v>
       </c>
@@ -11369,11 +13154,15 @@
       <c r="C5" s="10">
         <v>19883</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14">
+        <v>37976</v>
+      </c>
       <c r="E5" s="10">
         <v>1821520</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="15">
+        <v>56010</v>
+      </c>
       <c r="G5">
         <v>6945334</v>
       </c>
@@ -11390,7 +13179,7 @@
         <v>19883</v>
       </c>
     </row>
-    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3726035</v>
       </c>
@@ -11400,11 +13189,15 @@
       <c r="C6" s="10">
         <v>11053</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14">
+        <v>23308</v>
+      </c>
       <c r="E6" s="10">
         <v>978797</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="15">
+        <v>42274</v>
+      </c>
       <c r="G6">
         <v>3726035</v>
       </c>
@@ -11421,7 +13214,7 @@
         <v>11053</v>
       </c>
     </row>
-    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>280859</v>
       </c>
@@ -11431,11 +13224,15 @@
       <c r="C7" s="10">
         <v>724</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="14">
+        <v>114</v>
+      </c>
       <c r="E7" s="10">
         <v>71366</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="15">
+        <v>35234</v>
+      </c>
       <c r="G7">
         <v>280859</v>
       </c>
@@ -11452,7 +13249,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="D8" s="15"/>
       <c r="F8" s="15"/>
@@ -11460,7 +13257,7 @@
       <c r="J8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="D9" s="15"/>
       <c r="F9" s="15"/>
@@ -11468,7 +13265,7 @@
       <c r="J9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="D10" s="15"/>
       <c r="F10" s="15"/>
@@ -11476,7 +13273,7 @@
       <c r="J10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="D11" s="15"/>
       <c r="F11" s="15"/>
@@ -11484,7 +13281,7 @@
       <c r="J11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="D12" s="15"/>
       <c r="F12" s="15"/>
@@ -11492,7 +13289,7 @@
       <c r="J12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="D13" s="15"/>
       <c r="F13" s="15"/>
@@ -11500,7 +13297,7 @@
       <c r="J13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="D14" s="15"/>
       <c r="F14" s="15"/>
@@ -11508,7 +13305,7 @@
       <c r="J14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="D15" s="15"/>
       <c r="F15" s="15"/>
@@ -11527,7 +13324,7 @@
     <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -725,11 +725,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="256114304"/>
-        <c:axId val="256115392"/>
+        <c:axId val="-1086307728"/>
+        <c:axId val="-1086293584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="256114304"/>
+        <c:axId val="-1086307728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +772,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256115392"/>
+        <c:crossAx val="-1086293584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256115392"/>
+        <c:axId val="-1086293584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +831,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256114304"/>
+        <c:crossAx val="-1086307728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1038,11 +1038,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321921248"/>
-        <c:axId val="321907648"/>
+        <c:axId val="-1081216080"/>
+        <c:axId val="-1081210640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321921248"/>
+        <c:axId val="-1081216080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,12 +1099,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321907648"/>
+        <c:crossAx val="-1081210640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321907648"/>
+        <c:axId val="-1081210640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1161,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321921248"/>
+        <c:crossAx val="-1081216080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1303,11 +1303,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="316710880"/>
-        <c:axId val="316702176"/>
+        <c:axId val="-1081205200"/>
+        <c:axId val="-1081213904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="316710880"/>
+        <c:axId val="-1081205200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,12 +1364,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316702176"/>
+        <c:crossAx val="-1081213904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="316702176"/>
+        <c:axId val="-1081213904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,7 +1426,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316710880"/>
+        <c:crossAx val="-1081205200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1568,11 +1568,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="316703264"/>
-        <c:axId val="316700000"/>
+        <c:axId val="-1081211728"/>
+        <c:axId val="-1081211184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="316703264"/>
+        <c:axId val="-1081211728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,12 +1629,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316700000"/>
+        <c:crossAx val="-1081211184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="316700000"/>
+        <c:axId val="-1081211184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1691,537 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316703264"/>
+        <c:crossAx val="-1081211728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10447188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9706149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6945334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3726035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$H$3:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9896</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1043475920"/>
+        <c:axId val="-1043477008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1043475920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1043477008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1043477008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1043475920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$I$3:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10447188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9706149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6945334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3726035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$J$3:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1043480272"/>
+        <c:axId val="-1043484624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1043480272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1043484624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1043484624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1043480272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2261,11 +2791,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="256107776"/>
-        <c:axId val="256105600"/>
+        <c:axId val="-1086294672"/>
+        <c:axId val="-1086294128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="256107776"/>
+        <c:axId val="-1086294672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,7 +2838,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256105600"/>
+        <c:crossAx val="-1086294128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2316,7 +2846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256105600"/>
+        <c:axId val="-1086294128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,7 +2897,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256107776"/>
+        <c:crossAx val="-1086294672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2547,11 +3077,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256106144"/>
-        <c:axId val="256115936"/>
+        <c:axId val="-1086301744"/>
+        <c:axId val="-1086308272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256106144"/>
+        <c:axId val="-1086301744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2608,12 +3138,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256115936"/>
+        <c:crossAx val="-1086308272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256115936"/>
+        <c:axId val="-1086308272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2670,7 +3200,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256106144"/>
+        <c:crossAx val="-1086301744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2818,11 +3348,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256110496"/>
-        <c:axId val="256103968"/>
+        <c:axId val="-1086301200"/>
+        <c:axId val="-1086304464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256110496"/>
+        <c:axId val="-1086301200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2879,12 +3409,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256103968"/>
+        <c:crossAx val="-1086304464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256103968"/>
+        <c:axId val="-1086304464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2941,7 +3471,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256110496"/>
+        <c:crossAx val="-1086301200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3089,11 +3619,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256108320"/>
-        <c:axId val="260753856"/>
+        <c:axId val="-1086303920"/>
+        <c:axId val="-1086303376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256108320"/>
+        <c:axId val="-1086303920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3150,12 +3680,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260753856"/>
+        <c:crossAx val="-1086303376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="260753856"/>
+        <c:axId val="-1086303376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,7 +3742,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256108320"/>
+        <c:crossAx val="-1086303920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3360,11 +3890,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="260750592"/>
-        <c:axId val="260749504"/>
+        <c:axId val="-1081205744"/>
+        <c:axId val="-1081203568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="260750592"/>
+        <c:axId val="-1081205744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,12 +3951,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260749504"/>
+        <c:crossAx val="-1081203568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="260749504"/>
+        <c:axId val="-1081203568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3483,7 +4013,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260750592"/>
+        <c:crossAx val="-1081205744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3631,11 +4161,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="260747872"/>
-        <c:axId val="260751680"/>
+        <c:axId val="-1081217712"/>
+        <c:axId val="-1081213360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="260747872"/>
+        <c:axId val="-1081217712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3692,12 +4222,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260751680"/>
+        <c:crossAx val="-1081213360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="260751680"/>
+        <c:axId val="-1081213360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3754,7 +4284,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260747872"/>
+        <c:crossAx val="-1081217712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3902,11 +4432,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="260757120"/>
-        <c:axId val="260760928"/>
+        <c:axId val="-1081204656"/>
+        <c:axId val="-1081208464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="260757120"/>
+        <c:axId val="-1081204656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3963,12 +4493,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260760928"/>
+        <c:crossAx val="-1081208464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="260760928"/>
+        <c:axId val="-1081208464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4025,7 +4555,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260757120"/>
+        <c:crossAx val="-1081204656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4173,11 +4703,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="260747328"/>
-        <c:axId val="260752224"/>
+        <c:axId val="-1081207920"/>
+        <c:axId val="-1081206832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="260747328"/>
+        <c:axId val="-1081207920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4234,12 +4764,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260752224"/>
+        <c:crossAx val="-1081206832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="260752224"/>
+        <c:axId val="-1081206832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4296,7 +4826,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260747328"/>
+        <c:crossAx val="-1081207920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4466,6 +4996,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6361,6 +6971,1038 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11372,6 +13014,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12415,7 +14121,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12532,7 +14238,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12978,8 +14684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13131,11 +14837,15 @@
       <c r="G4">
         <v>9706149</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="15">
+        <v>8301</v>
+      </c>
       <c r="I4">
         <v>9706149</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="15">
+        <v>12317</v>
+      </c>
       <c r="K4" s="10">
         <v>29876</v>
       </c>
@@ -13166,11 +14876,15 @@
       <c r="G5">
         <v>6945334</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="15">
+        <v>10621</v>
+      </c>
       <c r="I5">
         <v>6945334</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="15">
+        <v>7700</v>
+      </c>
       <c r="K5" s="10">
         <v>19883</v>
       </c>
@@ -13201,11 +14915,15 @@
       <c r="G6">
         <v>3726035</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="15">
+        <v>9896</v>
+      </c>
       <c r="I6">
         <v>3726035</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="15">
+        <v>4798</v>
+      </c>
       <c r="K6" s="10">
         <v>11053</v>
       </c>
@@ -13236,11 +14954,15 @@
       <c r="G7">
         <v>280859</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="15">
+        <v>1</v>
+      </c>
       <c r="I7">
         <v>280859</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="15">
+        <v>13</v>
+      </c>
       <c r="K7" s="10">
         <v>724</v>
       </c>

--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -725,11 +725,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1086307728"/>
-        <c:axId val="-1086293584"/>
+        <c:axId val="1244420176"/>
+        <c:axId val="1244415824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1086307728"/>
+        <c:axId val="1244420176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +772,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1086293584"/>
+        <c:crossAx val="1244415824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1086293584"/>
+        <c:axId val="1244415824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +831,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1086307728"/>
+        <c:crossAx val="1244420176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1038,11 +1038,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1081216080"/>
-        <c:axId val="-1081210640"/>
+        <c:axId val="1249059568"/>
+        <c:axId val="1249050320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1081216080"/>
+        <c:axId val="1249059568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,12 +1099,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1081210640"/>
+        <c:crossAx val="1249050320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1081210640"/>
+        <c:axId val="1249050320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1161,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1081216080"/>
+        <c:crossAx val="1249059568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1303,11 +1303,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1081205200"/>
-        <c:axId val="-1081213904"/>
+        <c:axId val="1249053584"/>
+        <c:axId val="1249059024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1081205200"/>
+        <c:axId val="1249053584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,12 +1364,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1081213904"/>
+        <c:crossAx val="1249059024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1081213904"/>
+        <c:axId val="1249059024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,7 +1426,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1081205200"/>
+        <c:crossAx val="1249053584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1568,11 +1568,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1081211728"/>
-        <c:axId val="-1081211184"/>
+        <c:axId val="1249047600"/>
+        <c:axId val="1249048144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1081211728"/>
+        <c:axId val="1249047600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,12 +1629,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1081211184"/>
+        <c:crossAx val="1249048144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1081211184"/>
+        <c:axId val="1249048144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1691,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1081211728"/>
+        <c:crossAx val="1249047600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1833,11 +1833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1043475920"/>
-        <c:axId val="-1043477008"/>
+        <c:axId val="1248831840"/>
+        <c:axId val="1248843264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1043475920"/>
+        <c:axId val="1248831840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,12 +1894,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1043477008"/>
+        <c:crossAx val="1248843264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1043477008"/>
+        <c:axId val="1248843264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,7 +1956,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1043475920"/>
+        <c:crossAx val="1248831840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2098,11 +2098,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1043480272"/>
-        <c:axId val="-1043484624"/>
+        <c:axId val="1248841088"/>
+        <c:axId val="1248834016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1043480272"/>
+        <c:axId val="1248841088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,12 +2159,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1043484624"/>
+        <c:crossAx val="1248834016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1043484624"/>
+        <c:axId val="1248834016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2221,7 +2221,537 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1043480272"/>
+        <c:crossAx val="1248841088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$K$3:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11029</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1279446352"/>
+        <c:axId val="1279439824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1279446352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279439824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1279439824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279446352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29876</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19883</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$N$3:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10093</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9119</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8647</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1279440368"/>
+        <c:axId val="1279443632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1279440368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279443632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1279443632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279440368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2285,7 +2815,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2791,11 +3320,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1086294672"/>
-        <c:axId val="-1086294128"/>
+        <c:axId val="1244413104"/>
+        <c:axId val="1244404944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1086294672"/>
+        <c:axId val="1244413104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2838,7 +3367,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1086294128"/>
+        <c:crossAx val="1244404944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2846,7 +3375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1086294128"/>
+        <c:axId val="1244404944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2897,7 +3426,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1086294672"/>
+        <c:crossAx val="1244413104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2911,7 +3440,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3077,11 +3605,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1086301744"/>
-        <c:axId val="-1086308272"/>
+        <c:axId val="1244418000"/>
+        <c:axId val="1244411472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1086301744"/>
+        <c:axId val="1244418000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3138,12 +3666,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1086308272"/>
+        <c:crossAx val="1244411472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1086308272"/>
+        <c:axId val="1244411472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3200,7 +3728,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1086301744"/>
+        <c:crossAx val="1244418000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3348,11 +3876,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1086301200"/>
-        <c:axId val="-1086304464"/>
+        <c:axId val="1244406032"/>
+        <c:axId val="1244406576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1086301200"/>
+        <c:axId val="1244406032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3409,12 +3937,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1086304464"/>
+        <c:crossAx val="1244406576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1086304464"/>
+        <c:axId val="1244406576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3471,7 +3999,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1086301200"/>
+        <c:crossAx val="1244406032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3619,11 +4147,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1086303920"/>
-        <c:axId val="-1086303376"/>
+        <c:axId val="1244409840"/>
+        <c:axId val="1244410384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1086303920"/>
+        <c:axId val="1244409840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3680,12 +4208,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1086303376"/>
+        <c:crossAx val="1244410384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1086303376"/>
+        <c:axId val="1244410384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3742,7 +4270,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1086303920"/>
+        <c:crossAx val="1244409840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3890,11 +4418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1081205744"/>
-        <c:axId val="-1081203568"/>
+        <c:axId val="1249054128"/>
+        <c:axId val="1249053040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1081205744"/>
+        <c:axId val="1249054128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3951,12 +4479,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1081203568"/>
+        <c:crossAx val="1249053040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1081203568"/>
+        <c:axId val="1249053040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4013,7 +4541,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1081205744"/>
+        <c:crossAx val="1249054128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4161,11 +4689,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1081217712"/>
-        <c:axId val="-1081213360"/>
+        <c:axId val="1249061200"/>
+        <c:axId val="1249051408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1081217712"/>
+        <c:axId val="1249061200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4222,12 +4750,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1081213360"/>
+        <c:crossAx val="1249051408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1081213360"/>
+        <c:axId val="1249051408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4284,7 +4812,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1081217712"/>
+        <c:crossAx val="1249061200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4432,11 +4960,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1081204656"/>
-        <c:axId val="-1081208464"/>
+        <c:axId val="1249055760"/>
+        <c:axId val="1249049232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1081204656"/>
+        <c:axId val="1249055760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4493,12 +5021,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1081208464"/>
+        <c:crossAx val="1249049232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1081208464"/>
+        <c:axId val="1249049232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4555,7 +5083,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1081204656"/>
+        <c:crossAx val="1249055760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4703,11 +5231,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1081207920"/>
-        <c:axId val="-1081206832"/>
+        <c:axId val="1249061744"/>
+        <c:axId val="1249051952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1081207920"/>
+        <c:axId val="1249061744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4764,12 +5292,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1081206832"/>
+        <c:crossAx val="1249051952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1081206832"/>
+        <c:axId val="1249051952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4826,7 +5354,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1081207920"/>
+        <c:crossAx val="1249061744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5076,6 +5604,86 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8003,6 +8611,1038 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13078,6 +14718,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14684,8 +16388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14809,11 +16513,15 @@
       <c r="K3" s="10">
         <v>39869</v>
       </c>
-      <c r="L3" s="15"/>
+      <c r="L3" s="15">
+        <v>12072</v>
+      </c>
       <c r="M3" s="10">
         <v>39869</v>
       </c>
-      <c r="N3" s="17"/>
+      <c r="N3" s="17">
+        <v>10093</v>
+      </c>
     </row>
     <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -14849,9 +16557,14 @@
       <c r="K4" s="10">
         <v>29876</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="15">
+        <v>11029</v>
+      </c>
       <c r="M4" s="10">
         <v>29876</v>
+      </c>
+      <c r="N4">
+        <v>9119</v>
       </c>
     </row>
     <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -14888,9 +16601,14 @@
       <c r="K5" s="10">
         <v>19883</v>
       </c>
-      <c r="L5" s="15"/>
+      <c r="L5" s="15">
+        <v>10257</v>
+      </c>
       <c r="M5" s="10">
         <v>19883</v>
+      </c>
+      <c r="N5">
+        <v>8647</v>
       </c>
     </row>
     <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -14927,9 +16645,14 @@
       <c r="K6" s="10">
         <v>11053</v>
       </c>
-      <c r="L6" s="15"/>
+      <c r="L6" s="15">
+        <v>5996</v>
+      </c>
       <c r="M6" s="10">
         <v>11053</v>
+      </c>
+      <c r="N6">
+        <v>4949</v>
       </c>
     </row>
     <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
@@ -14966,9 +16689,14 @@
       <c r="K7" s="10">
         <v>724</v>
       </c>
-      <c r="L7" s="15"/>
+      <c r="L7" s="15">
+        <v>58</v>
+      </c>
       <c r="M7" s="10">
         <v>724</v>
+      </c>
+      <c r="N7">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">

--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>Measure time of total SP</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>EXT_ITEM_LEDGER_ENTRY</t>
+  </si>
+  <si>
+    <t>Report 2_5 - EXT_HISTORY_MASTER</t>
+  </si>
+  <si>
+    <t>Report 1_1_2 - EXT_HISTORY_MASTER</t>
+  </si>
+  <si>
+    <t>Report 1_1_1 - EXT_HISTORY_MASTER</t>
   </si>
 </sst>
 </file>
@@ -725,11 +734,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1244420176"/>
-        <c:axId val="1244415824"/>
+        <c:axId val="1996732512"/>
+        <c:axId val="1996734688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1244420176"/>
+        <c:axId val="1996732512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,7 +781,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244415824"/>
+        <c:crossAx val="1996734688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,7 +789,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1244415824"/>
+        <c:axId val="1996734688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,7 +840,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244420176"/>
+        <c:crossAx val="1996732512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1038,11 +1047,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1249059568"/>
-        <c:axId val="1249050320"/>
+        <c:axId val="2041099472"/>
+        <c:axId val="2041107088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1249059568"/>
+        <c:axId val="2041099472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1099,12 +1108,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1249050320"/>
+        <c:crossAx val="2041107088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1249050320"/>
+        <c:axId val="2041107088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1170,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1249059568"/>
+        <c:crossAx val="2041099472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1303,11 +1312,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1249053584"/>
-        <c:axId val="1249059024"/>
+        <c:axId val="2041100560"/>
+        <c:axId val="2041109808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1249053584"/>
+        <c:axId val="2041100560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,12 +1373,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1249059024"/>
+        <c:crossAx val="2041109808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1249059024"/>
+        <c:axId val="2041109808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1426,7 +1435,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1249053584"/>
+        <c:crossAx val="2041100560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1568,11 +1577,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1249047600"/>
-        <c:axId val="1249048144"/>
+        <c:axId val="2041096752"/>
+        <c:axId val="2041101648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1249047600"/>
+        <c:axId val="2041096752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,12 +1638,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1249048144"/>
+        <c:crossAx val="2041101648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1249048144"/>
+        <c:axId val="2041101648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1700,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1249047600"/>
+        <c:crossAx val="2041096752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1833,11 +1842,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1248831840"/>
-        <c:axId val="1248843264"/>
+        <c:axId val="2041102736"/>
+        <c:axId val="2041107632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1248831840"/>
+        <c:axId val="2041102736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,12 +1903,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1248843264"/>
+        <c:crossAx val="2041107632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1248843264"/>
+        <c:axId val="2041107632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,7 +1965,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1248831840"/>
+        <c:crossAx val="2041102736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2098,11 +2107,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1248841088"/>
-        <c:axId val="1248834016"/>
+        <c:axId val="2041103280"/>
+        <c:axId val="2041109264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1248841088"/>
+        <c:axId val="2041103280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,12 +2168,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1248834016"/>
+        <c:crossAx val="2041109264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1248834016"/>
+        <c:axId val="2041109264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2221,7 +2230,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1248841088"/>
+        <c:crossAx val="2041103280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2363,11 +2372,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1279446352"/>
-        <c:axId val="1279439824"/>
+        <c:axId val="2041094576"/>
+        <c:axId val="2041108176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1279446352"/>
+        <c:axId val="2041094576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,12 +2433,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1279439824"/>
+        <c:crossAx val="2041108176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1279439824"/>
+        <c:axId val="2041108176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,7 +2495,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1279446352"/>
+        <c:crossAx val="2041094576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2628,11 +2637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1279440368"/>
-        <c:axId val="1279443632"/>
+        <c:axId val="2041095120"/>
+        <c:axId val="2040852496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1279440368"/>
+        <c:axId val="2041095120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2689,12 +2698,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1279443632"/>
+        <c:crossAx val="2040852496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1279443632"/>
+        <c:axId val="2040852496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2751,7 +2760,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1279440368"/>
+        <c:crossAx val="2041095120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3320,11 +3329,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1244413104"/>
-        <c:axId val="1244404944"/>
+        <c:axId val="2039703536"/>
+        <c:axId val="2039714416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1244413104"/>
+        <c:axId val="2039703536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3367,7 +3376,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244404944"/>
+        <c:crossAx val="2039714416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3375,7 +3384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1244404944"/>
+        <c:axId val="2039714416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3426,7 +3435,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244413104"/>
+        <c:crossAx val="2039703536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3605,11 +3614,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1244418000"/>
-        <c:axId val="1244411472"/>
+        <c:axId val="2039705168"/>
+        <c:axId val="2039711696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1244418000"/>
+        <c:axId val="2039705168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3666,12 +3675,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244411472"/>
+        <c:crossAx val="2039711696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1244411472"/>
+        <c:axId val="2039711696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3728,7 +3737,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244418000"/>
+        <c:crossAx val="2039705168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3876,11 +3885,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1244406032"/>
-        <c:axId val="1244406576"/>
+        <c:axId val="2039709520"/>
+        <c:axId val="2039707344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1244406032"/>
+        <c:axId val="2039709520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3937,12 +3946,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244406576"/>
+        <c:crossAx val="2039707344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1244406576"/>
+        <c:axId val="2039707344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3999,7 +4008,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244406032"/>
+        <c:crossAx val="2039709520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4147,11 +4156,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1244409840"/>
-        <c:axId val="1244410384"/>
+        <c:axId val="2039705712"/>
+        <c:axId val="2039699728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1244409840"/>
+        <c:axId val="2039705712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4208,12 +4217,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244410384"/>
+        <c:crossAx val="2039699728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1244410384"/>
+        <c:axId val="2039699728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4270,7 +4279,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1244409840"/>
+        <c:crossAx val="2039705712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4418,11 +4427,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1249054128"/>
-        <c:axId val="1249053040"/>
+        <c:axId val="2039711152"/>
+        <c:axId val="2039701360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1249054128"/>
+        <c:axId val="2039711152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4479,12 +4488,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1249053040"/>
+        <c:crossAx val="2039701360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1249053040"/>
+        <c:axId val="2039701360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4541,7 +4550,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1249054128"/>
+        <c:crossAx val="2039711152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4689,11 +4698,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1249061200"/>
-        <c:axId val="1249051408"/>
+        <c:axId val="2039706800"/>
+        <c:axId val="2039707888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1249061200"/>
+        <c:axId val="2039706800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4750,12 +4759,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1249051408"/>
+        <c:crossAx val="2039707888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1249051408"/>
+        <c:axId val="2039707888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4812,7 +4821,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1249061200"/>
+        <c:crossAx val="2039706800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4960,11 +4969,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1249055760"/>
-        <c:axId val="1249049232"/>
+        <c:axId val="2039708432"/>
+        <c:axId val="2039710608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1249055760"/>
+        <c:axId val="2039708432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5021,12 +5030,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1249049232"/>
+        <c:crossAx val="2039710608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1249049232"/>
+        <c:axId val="2039710608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5083,7 +5092,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1249055760"/>
+        <c:crossAx val="2039708432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5231,11 +5240,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1249061744"/>
-        <c:axId val="1249051952"/>
+        <c:axId val="2041106544"/>
+        <c:axId val="2041106000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1249061744"/>
+        <c:axId val="2041106544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5292,12 +5301,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1249051952"/>
+        <c:crossAx val="2041106000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1249051952"/>
+        <c:axId val="2041106000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5354,7 +5363,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1249061744"/>
+        <c:crossAx val="2041106544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16386,10 +16395,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16763,8 +16772,225 @@
       <c r="J15" s="15"/>
       <c r="L15" s="15"/>
     </row>
+    <row r="34" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="K34" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="27"/>
+      <c r="M34" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" s="27"/>
+    </row>
+    <row r="35" spans="3:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>10447188</v>
+      </c>
+      <c r="D36" s="14">
+        <v>62396</v>
+      </c>
+      <c r="E36">
+        <v>10447188</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="K36">
+        <v>10447188</v>
+      </c>
+      <c r="L36" s="15">
+        <v>12512</v>
+      </c>
+      <c r="M36">
+        <v>10447188</v>
+      </c>
+      <c r="N36" s="16">
+        <v>10158</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>9706149</v>
+      </c>
+      <c r="D37" s="14">
+        <v>62171</v>
+      </c>
+      <c r="E37">
+        <v>9706149</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="K37">
+        <v>9706149</v>
+      </c>
+      <c r="L37" s="15">
+        <v>12077</v>
+      </c>
+      <c r="M37">
+        <v>9706149</v>
+      </c>
+      <c r="N37" s="16">
+        <v>10062</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>6945334</v>
+      </c>
+      <c r="D38" s="14">
+        <v>61191</v>
+      </c>
+      <c r="E38">
+        <v>6945334</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="K38">
+        <v>6945334</v>
+      </c>
+      <c r="L38" s="15">
+        <v>12100</v>
+      </c>
+      <c r="M38">
+        <v>6945334</v>
+      </c>
+      <c r="N38" s="16">
+        <v>9943</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>3726035</v>
+      </c>
+      <c r="D39" s="14">
+        <v>69669</v>
+      </c>
+      <c r="E39">
+        <v>3726035</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="K39">
+        <v>3726035</v>
+      </c>
+      <c r="L39" s="15">
+        <v>15978</v>
+      </c>
+      <c r="M39">
+        <v>3726035</v>
+      </c>
+      <c r="N39" s="16">
+        <v>9855</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>280859</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40">
+        <v>280859</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="K40">
+        <v>280859</v>
+      </c>
+      <c r="L40" s="15"/>
+      <c r="M40">
+        <v>280859</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C41"/>
+      <c r="D41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="15"/>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C42"/>
+      <c r="D42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="15"/>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C43"/>
+      <c r="D43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="15"/>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C44"/>
+      <c r="D44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="15"/>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C45"/>
+      <c r="D45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="15"/>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C46"/>
+      <c r="D46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="15"/>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C47"/>
+      <c r="D47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="15"/>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C48"/>
+      <c r="D48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>

--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -734,11 +734,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1996732512"/>
-        <c:axId val="1996734688"/>
+        <c:axId val="27128400"/>
+        <c:axId val="256127696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1996732512"/>
+        <c:axId val="27128400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +781,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1996734688"/>
+        <c:crossAx val="256127696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -789,7 +789,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1996734688"/>
+        <c:axId val="256127696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,7 +840,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1996732512"/>
+        <c:crossAx val="27128400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1047,11 +1047,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2041099472"/>
-        <c:axId val="2041107088"/>
+        <c:axId val="258036288"/>
+        <c:axId val="258034656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2041099472"/>
+        <c:axId val="258036288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,12 +1108,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041107088"/>
+        <c:crossAx val="258034656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2041107088"/>
+        <c:axId val="258034656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,7 +1170,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041099472"/>
+        <c:crossAx val="258036288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1312,11 +1312,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2041100560"/>
-        <c:axId val="2041109808"/>
+        <c:axId val="258035200"/>
+        <c:axId val="258036832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2041100560"/>
+        <c:axId val="258035200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,12 +1373,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041109808"/>
+        <c:crossAx val="258036832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2041109808"/>
+        <c:axId val="258036832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,7 +1435,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041100560"/>
+        <c:crossAx val="258035200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1577,11 +1577,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2041096752"/>
-        <c:axId val="2041101648"/>
+        <c:axId val="258024864"/>
+        <c:axId val="258030848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2041096752"/>
+        <c:axId val="258024864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,12 +1638,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041101648"/>
+        <c:crossAx val="258030848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2041101648"/>
+        <c:axId val="258030848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,7 +1700,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041096752"/>
+        <c:crossAx val="258024864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1842,11 +1842,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2041102736"/>
-        <c:axId val="2041107632"/>
+        <c:axId val="258025408"/>
+        <c:axId val="258028128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2041102736"/>
+        <c:axId val="258025408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,12 +1903,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041107632"/>
+        <c:crossAx val="258028128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2041107632"/>
+        <c:axId val="258028128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,7 +1965,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041102736"/>
+        <c:crossAx val="258025408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2107,11 +2107,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2041103280"/>
-        <c:axId val="2041109264"/>
+        <c:axId val="258027040"/>
+        <c:axId val="258031936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2041103280"/>
+        <c:axId val="258027040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,12 +2168,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041109264"/>
+        <c:crossAx val="258031936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2041109264"/>
+        <c:axId val="258031936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,7 +2230,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041103280"/>
+        <c:crossAx val="258027040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2372,11 +2372,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2041094576"/>
-        <c:axId val="2041108176"/>
+        <c:axId val="258029216"/>
+        <c:axId val="258029760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2041094576"/>
+        <c:axId val="258029216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,12 +2433,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041108176"/>
+        <c:crossAx val="258029760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2041108176"/>
+        <c:axId val="258029760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,7 +2495,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041094576"/>
+        <c:crossAx val="258029216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2637,11 +2637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2041095120"/>
-        <c:axId val="2040852496"/>
+        <c:axId val="257516304"/>
+        <c:axId val="257517936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2041095120"/>
+        <c:axId val="257516304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,12 +2698,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2040852496"/>
+        <c:crossAx val="257517936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2040852496"/>
+        <c:axId val="257517936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +2760,802 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041095120"/>
+        <c:crossAx val="257516304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$K$36:$K$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10447188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9706149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6945334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3726035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$L$36:$L$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="262488032"/>
+        <c:axId val="262485856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="262488032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262485856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="262485856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262488032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$M$36:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10447188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9706149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6945334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3726035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$N$36:$N$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9943</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="262480960"/>
+        <c:axId val="262490752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="262480960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262490752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="262490752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262480960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$C$36:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10447188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9706149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6945334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3726035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$D$36:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>62396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="265609680"/>
+        <c:axId val="265613488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="265609680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265613488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="265613488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="265609680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3329,11 +4124,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2039703536"/>
-        <c:axId val="2039714416"/>
+        <c:axId val="256132592"/>
+        <c:axId val="256136944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2039703536"/>
+        <c:axId val="256132592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3376,7 +4171,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039714416"/>
+        <c:crossAx val="256136944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3384,7 +4179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2039714416"/>
+        <c:axId val="256136944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3435,7 +4230,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039703536"/>
+        <c:crossAx val="256132592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3614,11 +4409,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2039705168"/>
-        <c:axId val="2039711696"/>
+        <c:axId val="256134768"/>
+        <c:axId val="256140208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2039705168"/>
+        <c:axId val="256134768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3675,12 +4470,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039711696"/>
+        <c:crossAx val="256140208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2039711696"/>
+        <c:axId val="256140208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3737,7 +4532,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039705168"/>
+        <c:crossAx val="256134768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3885,11 +4680,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2039709520"/>
-        <c:axId val="2039707344"/>
+        <c:axId val="256137488"/>
+        <c:axId val="256126064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2039709520"/>
+        <c:axId val="256137488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3946,12 +4741,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039707344"/>
+        <c:crossAx val="256126064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2039707344"/>
+        <c:axId val="256126064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4008,7 +4803,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039709520"/>
+        <c:crossAx val="256137488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4156,11 +4951,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2039705712"/>
-        <c:axId val="2039699728"/>
+        <c:axId val="256127152"/>
+        <c:axId val="256136400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2039705712"/>
+        <c:axId val="256127152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4217,12 +5012,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039699728"/>
+        <c:crossAx val="256136400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2039699728"/>
+        <c:axId val="256136400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4279,7 +5074,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039705712"/>
+        <c:crossAx val="256127152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4427,11 +5222,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2039711152"/>
-        <c:axId val="2039701360"/>
+        <c:axId val="256139120"/>
+        <c:axId val="256135312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2039711152"/>
+        <c:axId val="256139120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4488,12 +5283,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039701360"/>
+        <c:crossAx val="256135312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2039701360"/>
+        <c:axId val="256135312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4550,7 +5345,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039711152"/>
+        <c:crossAx val="256139120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4698,11 +5493,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2039706800"/>
-        <c:axId val="2039707888"/>
+        <c:axId val="256130960"/>
+        <c:axId val="256131504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2039706800"/>
+        <c:axId val="256130960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4759,12 +5554,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039707888"/>
+        <c:crossAx val="256131504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2039707888"/>
+        <c:axId val="256131504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4821,7 +5616,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039706800"/>
+        <c:crossAx val="256130960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4969,11 +5764,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2039708432"/>
-        <c:axId val="2039710608"/>
+        <c:axId val="256133680"/>
+        <c:axId val="256134224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2039708432"/>
+        <c:axId val="256133680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5030,12 +5825,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039710608"/>
+        <c:crossAx val="256134224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2039710608"/>
+        <c:axId val="256134224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5092,7 +5887,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039708432"/>
+        <c:crossAx val="256133680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5240,11 +6035,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2041106544"/>
-        <c:axId val="2041106000"/>
+        <c:axId val="258034112"/>
+        <c:axId val="258039552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2041106544"/>
+        <c:axId val="258034112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5301,12 +6096,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041106000"/>
+        <c:crossAx val="258039552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2041106000"/>
+        <c:axId val="258039552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5363,7 +6158,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041106544"/>
+        <c:crossAx val="258034112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5732,6 +6527,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9652,6 +10567,1554 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14791,6 +17254,102 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16397,8 +18956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16916,7 +19475,9 @@
       <c r="C40">
         <v>280859</v>
       </c>
-      <c r="D40" s="14"/>
+      <c r="D40" s="14">
+        <v>37407</v>
+      </c>
       <c r="E40">
         <v>280859</v>
       </c>
@@ -16924,9 +19485,14 @@
       <c r="K40">
         <v>280859</v>
       </c>
-      <c r="L40" s="15"/>
+      <c r="L40" s="15">
+        <v>2</v>
+      </c>
       <c r="M40">
         <v>280859</v>
+      </c>
+      <c r="N40" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.25">
@@ -16987,16 +19553,16 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Troublepart of SP" sheetId="4" r:id="rId4"/>
     <sheet name="Table content drop wo I&amp;Keys" sheetId="5" r:id="rId5"/>
     <sheet name="Table content drop w I&amp;Keys" sheetId="6" r:id="rId6"/>
+    <sheet name="Playing with indexes HISTORY_MA" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
   <si>
     <t>Measure time of total SP</t>
   </si>
@@ -190,6 +191,27 @@
   </si>
   <si>
     <t>Report 1_1_1 - EXT_HISTORY_MASTER</t>
+  </si>
+  <si>
+    <t>Report_1_1_1</t>
+  </si>
+  <si>
+    <t>Report_1_1_2</t>
+  </si>
+  <si>
+    <t>No Index No Keys</t>
+  </si>
+  <si>
+    <t>Index &amp; Keys</t>
+  </si>
+  <si>
+    <t>Report_2_6</t>
+  </si>
+  <si>
+    <t>No Index &amp; Keys</t>
+  </si>
+  <si>
+    <t>New Index PostingDate</t>
   </si>
 </sst>
 </file>
@@ -734,11 +756,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="27128400"/>
-        <c:axId val="256127696"/>
+        <c:axId val="-570663904"/>
+        <c:axId val="-570663360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="27128400"/>
+        <c:axId val="-570663904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -781,7 +803,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256127696"/>
+        <c:crossAx val="-570663360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -789,7 +811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256127696"/>
+        <c:axId val="-570663360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,7 +862,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27128400"/>
+        <c:crossAx val="-570663904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1047,11 +1069,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258036288"/>
-        <c:axId val="258034656"/>
+        <c:axId val="-565693488"/>
+        <c:axId val="-565695120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258036288"/>
+        <c:axId val="-565693488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,12 +1130,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258034656"/>
+        <c:crossAx val="-565695120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258034656"/>
+        <c:axId val="-565695120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,7 +1192,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258036288"/>
+        <c:crossAx val="-565693488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1312,11 +1334,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258035200"/>
-        <c:axId val="258036832"/>
+        <c:axId val="-565692400"/>
+        <c:axId val="-565691856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258035200"/>
+        <c:axId val="-565692400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,12 +1395,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258036832"/>
+        <c:crossAx val="-565691856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258036832"/>
+        <c:axId val="-565691856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,7 +1457,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258035200"/>
+        <c:crossAx val="-565692400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1577,11 +1599,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258024864"/>
-        <c:axId val="258030848"/>
+        <c:axId val="-565307888"/>
+        <c:axId val="-565296464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258024864"/>
+        <c:axId val="-565307888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,12 +1660,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258030848"/>
+        <c:crossAx val="-565296464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258030848"/>
+        <c:axId val="-565296464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,7 +1722,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258024864"/>
+        <c:crossAx val="-565307888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1842,11 +1864,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258025408"/>
-        <c:axId val="258028128"/>
+        <c:axId val="-565294832"/>
+        <c:axId val="-565297008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258025408"/>
+        <c:axId val="-565294832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,12 +1925,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258028128"/>
+        <c:crossAx val="-565297008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258028128"/>
+        <c:axId val="-565297008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,7 +1987,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258025408"/>
+        <c:crossAx val="-565294832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2107,11 +2129,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258027040"/>
-        <c:axId val="258031936"/>
+        <c:axId val="-565298640"/>
+        <c:axId val="-565300816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258027040"/>
+        <c:axId val="-565298640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,12 +2190,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258031936"/>
+        <c:crossAx val="-565300816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258031936"/>
+        <c:axId val="-565300816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,7 +2252,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258027040"/>
+        <c:crossAx val="-565298640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2372,11 +2394,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258029216"/>
-        <c:axId val="258029760"/>
+        <c:axId val="-565308432"/>
+        <c:axId val="-565304624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258029216"/>
+        <c:axId val="-565308432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,12 +2455,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258029760"/>
+        <c:crossAx val="-565304624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258029760"/>
+        <c:axId val="-565304624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2495,7 +2517,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258029216"/>
+        <c:crossAx val="-565308432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2637,11 +2659,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257516304"/>
-        <c:axId val="257517936"/>
+        <c:axId val="-565295920"/>
+        <c:axId val="-565310064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257516304"/>
+        <c:axId val="-565295920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,12 +2720,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257517936"/>
+        <c:crossAx val="-565310064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257517936"/>
+        <c:axId val="-565310064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +2782,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257516304"/>
+        <c:crossAx val="-565295920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2902,11 +2924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="262488032"/>
-        <c:axId val="262485856"/>
+        <c:axId val="-565307344"/>
+        <c:axId val="-565302992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="262488032"/>
+        <c:axId val="-565307344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2963,12 +2985,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262485856"/>
+        <c:crossAx val="-565302992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="262485856"/>
+        <c:axId val="-565302992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3025,7 +3047,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262488032"/>
+        <c:crossAx val="-565307344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3167,11 +3189,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="262480960"/>
-        <c:axId val="262490752"/>
+        <c:axId val="-565305168"/>
+        <c:axId val="-565302448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="262480960"/>
+        <c:axId val="-565305168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,12 +3250,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262490752"/>
+        <c:crossAx val="-565302448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="262490752"/>
+        <c:axId val="-565302448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3290,7 +3312,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262480960"/>
+        <c:crossAx val="-565305168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3432,11 +3454,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="265609680"/>
-        <c:axId val="265613488"/>
+        <c:axId val="-565299728"/>
+        <c:axId val="-566112016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="265609680"/>
+        <c:axId val="-565299728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3493,12 +3515,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265613488"/>
+        <c:crossAx val="-566112016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265613488"/>
+        <c:axId val="-566112016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3555,7 +3577,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265609680"/>
+        <c:crossAx val="-565299728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4124,11 +4146,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="256132592"/>
-        <c:axId val="256136944"/>
+        <c:axId val="-570672608"/>
+        <c:axId val="-570671520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="256132592"/>
+        <c:axId val="-570672608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4171,7 +4193,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256136944"/>
+        <c:crossAx val="-570671520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4179,7 +4201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256136944"/>
+        <c:axId val="-570671520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4230,7 +4252,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256132592"/>
+        <c:crossAx val="-570672608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4409,11 +4431,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256134768"/>
-        <c:axId val="256140208"/>
+        <c:axId val="-570667712"/>
+        <c:axId val="-570659008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256134768"/>
+        <c:axId val="-570667712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4470,12 +4492,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256140208"/>
+        <c:crossAx val="-570659008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256140208"/>
+        <c:axId val="-570659008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4532,7 +4554,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256134768"/>
+        <c:crossAx val="-570667712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4680,11 +4702,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256137488"/>
-        <c:axId val="256126064"/>
+        <c:axId val="-570665536"/>
+        <c:axId val="-570664992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256137488"/>
+        <c:axId val="-570665536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4741,12 +4763,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256126064"/>
+        <c:crossAx val="-570664992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256126064"/>
+        <c:axId val="-570664992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4803,7 +4825,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256137488"/>
+        <c:crossAx val="-570665536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4951,11 +4973,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256127152"/>
-        <c:axId val="256136400"/>
+        <c:axId val="-565694032"/>
+        <c:axId val="-565697840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256127152"/>
+        <c:axId val="-565694032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5012,12 +5034,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256136400"/>
+        <c:crossAx val="-565697840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256136400"/>
+        <c:axId val="-565697840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5074,7 +5096,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256127152"/>
+        <c:crossAx val="-565694032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5222,11 +5244,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256139120"/>
-        <c:axId val="256135312"/>
+        <c:axId val="-565685872"/>
+        <c:axId val="-565694576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256139120"/>
+        <c:axId val="-565685872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5283,12 +5305,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256135312"/>
+        <c:crossAx val="-565694576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256135312"/>
+        <c:axId val="-565694576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5345,7 +5367,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256139120"/>
+        <c:crossAx val="-565685872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5493,11 +5515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256130960"/>
-        <c:axId val="256131504"/>
+        <c:axId val="-565696752"/>
+        <c:axId val="-565690224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256130960"/>
+        <c:axId val="-565696752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5554,12 +5576,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256131504"/>
+        <c:crossAx val="-565690224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256131504"/>
+        <c:axId val="-565690224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5616,7 +5638,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256130960"/>
+        <c:crossAx val="-565696752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5764,11 +5786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256133680"/>
-        <c:axId val="256134224"/>
+        <c:axId val="-565684240"/>
+        <c:axId val="-565683696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256133680"/>
+        <c:axId val="-565684240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5825,12 +5847,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256134224"/>
+        <c:crossAx val="-565683696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256134224"/>
+        <c:axId val="-565683696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5887,7 +5909,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256133680"/>
+        <c:crossAx val="-565684240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6035,11 +6057,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258034112"/>
-        <c:axId val="258039552"/>
+        <c:axId val="-565689680"/>
+        <c:axId val="-565698384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258034112"/>
+        <c:axId val="-565689680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6096,12 +6118,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258039552"/>
+        <c:crossAx val="-565698384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="258039552"/>
+        <c:axId val="-565698384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6158,7 +6180,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258034112"/>
+        <c:crossAx val="-565689680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18510,7 +18532,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18947,7 +18969,7 @@
     <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -18956,8 +18978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19553,20 +19575,132 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="19">
+        <v>403186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="20">
+        <v>15218</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="19">
+        <v>18111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="15">
+        <v>145645</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="16">
+        <v>10158</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="15">
+        <v>12512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <v>252784</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4">
+        <v>4887</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4">
+        <v>6763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <v>247081</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>4916</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5">
+        <v>6750</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t>Measure time of total SP</t>
   </si>
@@ -208,10 +208,37 @@
     <t>Report_2_6</t>
   </si>
   <si>
-    <t>No Index &amp; Keys</t>
+    <t>New Index PostingDate</t>
   </si>
   <si>
-    <t>New Index PostingDate</t>
+    <t>New Index Unit</t>
+  </si>
+  <si>
+    <t>New Index No</t>
+  </si>
+  <si>
+    <t>New Index Type</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Kept</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>New Index multiple</t>
+  </si>
+  <si>
+    <t>New Index SubType</t>
+  </si>
+  <si>
+    <t>New Index VariantId</t>
+  </si>
+  <si>
+    <t>No Index with Keys</t>
   </si>
 </sst>
 </file>
@@ -756,11 +783,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-570663904"/>
-        <c:axId val="-570663360"/>
+        <c:axId val="-1428256176"/>
+        <c:axId val="-1428247472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-570663904"/>
+        <c:axId val="-1428256176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,7 +830,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-570663360"/>
+        <c:crossAx val="-1428247472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -811,7 +838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-570663360"/>
+        <c:axId val="-1428247472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +889,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-570663904"/>
+        <c:crossAx val="-1428256176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1069,11 +1096,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565693488"/>
-        <c:axId val="-565695120"/>
+        <c:axId val="-1427260192"/>
+        <c:axId val="-1427258560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565693488"/>
+        <c:axId val="-1427260192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,12 +1157,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565695120"/>
+        <c:crossAx val="-1427258560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565695120"/>
+        <c:axId val="-1427258560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1219,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565693488"/>
+        <c:crossAx val="-1427260192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1334,11 +1361,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565692400"/>
-        <c:axId val="-565691856"/>
+        <c:axId val="-1427259104"/>
+        <c:axId val="-1427251488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565692400"/>
+        <c:axId val="-1427259104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,12 +1422,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565691856"/>
+        <c:crossAx val="-1427251488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565691856"/>
+        <c:axId val="-1427251488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,7 +1484,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565692400"/>
+        <c:crossAx val="-1427259104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1599,11 +1626,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565307888"/>
-        <c:axId val="-565296464"/>
+        <c:axId val="-1427250400"/>
+        <c:axId val="-1427249312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565307888"/>
+        <c:axId val="-1427250400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,12 +1687,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565296464"/>
+        <c:crossAx val="-1427249312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565296464"/>
+        <c:axId val="-1427249312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1722,7 +1749,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565307888"/>
+        <c:crossAx val="-1427250400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1864,11 +1891,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565294832"/>
-        <c:axId val="-565297008"/>
+        <c:axId val="-1427258016"/>
+        <c:axId val="-1427255296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565294832"/>
+        <c:axId val="-1427258016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1925,12 +1952,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565297008"/>
+        <c:crossAx val="-1427255296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565297008"/>
+        <c:axId val="-1427255296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,7 +2014,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565294832"/>
+        <c:crossAx val="-1427258016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2129,11 +2156,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565298640"/>
-        <c:axId val="-565300816"/>
+        <c:axId val="-1427256384"/>
+        <c:axId val="-1427254752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565298640"/>
+        <c:axId val="-1427256384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2190,12 +2217,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565300816"/>
+        <c:crossAx val="-1427254752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565300816"/>
+        <c:axId val="-1427254752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,7 +2279,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565298640"/>
+        <c:crossAx val="-1427256384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2394,11 +2421,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565308432"/>
-        <c:axId val="-565304624"/>
+        <c:axId val="-1427253664"/>
+        <c:axId val="-1427253120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565308432"/>
+        <c:axId val="-1427253664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,12 +2482,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565304624"/>
+        <c:crossAx val="-1427253120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565304624"/>
+        <c:axId val="-1427253120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2517,7 +2544,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565308432"/>
+        <c:crossAx val="-1427253664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2659,11 +2686,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565295920"/>
-        <c:axId val="-565310064"/>
+        <c:axId val="-1426716624"/>
+        <c:axId val="-1426720976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565295920"/>
+        <c:axId val="-1426716624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2720,12 +2747,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565310064"/>
+        <c:crossAx val="-1426720976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565310064"/>
+        <c:axId val="-1426720976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2782,7 +2809,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565295920"/>
+        <c:crossAx val="-1426716624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2924,11 +2951,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565307344"/>
-        <c:axId val="-565302992"/>
+        <c:axId val="-1426720432"/>
+        <c:axId val="-1426723696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565307344"/>
+        <c:axId val="-1426720432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2985,12 +3012,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565302992"/>
+        <c:crossAx val="-1426723696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565302992"/>
+        <c:axId val="-1426723696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,7 +3074,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565307344"/>
+        <c:crossAx val="-1426720432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3189,11 +3216,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565305168"/>
-        <c:axId val="-565302448"/>
+        <c:axId val="-1426719344"/>
+        <c:axId val="-1426718800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565305168"/>
+        <c:axId val="-1426719344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3250,12 +3277,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565302448"/>
+        <c:crossAx val="-1426718800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565302448"/>
+        <c:axId val="-1426718800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3312,7 +3339,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565305168"/>
+        <c:crossAx val="-1426719344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3454,11 +3481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565299728"/>
-        <c:axId val="-566112016"/>
+        <c:axId val="-1426718256"/>
+        <c:axId val="-1426716080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565299728"/>
+        <c:axId val="-1426718256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3515,12 +3542,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-566112016"/>
+        <c:crossAx val="-1426716080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-566112016"/>
+        <c:axId val="-1426716080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3577,7 +3604,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565299728"/>
+        <c:crossAx val="-1426718256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4146,11 +4173,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-570672608"/>
-        <c:axId val="-570671520"/>
+        <c:axId val="-1428248016"/>
+        <c:axId val="-1428257264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-570672608"/>
+        <c:axId val="-1428248016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4193,7 +4220,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-570671520"/>
+        <c:crossAx val="-1428257264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4201,7 +4228,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-570671520"/>
+        <c:axId val="-1428257264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4252,7 +4279,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-570672608"/>
+        <c:crossAx val="-1428248016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4266,6 +4293,1116 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> 2_6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Playing with indexes HISTORY_MA'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>No Index No Keys</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Index &amp; Keys</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Index with Keys</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Index PostingDate</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>New Index Unit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Index No</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>New Index Type</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>New Index multiple</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>New Index SubType</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>New Index VariantId</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Playing with indexes HISTORY_MA'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>403186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145645</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>252784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>247081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>248951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>247358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>246135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>405023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>251415</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>249284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1426729136"/>
+        <c:axId val="-1426723152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1426729136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1426723152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1426723152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1426729136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> 1_1_1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Playing with indexes HISTORY_MA'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>No Index No Keys</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Index &amp; Keys</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Index with Keys</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Index PostingDate</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>New Index Unit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Index No</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>New Index Type</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>New Index multiple</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>New Index SubType</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>New Index VariantId</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Playing with indexes HISTORY_MA'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4916</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20684</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5041</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1426726960"/>
+        <c:axId val="-1426725872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1426726960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1426725872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1426725872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1426726960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> 1_1_2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Playing with indexes HISTORY_MA'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>No Index No Keys</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Index &amp; Keys</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Index with Keys</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Index PostingDate</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>New Index Unit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Index No</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>New Index Type</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>New Index multiple</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>New Index SubType</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>New Index VariantId</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Playing with indexes HISTORY_MA'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6924</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22792</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6467</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1426722608"/>
+        <c:axId val="-1426722064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1426722608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1426722064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1426722064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1426722608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4431,11 +5568,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-570667712"/>
-        <c:axId val="-570659008"/>
+        <c:axId val="-1428253456"/>
+        <c:axId val="-1428258896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-570667712"/>
+        <c:axId val="-1428253456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4492,12 +5629,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-570659008"/>
+        <c:crossAx val="-1428258896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-570659008"/>
+        <c:axId val="-1428258896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4554,7 +5691,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-570667712"/>
+        <c:crossAx val="-1428253456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4702,11 +5839,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-570665536"/>
-        <c:axId val="-570664992"/>
+        <c:axId val="-1428249104"/>
+        <c:axId val="-1428248560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-570665536"/>
+        <c:axId val="-1428249104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4763,12 +5900,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-570664992"/>
+        <c:crossAx val="-1428248560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-570664992"/>
+        <c:axId val="-1428248560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4825,7 +5962,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-570665536"/>
+        <c:crossAx val="-1428249104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4973,11 +6110,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565694032"/>
-        <c:axId val="-565697840"/>
+        <c:axId val="-1428260528"/>
+        <c:axId val="-1428250736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565694032"/>
+        <c:axId val="-1428260528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5034,12 +6171,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565697840"/>
+        <c:crossAx val="-1428250736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565697840"/>
+        <c:axId val="-1428250736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5096,7 +6233,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565694032"/>
+        <c:crossAx val="-1428260528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5244,11 +6381,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565685872"/>
-        <c:axId val="-565694576"/>
+        <c:axId val="-1428252368"/>
+        <c:axId val="-1428261072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565685872"/>
+        <c:axId val="-1428252368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5305,12 +6442,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565694576"/>
+        <c:crossAx val="-1428261072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565694576"/>
+        <c:axId val="-1428261072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5367,7 +6504,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565685872"/>
+        <c:crossAx val="-1428252368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5515,11 +6652,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565696752"/>
-        <c:axId val="-565690224"/>
+        <c:axId val="-1428251824"/>
+        <c:axId val="-1428246928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565696752"/>
+        <c:axId val="-1428251824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5576,12 +6713,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565690224"/>
+        <c:crossAx val="-1428246928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565690224"/>
+        <c:axId val="-1428246928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5638,7 +6775,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565696752"/>
+        <c:crossAx val="-1428251824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5786,11 +6923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565684240"/>
-        <c:axId val="-565683696"/>
+        <c:axId val="-1428251280"/>
+        <c:axId val="-1427252576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565684240"/>
+        <c:axId val="-1428251280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5847,12 +6984,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565683696"/>
+        <c:crossAx val="-1427252576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565683696"/>
+        <c:axId val="-1427252576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5909,7 +7046,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565684240"/>
+        <c:crossAx val="-1428251280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6057,11 +7194,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565689680"/>
-        <c:axId val="-565698384"/>
+        <c:axId val="-1427252032"/>
+        <c:axId val="-1427262368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565689680"/>
+        <c:axId val="-1427252032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6118,12 +7255,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565698384"/>
+        <c:crossAx val="-1427262368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565698384"/>
+        <c:axId val="-1427262368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6180,7 +7317,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565689680"/>
+        <c:crossAx val="-1427252032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6709,6 +7846,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12802,6 +14059,1554 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -17375,6 +20180,105 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -18978,7 +21882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
@@ -19595,112 +22499,198 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>57</v>
       </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="19">
         <v>403186</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="20">
+      <c r="C2" s="20">
         <v>15218</v>
       </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="19">
+      <c r="D2" s="19">
         <v>18111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="15">
         <v>145645</v>
       </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="16">
+      <c r="C3" s="16">
         <v>10158</v>
       </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="D3" s="15">
         <v>12512</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>252784</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>4887</v>
+      </c>
+      <c r="D4">
+        <v>6763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>62</v>
-      </c>
-      <c r="D4">
-        <v>4887</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4">
-        <v>6763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>63</v>
       </c>
       <c r="B5">
         <v>247081</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>4916</v>
+      </c>
+      <c r="D5">
+        <v>6750</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="D5">
-        <v>4916</v>
-      </c>
-      <c r="E5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5">
-        <v>6750</v>
+      <c r="B6">
+        <v>248951</v>
+      </c>
+      <c r="C6">
+        <v>4972</v>
+      </c>
+      <c r="D6">
+        <v>6924</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>247358</v>
+      </c>
+      <c r="C7">
+        <v>20684</v>
+      </c>
+      <c r="D7">
+        <v>22792</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>246135</v>
+      </c>
+      <c r="C8">
+        <v>5041</v>
+      </c>
+      <c r="D8">
+        <v>6467</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9">
+        <v>405023</v>
+      </c>
+      <c r="C9">
+        <v>22009</v>
+      </c>
+      <c r="D9">
+        <v>26302</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>251415</v>
+      </c>
+      <c r="C10">
+        <v>5024</v>
+      </c>
+      <c r="D10">
+        <v>6429</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <v>249284</v>
+      </c>
+      <c r="C11">
+        <v>5334</v>
+      </c>
+      <c r="D11">
+        <v>6990</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -477,6 +477,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -756,11 +757,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-570663904"/>
-        <c:axId val="-570663360"/>
+        <c:axId val="1336544384"/>
+        <c:axId val="1336537312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-570663904"/>
+        <c:axId val="1336544384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,7 +804,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-570663360"/>
+        <c:crossAx val="1336537312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -811,7 +812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-570663360"/>
+        <c:axId val="1336537312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +863,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-570663904"/>
+        <c:crossAx val="1336544384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -925,7 +926,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report 2_5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -997,7 +1054,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1069,11 +1126,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565693488"/>
-        <c:axId val="-565695120"/>
+        <c:axId val="1426682112"/>
+        <c:axId val="1426684288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565693488"/>
+        <c:axId val="1426682112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1093,6 +1150,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Entries</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1130,12 +1246,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565695120"/>
+        <c:crossAx val="1426684288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565695120"/>
+        <c:axId val="1426684288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,6 +1271,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1192,7 +1364,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565693488"/>
+        <c:crossAx val="1426682112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1255,14 +1427,70 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report 2_5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1334,11 +1562,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565692400"/>
-        <c:axId val="-565691856"/>
+        <c:axId val="1116957504"/>
+        <c:axId val="1116958592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565692400"/>
+        <c:axId val="1116957504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,6 +1586,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Entries</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1395,12 +1682,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565691856"/>
+        <c:crossAx val="1116958592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565691856"/>
+        <c:axId val="1116958592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,6 +1707,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>TIme (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1457,7 +1800,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565692400"/>
+        <c:crossAx val="1116957504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1520,14 +1863,70 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report 3_1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1599,11 +1998,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565307888"/>
-        <c:axId val="-565296464"/>
+        <c:axId val="1460317536"/>
+        <c:axId val="1460332768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565307888"/>
+        <c:axId val="1460317536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,6 +2022,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Entries</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1660,12 +2118,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565296464"/>
+        <c:crossAx val="1460332768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565296464"/>
+        <c:axId val="1460332768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1685,6 +2143,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>TIme (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1722,7 +2236,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565307888"/>
+        <c:crossAx val="1460317536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1785,14 +2299,70 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report 4_1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1864,11 +2434,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565294832"/>
-        <c:axId val="-565297008"/>
+        <c:axId val="1426004208"/>
+        <c:axId val="1426001488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565294832"/>
+        <c:axId val="1426004208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,6 +2458,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Entries</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1925,12 +2554,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565297008"/>
+        <c:crossAx val="1426001488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565297008"/>
+        <c:axId val="1426001488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,6 +2579,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1987,7 +2672,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565294832"/>
+        <c:crossAx val="1426004208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2050,14 +2735,70 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report 4_4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2129,11 +2870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565298640"/>
-        <c:axId val="-565300816"/>
+        <c:axId val="1117182592"/>
+        <c:axId val="1117186400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565298640"/>
+        <c:axId val="1117182592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2153,6 +2894,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Entries</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2190,12 +2990,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565300816"/>
+        <c:crossAx val="1117186400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565300816"/>
+        <c:axId val="1117186400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,6 +3015,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2252,7 +3108,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565298640"/>
+        <c:crossAx val="1117182592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2315,14 +3171,70 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report 1_1_2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2394,11 +3306,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565308432"/>
-        <c:axId val="-565304624"/>
+        <c:axId val="1461910976"/>
+        <c:axId val="1461911520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565308432"/>
+        <c:axId val="1461910976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2418,6 +3330,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Entries</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2455,12 +3426,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565304624"/>
+        <c:crossAx val="1461911520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565304624"/>
+        <c:axId val="1461911520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,6 +3451,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2517,7 +3544,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565308432"/>
+        <c:crossAx val="1461910976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2580,14 +3607,70 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report 1_1_1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2659,11 +3742,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565295920"/>
-        <c:axId val="-565310064"/>
+        <c:axId val="1460332224"/>
+        <c:axId val="1460320256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565295920"/>
+        <c:axId val="1460332224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2683,6 +3766,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Entries</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2720,12 +3862,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565310064"/>
+        <c:crossAx val="1460320256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565310064"/>
+        <c:axId val="1460320256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,6 +3887,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2782,7 +3980,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565295920"/>
+        <c:crossAx val="1460332224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2924,11 +4122,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565307344"/>
-        <c:axId val="-565302992"/>
+        <c:axId val="1338685072"/>
+        <c:axId val="1338680720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565307344"/>
+        <c:axId val="1338685072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2985,12 +4183,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565302992"/>
+        <c:crossAx val="1338680720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565302992"/>
+        <c:axId val="1338680720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3047,7 +4245,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565307344"/>
+        <c:crossAx val="1338685072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3189,11 +4387,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565305168"/>
-        <c:axId val="-565302448"/>
+        <c:axId val="1338675824"/>
+        <c:axId val="1338681808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565305168"/>
+        <c:axId val="1338675824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3250,12 +4448,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565302448"/>
+        <c:crossAx val="1338681808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565302448"/>
+        <c:axId val="1338681808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3312,7 +4510,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565305168"/>
+        <c:crossAx val="1338675824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3454,11 +4652,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565299728"/>
-        <c:axId val="-566112016"/>
+        <c:axId val="1338676912"/>
+        <c:axId val="1338681264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565299728"/>
+        <c:axId val="1338676912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3515,12 +4713,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-566112016"/>
+        <c:crossAx val="1338681264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-566112016"/>
+        <c:axId val="1338681264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3577,7 +4775,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565299728"/>
+        <c:crossAx val="1338676912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3640,37 +4838,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -4146,11 +5314,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-570672608"/>
-        <c:axId val="-570671520"/>
+        <c:axId val="1336534048"/>
+        <c:axId val="1336532416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-570672608"/>
+        <c:axId val="1336534048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4193,7 +5361,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-570671520"/>
+        <c:crossAx val="1336532416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4201,7 +5369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-570671520"/>
+        <c:axId val="1336532416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4252,7 +5420,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-570672608"/>
+        <c:crossAx val="1336534048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4266,6 +5434,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4346,7 +5515,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report 2_6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4431,11 +5656,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-570667712"/>
-        <c:axId val="-570659008"/>
+        <c:axId val="1336544928"/>
+        <c:axId val="1336532960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-570667712"/>
+        <c:axId val="1336544928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4455,6 +5680,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Entries</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4492,12 +5773,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-570659008"/>
+        <c:crossAx val="1336532960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-570659008"/>
+        <c:axId val="1336532960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4517,6 +5798,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4554,7 +5891,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-570667712"/>
+        <c:crossAx val="1336544928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4617,7 +5954,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report 4_2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4702,11 +6095,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-570665536"/>
-        <c:axId val="-570664992"/>
+        <c:axId val="1336534592"/>
+        <c:axId val="1336546016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-570665536"/>
+        <c:axId val="1336534592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4726,6 +6119,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Entries</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4763,12 +6215,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-570664992"/>
+        <c:crossAx val="1336546016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-570664992"/>
+        <c:axId val="1336546016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4788,6 +6240,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>TIme (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4825,7 +6333,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-570665536"/>
+        <c:crossAx val="1336534592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4888,7 +6396,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report 4_4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4973,11 +6537,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565694032"/>
-        <c:axId val="-565697840"/>
+        <c:axId val="1336541664"/>
+        <c:axId val="1336540032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565694032"/>
+        <c:axId val="1336541664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4997,6 +6561,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Entries</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5034,12 +6657,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565697840"/>
+        <c:crossAx val="1336540032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565697840"/>
+        <c:axId val="1336540032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5059,6 +6682,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5096,7 +6775,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565694032"/>
+        <c:crossAx val="1336541664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5159,7 +6838,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report 2_5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5244,11 +6979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565685872"/>
-        <c:axId val="-565694576"/>
+        <c:axId val="1336535680"/>
+        <c:axId val="1336547648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565685872"/>
+        <c:axId val="1336535680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5268,6 +7003,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Entries</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5305,12 +7099,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565694576"/>
+        <c:crossAx val="1336547648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565694576"/>
+        <c:axId val="1336547648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5330,6 +7124,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5367,7 +7217,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565685872"/>
+        <c:crossAx val="1336535680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5430,7 +7280,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report 3_1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5515,11 +7421,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565696752"/>
-        <c:axId val="-565690224"/>
+        <c:axId val="1336541120"/>
+        <c:axId val="1336543840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565696752"/>
+        <c:axId val="1336541120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5539,6 +7445,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Entries</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5576,12 +7541,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565690224"/>
+        <c:crossAx val="1336543840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565690224"/>
+        <c:axId val="1336543840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5601,6 +7566,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>TIme (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5638,7 +7659,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565696752"/>
+        <c:crossAx val="1336541120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5701,7 +7722,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report 1_1_2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5786,11 +7863,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565684240"/>
-        <c:axId val="-565683696"/>
+        <c:axId val="1338173072"/>
+        <c:axId val="1338173616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565684240"/>
+        <c:axId val="1338173072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5810,6 +7887,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Entries</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5847,12 +7983,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565683696"/>
+        <c:crossAx val="1338173616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565683696"/>
+        <c:axId val="1338173616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5872,6 +8008,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5909,7 +8101,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565684240"/>
+        <c:crossAx val="1338173072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5972,7 +8164,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report 1_1_1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -6057,11 +8305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-565689680"/>
-        <c:axId val="-565698384"/>
+        <c:axId val="1338169264"/>
+        <c:axId val="1338172528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-565689680"/>
+        <c:axId val="1338169264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6081,6 +8329,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Entries</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6118,12 +8425,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565698384"/>
+        <c:crossAx val="1338172528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-565698384"/>
+        <c:axId val="1338172528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6143,6 +8450,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6180,7 +8543,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-565689680"/>
+        <c:crossAx val="1338169264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17668,9 +20031,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -17678,7 +20041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -17686,7 +20049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -17694,7 +20057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -17702,7 +20065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -17710,7 +20073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -17718,7 +20081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -17726,7 +20089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -17747,15 +20110,15 @@
       <selection activeCell="B11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5"/>
       <c r="B1" s="21" t="s">
         <v>8</v>
@@ -17763,7 +20126,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -17777,7 +20140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -17792,7 +20155,7 @@
         <v>427017</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -17807,7 +20170,7 @@
         <v>202116</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -17822,7 +20185,7 @@
         <v>147443</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -17837,7 +20200,7 @@
         <v>33168</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -17852,7 +20215,7 @@
         <v>39300</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -17867,7 +20230,7 @@
         <v>21785</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -17882,7 +20245,7 @@
         <v>10634</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -17897,7 +20260,7 @@
         <v>9522</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -17912,7 +20275,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -17927,7 +20290,7 @@
         <v>12655</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -17942,7 +20305,7 @@
         <v>8998</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -17957,7 +20320,7 @@
         <v>11381</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -17972,7 +20335,7 @@
         <v>6429</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -17987,7 +20350,7 @@
         <v>6347</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -18002,7 +20365,7 @@
         <v>6249</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -18017,7 +20380,7 @@
         <v>5973</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -18032,7 +20395,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
@@ -18047,7 +20410,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
@@ -18062,7 +20425,7 @@
         <v>5483</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
@@ -18077,7 +20440,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
@@ -18092,7 +20455,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
@@ -18107,7 +20470,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
@@ -18122,7 +20485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
@@ -18137,7 +20500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
@@ -18152,7 +20515,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
@@ -18167,7 +20530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
@@ -18182,7 +20545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
@@ -18197,7 +20560,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
@@ -18212,7 +20575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>42</v>
       </c>
@@ -18227,7 +20590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -18242,16 +20605,16 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
         <v>45</v>
       </c>
@@ -18261,7 +20624,7 @@
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -18284,7 +20647,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -18307,7 +20670,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -18330,7 +20693,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -18350,7 +20713,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -18358,7 +20721,7 @@
         <v>8134</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -18366,7 +20729,7 @@
         <v>12264</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -18383,7 +20746,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -18418,15 +20781,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -18437,7 +20800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -18449,7 +20812,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -18461,7 +20824,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -18473,7 +20836,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -18485,7 +20848,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -18497,7 +20860,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -18509,7 +20872,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -18531,17 +20894,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="20.7109375" style="16" customWidth="1"/>
+    <col min="1" max="14" width="20.75" style="16" customWidth="1"/>
     <col min="15" max="15" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A2," - ",'Troublepart of SP'!$C2)</f>
         <v>Report 2_6 - EXT_HISTORY_MASTER</v>
@@ -18578,7 +20941,7 @@
       </c>
       <c r="N1" s="26"/>
     </row>
-    <row r="2" spans="1:14" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
@@ -18622,7 +20985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>17449200</v>
       </c>
@@ -18666,7 +21029,7 @@
         <v>15218</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10447188</v>
       </c>
@@ -18710,7 +21073,7 @@
         <v>10343</v>
       </c>
     </row>
-    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9706149</v>
       </c>
@@ -18754,7 +21117,7 @@
         <v>9671</v>
       </c>
     </row>
-    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6945334</v>
       </c>
@@ -18798,7 +21161,7 @@
         <v>8947</v>
       </c>
     </row>
-    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3726035</v>
       </c>
@@ -18842,7 +21205,7 @@
         <v>5278</v>
       </c>
     </row>
-    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>280859</v>
       </c>
@@ -18886,7 +21249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="D9" s="15"/>
       <c r="F9" s="15"/>
@@ -18894,7 +21257,7 @@
       <c r="J9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
       <c r="D10" s="15"/>
       <c r="F10" s="15"/>
@@ -18902,7 +21265,7 @@
       <c r="J10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="15"/>
       <c r="D11" s="15"/>
       <c r="F11" s="15"/>
@@ -18910,7 +21273,7 @@
       <c r="J11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
       <c r="D12" s="15"/>
       <c r="F12" s="15"/>
@@ -18918,7 +21281,7 @@
       <c r="J12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="D13" s="15"/>
       <c r="F13" s="15"/>
@@ -18926,7 +21289,7 @@
       <c r="J13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="D14" s="15"/>
       <c r="F14" s="15"/>
@@ -18934,7 +21297,7 @@
       <c r="J14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="D15" s="15"/>
       <c r="F15" s="15"/>
@@ -18942,7 +21305,7 @@
       <c r="J15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="15"/>
       <c r="C16"/>
@@ -18978,17 +21341,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="20.7109375" style="16" customWidth="1"/>
+    <col min="1" max="14" width="20.75" style="16" customWidth="1"/>
     <col min="15" max="15" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A2," - ",'Troublepart of SP'!$C2)</f>
         <v>Report 2_6 - EXT_HISTORY_MASTER</v>
@@ -19025,7 +21388,7 @@
       </c>
       <c r="N1" s="26"/>
     </row>
-    <row r="2" spans="1:14" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
@@ -19069,7 +21432,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10447188</v>
       </c>
@@ -19113,7 +21476,7 @@
         <v>10093</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9706149</v>
       </c>
@@ -19157,7 +21520,7 @@
         <v>9119</v>
       </c>
     </row>
-    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6945334</v>
       </c>
@@ -19201,7 +21564,7 @@
         <v>8647</v>
       </c>
     </row>
-    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3726035</v>
       </c>
@@ -19245,7 +21608,7 @@
         <v>4949</v>
       </c>
     </row>
-    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>280859</v>
       </c>
@@ -19289,7 +21652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="15"/>
       <c r="D8" s="15"/>
       <c r="F8" s="15"/>
@@ -19297,7 +21660,7 @@
       <c r="J8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="D9" s="15"/>
       <c r="F9" s="15"/>
@@ -19305,7 +21668,7 @@
       <c r="J9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
       <c r="D10" s="15"/>
       <c r="F10" s="15"/>
@@ -19313,7 +21676,7 @@
       <c r="J10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="15"/>
       <c r="D11" s="15"/>
       <c r="F11" s="15"/>
@@ -19321,7 +21684,7 @@
       <c r="J11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
       <c r="D12" s="15"/>
       <c r="F12" s="15"/>
@@ -19329,7 +21692,7 @@
       <c r="J12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="D13" s="15"/>
       <c r="F13" s="15"/>
@@ -19337,7 +21700,7 @@
       <c r="J13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="D14" s="15"/>
       <c r="F14" s="15"/>
@@ -19345,7 +21708,7 @@
       <c r="J14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="D15" s="15"/>
       <c r="F15" s="15"/>
@@ -19353,7 +21716,7 @@
       <c r="J15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="34" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" s="26" t="s">
         <v>54</v>
       </c>
@@ -19371,7 +21734,7 @@
       </c>
       <c r="N34" s="27"/>
     </row>
-    <row r="35" spans="3:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:14" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C35" s="11" t="s">
         <v>51</v>
       </c>
@@ -19397,7 +21760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>10447188</v>
       </c>
@@ -19421,7 +21784,7 @@
         <v>10158</v>
       </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>9706149</v>
       </c>
@@ -19445,7 +21808,7 @@
         <v>10062</v>
       </c>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>6945334</v>
       </c>
@@ -19469,7 +21832,7 @@
         <v>9943</v>
       </c>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>3726035</v>
       </c>
@@ -19493,7 +21856,7 @@
         <v>9855</v>
       </c>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>280859</v>
       </c>
@@ -19517,56 +21880,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C41"/>
       <c r="D41" s="15"/>
       <c r="F41" s="15"/>
       <c r="K41" s="17"/>
       <c r="L41" s="15"/>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C42"/>
       <c r="D42" s="15"/>
       <c r="F42" s="15"/>
       <c r="K42" s="17"/>
       <c r="L42" s="15"/>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C43"/>
       <c r="D43" s="15"/>
       <c r="F43" s="15"/>
       <c r="K43" s="17"/>
       <c r="L43" s="15"/>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C44"/>
       <c r="D44" s="15"/>
       <c r="F44" s="15"/>
       <c r="K44" s="17"/>
       <c r="L44" s="15"/>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C45"/>
       <c r="D45" s="15"/>
       <c r="F45" s="15"/>
       <c r="K45" s="17"/>
       <c r="L45" s="15"/>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C46"/>
       <c r="D46" s="15"/>
       <c r="F46" s="15"/>
       <c r="K46" s="17"/>
       <c r="L46" s="15"/>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C47"/>
       <c r="D47" s="15"/>
       <c r="F47" s="15"/>
       <c r="K47" s="17"/>
       <c r="L47" s="15"/>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C48"/>
       <c r="D48" s="15"/>
       <c r="F48" s="15"/>
@@ -19575,17 +21938,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19597,18 +21960,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -19619,7 +21982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -19639,7 +22002,7 @@
         <v>18111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -19659,7 +22022,7 @@
         <v>12512</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -19679,7 +22042,7 @@
         <v>6763</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>63</v>
       </c>

--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,7 +477,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -757,11 +756,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1336544384"/>
-        <c:axId val="1336537312"/>
+        <c:axId val="-312522064"/>
+        <c:axId val="-312509552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1336544384"/>
+        <c:axId val="-312522064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -804,7 +803,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336537312"/>
+        <c:crossAx val="-312509552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -812,7 +811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1336537312"/>
+        <c:axId val="-312509552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +862,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336544384"/>
+        <c:crossAx val="-312522064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1126,11 +1125,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1426682112"/>
-        <c:axId val="1426684288"/>
+        <c:axId val="-254244944"/>
+        <c:axId val="-254233520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1426682112"/>
+        <c:axId val="-254244944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,12 +1245,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1426684288"/>
+        <c:crossAx val="-254233520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1426684288"/>
+        <c:axId val="-254233520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1364,7 +1363,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1426682112"/>
+        <c:crossAx val="-254244944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1562,11 +1561,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1116957504"/>
-        <c:axId val="1116958592"/>
+        <c:axId val="-254232976"/>
+        <c:axId val="-254243856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1116957504"/>
+        <c:axId val="-254232976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1682,12 +1681,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1116958592"/>
+        <c:crossAx val="-254243856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1116958592"/>
+        <c:axId val="-254243856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,7 +1799,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1116957504"/>
+        <c:crossAx val="-254232976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1998,11 +1997,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1460317536"/>
-        <c:axId val="1460332768"/>
+        <c:axId val="-254241136"/>
+        <c:axId val="-254240592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1460317536"/>
+        <c:axId val="-254241136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,12 +2117,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1460332768"/>
+        <c:crossAx val="-254240592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1460332768"/>
+        <c:axId val="-254240592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2236,7 +2235,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1460317536"/>
+        <c:crossAx val="-254241136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2434,11 +2433,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1426004208"/>
-        <c:axId val="1426001488"/>
+        <c:axId val="-253406528"/>
+        <c:axId val="-253397824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1426004208"/>
+        <c:axId val="-253406528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2554,12 +2553,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1426001488"/>
+        <c:crossAx val="-253397824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1426001488"/>
+        <c:axId val="-253397824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2672,7 +2671,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1426004208"/>
+        <c:crossAx val="-253406528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2870,11 +2869,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1117182592"/>
-        <c:axId val="1117186400"/>
+        <c:axId val="-253405984"/>
+        <c:axId val="-253405440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1117182592"/>
+        <c:axId val="-253405984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2990,12 +2989,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1117186400"/>
+        <c:crossAx val="-253405440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1117186400"/>
+        <c:axId val="-253405440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3108,7 +3107,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1117182592"/>
+        <c:crossAx val="-253405984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3306,11 +3305,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1461910976"/>
-        <c:axId val="1461911520"/>
+        <c:axId val="-253398912"/>
+        <c:axId val="-253391840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1461910976"/>
+        <c:axId val="-253398912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3426,12 +3425,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1461911520"/>
+        <c:crossAx val="-253391840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1461911520"/>
+        <c:axId val="-253391840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3544,7 +3543,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1461910976"/>
+        <c:crossAx val="-253398912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3742,11 +3741,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1460332224"/>
-        <c:axId val="1460320256"/>
+        <c:axId val="-253403264"/>
+        <c:axId val="-253395648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1460332224"/>
+        <c:axId val="-253403264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3862,12 +3861,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1460320256"/>
+        <c:crossAx val="-253395648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1460320256"/>
+        <c:axId val="-253395648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3980,7 +3979,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1460332224"/>
+        <c:crossAx val="-253403264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4122,11 +4121,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1338685072"/>
-        <c:axId val="1338680720"/>
+        <c:axId val="-253393472"/>
+        <c:axId val="-253403808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1338685072"/>
+        <c:axId val="-253393472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4183,12 +4182,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1338680720"/>
+        <c:crossAx val="-253403808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1338680720"/>
+        <c:axId val="-253403808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4245,7 +4244,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1338685072"/>
+        <c:crossAx val="-253393472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4387,11 +4386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1338675824"/>
-        <c:axId val="1338681808"/>
+        <c:axId val="-253400000"/>
+        <c:axId val="-253398368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1338675824"/>
+        <c:axId val="-253400000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4448,12 +4447,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1338681808"/>
+        <c:crossAx val="-253398368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1338681808"/>
+        <c:axId val="-253398368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4510,7 +4509,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1338675824"/>
+        <c:crossAx val="-253400000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4573,7 +4572,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report 2_5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4652,11 +4707,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1338676912"/>
-        <c:axId val="1338681264"/>
+        <c:axId val="-253396736"/>
+        <c:axId val="-253395104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1338676912"/>
+        <c:axId val="-253396736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4676,6 +4731,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Entities</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4713,12 +4824,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1338681264"/>
+        <c:crossAx val="-253395104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1338681264"/>
+        <c:axId val="-253395104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4738,6 +4849,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4775,7 +4942,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1338676912"/>
+        <c:crossAx val="-253396736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5314,11 +5481,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1336534048"/>
-        <c:axId val="1336532416"/>
+        <c:axId val="-312515536"/>
+        <c:axId val="-312514448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1336534048"/>
+        <c:axId val="-312515536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5361,7 +5528,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336532416"/>
+        <c:crossAx val="-312514448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5369,7 +5536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1336532416"/>
+        <c:axId val="-312514448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5389,6 +5556,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5420,7 +5643,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336534048"/>
+        <c:crossAx val="-312515536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5541,7 +5764,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5656,11 +5878,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1336544928"/>
-        <c:axId val="1336532960"/>
+        <c:axId val="-312513904"/>
+        <c:axId val="-312521520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1336544928"/>
+        <c:axId val="-312513904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5706,7 +5928,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5773,12 +5994,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336532960"/>
+        <c:crossAx val="-312521520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1336532960"/>
+        <c:axId val="-312521520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5824,7 +6045,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5891,7 +6111,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336544928"/>
+        <c:crossAx val="-312513904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6095,11 +6315,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1336534592"/>
-        <c:axId val="1336546016"/>
+        <c:axId val="-312512816"/>
+        <c:axId val="-312512272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1336534592"/>
+        <c:axId val="-312512816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6215,12 +6435,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336546016"/>
+        <c:crossAx val="-312512272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1336546016"/>
+        <c:axId val="-312512272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6333,7 +6553,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336534592"/>
+        <c:crossAx val="-312512816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6537,11 +6757,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1336541664"/>
-        <c:axId val="1336540032"/>
+        <c:axId val="-312520976"/>
+        <c:axId val="-312519888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1336541664"/>
+        <c:axId val="-312520976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6657,12 +6877,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336540032"/>
+        <c:crossAx val="-312519888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1336540032"/>
+        <c:axId val="-312519888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6775,7 +6995,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336541664"/>
+        <c:crossAx val="-312520976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6864,7 +7084,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6979,11 +7198,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1336535680"/>
-        <c:axId val="1336547648"/>
+        <c:axId val="-254247664"/>
+        <c:axId val="-254239504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1336535680"/>
+        <c:axId val="-254247664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7032,7 +7251,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7099,12 +7317,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336547648"/>
+        <c:crossAx val="-254239504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1336547648"/>
+        <c:axId val="-254239504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7150,7 +7368,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7217,7 +7434,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336535680"/>
+        <c:crossAx val="-254247664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7306,7 +7523,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7421,11 +7637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1336541120"/>
-        <c:axId val="1336543840"/>
+        <c:axId val="-254235152"/>
+        <c:axId val="-254247120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1336541120"/>
+        <c:axId val="-254235152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7474,7 +7690,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7541,12 +7756,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336543840"/>
+        <c:crossAx val="-254247120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1336543840"/>
+        <c:axId val="-254247120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7592,7 +7807,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7659,7 +7873,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1336541120"/>
+        <c:crossAx val="-254235152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7863,11 +8077,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1338173072"/>
-        <c:axId val="1338173616"/>
+        <c:axId val="-254246032"/>
+        <c:axId val="-254244400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1338173072"/>
+        <c:axId val="-254246032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7983,12 +8197,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1338173616"/>
+        <c:crossAx val="-254244400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1338173616"/>
+        <c:axId val="-254244400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8101,7 +8315,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1338173072"/>
+        <c:crossAx val="-254246032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8305,11 +8519,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1338169264"/>
-        <c:axId val="1338172528"/>
+        <c:axId val="-254235696"/>
+        <c:axId val="-254245488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1338169264"/>
+        <c:axId val="-254235696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8425,12 +8639,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1338172528"/>
+        <c:crossAx val="-254245488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1338172528"/>
+        <c:axId val="-254245488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8543,7 +8757,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1338169264"/>
+        <c:crossAx val="-254235696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20031,9 +20245,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -20041,7 +20255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -20049,7 +20263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -20057,7 +20271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -20065,7 +20279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -20073,7 +20287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -20081,7 +20295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -20089,7 +20303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -20110,7 +20324,7 @@
       <selection activeCell="B11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
@@ -20118,7 +20332,7 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="5"/>
       <c r="B1" s="21" t="s">
         <v>8</v>
@@ -20126,7 +20340,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -20140,7 +20354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" thickTop="1">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -20155,7 +20369,7 @@
         <v>427017</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -20170,7 +20384,7 @@
         <v>202116</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -20185,7 +20399,7 @@
         <v>147443</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -20200,7 +20414,7 @@
         <v>33168</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -20215,7 +20429,7 @@
         <v>39300</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -20230,7 +20444,7 @@
         <v>21785</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -20245,7 +20459,7 @@
         <v>10634</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -20260,7 +20474,7 @@
         <v>9522</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -20275,7 +20489,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -20290,7 +20504,7 @@
         <v>12655</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -20305,7 +20519,7 @@
         <v>8998</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -20320,7 +20534,7 @@
         <v>11381</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -20335,7 +20549,7 @@
         <v>6429</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -20350,7 +20564,7 @@
         <v>6347</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -20365,7 +20579,7 @@
         <v>6249</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -20380,7 +20594,7 @@
         <v>5973</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -20395,7 +20609,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
@@ -20410,7 +20624,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
@@ -20425,7 +20639,7 @@
         <v>5483</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
@@ -20440,7 +20654,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
@@ -20455,7 +20669,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
@@ -20470,7 +20684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
@@ -20485,7 +20699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
@@ -20500,7 +20714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
@@ -20515,7 +20729,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
@@ -20530,7 +20744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
@@ -20545,7 +20759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
@@ -20560,7 +20774,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
@@ -20575,7 +20789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" thickBot="1">
       <c r="A32" s="9" t="s">
         <v>42</v>
       </c>
@@ -20590,7 +20804,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -20604,17 +20818,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="B1" s="23" t="s">
         <v>45</v>
       </c>
@@ -20624,7 +20838,7 @@
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -20647,7 +20861,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -20670,7 +20884,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -20693,7 +20907,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -20713,7 +20927,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -20721,7 +20935,7 @@
         <v>8134</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -20729,7 +20943,7 @@
         <v>12264</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -20746,7 +20960,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -20781,7 +20995,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.375" style="2" bestFit="1" customWidth="1"/>
@@ -20789,7 +21003,7 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -20800,7 +21014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -20812,7 +21026,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -20824,7 +21038,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -20836,7 +21050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -20848,7 +21062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -20860,7 +21074,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -20872,7 +21086,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -20898,13 +21112,13 @@
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="14" width="20.75" style="16" customWidth="1"/>
     <col min="15" max="15" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="27" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A2," - ",'Troublepart of SP'!$C2)</f>
         <v>Report 2_6 - EXT_HISTORY_MASTER</v>
@@ -20941,7 +21155,7 @@
       </c>
       <c r="N1" s="26"/>
     </row>
-    <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
       <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
@@ -20985,7 +21199,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" customFormat="1" ht="15" thickBot="1">
       <c r="A3" s="18">
         <v>17449200</v>
       </c>
@@ -21029,7 +21243,7 @@
         <v>15218</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" customFormat="1">
       <c r="A4">
         <v>10447188</v>
       </c>
@@ -21073,7 +21287,7 @@
         <v>10343</v>
       </c>
     </row>
-    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" customFormat="1">
       <c r="A5">
         <v>9706149</v>
       </c>
@@ -21117,7 +21331,7 @@
         <v>9671</v>
       </c>
     </row>
-    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" customFormat="1">
       <c r="A6">
         <v>6945334</v>
       </c>
@@ -21161,7 +21375,7 @@
         <v>8947</v>
       </c>
     </row>
-    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" customFormat="1">
       <c r="A7">
         <v>3726035</v>
       </c>
@@ -21205,7 +21419,7 @@
         <v>5278</v>
       </c>
     </row>
-    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" customFormat="1">
       <c r="A8">
         <v>280859</v>
       </c>
@@ -21249,7 +21463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" customFormat="1">
       <c r="B9" s="15"/>
       <c r="D9" s="15"/>
       <c r="F9" s="15"/>
@@ -21257,7 +21471,7 @@
       <c r="J9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" customFormat="1">
       <c r="B10" s="15"/>
       <c r="D10" s="15"/>
       <c r="F10" s="15"/>
@@ -21265,7 +21479,7 @@
       <c r="J10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" customFormat="1">
       <c r="B11" s="15"/>
       <c r="D11" s="15"/>
       <c r="F11" s="15"/>
@@ -21273,7 +21487,7 @@
       <c r="J11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" customFormat="1">
       <c r="B12" s="15"/>
       <c r="D12" s="15"/>
       <c r="F12" s="15"/>
@@ -21281,7 +21495,7 @@
       <c r="J12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" customFormat="1">
       <c r="B13" s="15"/>
       <c r="D13" s="15"/>
       <c r="F13" s="15"/>
@@ -21289,7 +21503,7 @@
       <c r="J13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" customFormat="1">
       <c r="B14" s="15"/>
       <c r="D14" s="15"/>
       <c r="F14" s="15"/>
@@ -21297,7 +21511,7 @@
       <c r="J14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" customFormat="1">
       <c r="B15" s="15"/>
       <c r="D15" s="15"/>
       <c r="F15" s="15"/>
@@ -21305,7 +21519,7 @@
       <c r="J15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16"/>
       <c r="B16" s="15"/>
       <c r="C16"/>
@@ -21341,17 +21555,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView topLeftCell="A14" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="14" width="20.75" style="16" customWidth="1"/>
     <col min="15" max="15" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="27" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A2," - ",'Troublepart of SP'!$C2)</f>
         <v>Report 2_6 - EXT_HISTORY_MASTER</v>
@@ -21388,7 +21602,7 @@
       </c>
       <c r="N1" s="26"/>
     </row>
-    <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
       <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
@@ -21432,7 +21646,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" customFormat="1">
       <c r="A3">
         <v>10447188</v>
       </c>
@@ -21476,7 +21690,7 @@
         <v>10093</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" customFormat="1">
       <c r="A4">
         <v>9706149</v>
       </c>
@@ -21520,7 +21734,7 @@
         <v>9119</v>
       </c>
     </row>
-    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" customFormat="1">
       <c r="A5">
         <v>6945334</v>
       </c>
@@ -21564,7 +21778,7 @@
         <v>8647</v>
       </c>
     </row>
-    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" customFormat="1">
       <c r="A6">
         <v>3726035</v>
       </c>
@@ -21608,7 +21822,7 @@
         <v>4949</v>
       </c>
     </row>
-    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" customFormat="1">
       <c r="A7">
         <v>280859</v>
       </c>
@@ -21652,7 +21866,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" customFormat="1">
       <c r="B8" s="15"/>
       <c r="D8" s="15"/>
       <c r="F8" s="15"/>
@@ -21660,7 +21874,7 @@
       <c r="J8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" customFormat="1">
       <c r="B9" s="15"/>
       <c r="D9" s="15"/>
       <c r="F9" s="15"/>
@@ -21668,7 +21882,7 @@
       <c r="J9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" customFormat="1">
       <c r="B10" s="15"/>
       <c r="D10" s="15"/>
       <c r="F10" s="15"/>
@@ -21676,7 +21890,7 @@
       <c r="J10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" customFormat="1">
       <c r="B11" s="15"/>
       <c r="D11" s="15"/>
       <c r="F11" s="15"/>
@@ -21684,7 +21898,7 @@
       <c r="J11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" customFormat="1">
       <c r="B12" s="15"/>
       <c r="D12" s="15"/>
       <c r="F12" s="15"/>
@@ -21692,7 +21906,7 @@
       <c r="J12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" customFormat="1">
       <c r="B13" s="15"/>
       <c r="D13" s="15"/>
       <c r="F13" s="15"/>
@@ -21700,7 +21914,7 @@
       <c r="J13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" customFormat="1">
       <c r="B14" s="15"/>
       <c r="D14" s="15"/>
       <c r="F14" s="15"/>
@@ -21708,7 +21922,7 @@
       <c r="J14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" customFormat="1">
       <c r="B15" s="15"/>
       <c r="D15" s="15"/>
       <c r="F15" s="15"/>
@@ -21716,7 +21930,7 @@
       <c r="J15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="34" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:14" ht="15" thickBot="1">
       <c r="C34" s="26" t="s">
         <v>54</v>
       </c>
@@ -21734,7 +21948,7 @@
       </c>
       <c r="N34" s="27"/>
     </row>
-    <row r="35" spans="3:14" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:14" ht="15.75" thickTop="1" thickBot="1">
       <c r="C35" s="11" t="s">
         <v>51</v>
       </c>
@@ -21760,7 +21974,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:14">
       <c r="C36">
         <v>10447188</v>
       </c>
@@ -21784,7 +21998,7 @@
         <v>10158</v>
       </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:14">
       <c r="C37">
         <v>9706149</v>
       </c>
@@ -21808,7 +22022,7 @@
         <v>10062</v>
       </c>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:14">
       <c r="C38">
         <v>6945334</v>
       </c>
@@ -21832,7 +22046,7 @@
         <v>9943</v>
       </c>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:14">
       <c r="C39">
         <v>3726035</v>
       </c>
@@ -21856,7 +22070,7 @@
         <v>9855</v>
       </c>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:14">
       <c r="C40">
         <v>280859</v>
       </c>
@@ -21880,56 +22094,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:14">
       <c r="C41"/>
       <c r="D41" s="15"/>
       <c r="F41" s="15"/>
       <c r="K41" s="17"/>
       <c r="L41" s="15"/>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:14">
       <c r="C42"/>
       <c r="D42" s="15"/>
       <c r="F42" s="15"/>
       <c r="K42" s="17"/>
       <c r="L42" s="15"/>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:14">
       <c r="C43"/>
       <c r="D43" s="15"/>
       <c r="F43" s="15"/>
       <c r="K43" s="17"/>
       <c r="L43" s="15"/>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:14">
       <c r="C44"/>
       <c r="D44" s="15"/>
       <c r="F44" s="15"/>
       <c r="K44" s="17"/>
       <c r="L44" s="15"/>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:14">
       <c r="C45"/>
       <c r="D45" s="15"/>
       <c r="F45" s="15"/>
       <c r="K45" s="17"/>
       <c r="L45" s="15"/>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:14">
       <c r="C46"/>
       <c r="D46" s="15"/>
       <c r="F46" s="15"/>
       <c r="K46" s="17"/>
       <c r="L46" s="15"/>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:14">
       <c r="C47"/>
       <c r="D47" s="15"/>
       <c r="F47" s="15"/>
       <c r="K47" s="17"/>
       <c r="L47" s="15"/>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:14">
       <c r="C48"/>
       <c r="D48" s="15"/>
       <c r="F48" s="15"/>
@@ -21938,17 +22152,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21960,18 +22174,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -21982,7 +22196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -22002,7 +22216,7 @@
         <v>18111</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -22022,7 +22236,7 @@
         <v>12512</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -22042,7 +22256,7 @@
         <v>6763</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>63</v>
       </c>

--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,17 @@
     <sheet name="Troublepart of SP" sheetId="4" r:id="rId4"/>
     <sheet name="Table content drop wo I&amp;Keys" sheetId="5" r:id="rId5"/>
     <sheet name="Table content drop w I&amp;Keys" sheetId="6" r:id="rId6"/>
-    <sheet name="Playing with indexes HISTORY_MA" sheetId="7" r:id="rId7"/>
+    <sheet name="Playing with indexes HISTOR " sheetId="8" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t>Measure time of total SP</t>
   </si>
@@ -208,10 +211,37 @@
     <t>Report_2_6</t>
   </si>
   <si>
-    <t>No Index &amp; Keys</t>
+    <t>New Index PostingDate</t>
   </si>
   <si>
-    <t>New Index PostingDate</t>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>No Index with Keys</t>
+  </si>
+  <si>
+    <t>Kept</t>
+  </si>
+  <si>
+    <t>New Index Unit</t>
+  </si>
+  <si>
+    <t>New Index No</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>New Index Type</t>
+  </si>
+  <si>
+    <t>New Index multiple</t>
+  </si>
+  <si>
+    <t>New Index SubType</t>
+  </si>
+  <si>
+    <t>New Index VariantId</t>
   </si>
 </sst>
 </file>
@@ -756,11 +786,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-312522064"/>
-        <c:axId val="-312509552"/>
+        <c:axId val="398714000"/>
+        <c:axId val="398715632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-312522064"/>
+        <c:axId val="398714000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -803,7 +833,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-312509552"/>
+        <c:crossAx val="398715632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -811,7 +841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-312509552"/>
+        <c:axId val="398715632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +892,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-312522064"/>
+        <c:crossAx val="398714000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -951,7 +981,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1125,11 +1154,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-254244944"/>
-        <c:axId val="-254233520"/>
+        <c:axId val="398823296"/>
+        <c:axId val="398821120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-254244944"/>
+        <c:axId val="398823296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1207,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1245,12 +1273,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254233520"/>
+        <c:crossAx val="398821120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-254233520"/>
+        <c:axId val="398821120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1296,7 +1324,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1363,7 +1390,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254244944"/>
+        <c:crossAx val="398823296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1452,7 +1479,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1561,11 +1587,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-254232976"/>
-        <c:axId val="-254243856"/>
+        <c:axId val="398820032"/>
+        <c:axId val="398830368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-254232976"/>
+        <c:axId val="398820032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,7 +1640,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1681,12 +1706,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254243856"/>
+        <c:crossAx val="398830368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-254243856"/>
+        <c:axId val="398830368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +1757,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1799,7 +1823,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254232976"/>
+        <c:crossAx val="398820032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1888,7 +1912,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1997,11 +2020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-254241136"/>
-        <c:axId val="-254240592"/>
+        <c:axId val="398829280"/>
+        <c:axId val="398827648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-254241136"/>
+        <c:axId val="398829280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,7 +2073,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2117,12 +2139,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254240592"/>
+        <c:crossAx val="398827648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-254240592"/>
+        <c:axId val="398827648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,7 +2190,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2235,7 +2256,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254241136"/>
+        <c:crossAx val="398829280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2324,7 +2345,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2433,11 +2453,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-253406528"/>
-        <c:axId val="-253397824"/>
+        <c:axId val="398822208"/>
+        <c:axId val="398823840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-253406528"/>
+        <c:axId val="398822208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,7 +2506,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2553,12 +2572,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253397824"/>
+        <c:crossAx val="398823840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-253397824"/>
+        <c:axId val="398823840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2604,7 +2623,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2671,7 +2689,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253406528"/>
+        <c:crossAx val="398822208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2760,7 +2778,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2869,11 +2886,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-253405984"/>
-        <c:axId val="-253405440"/>
+        <c:axId val="398829824"/>
+        <c:axId val="398826016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-253405984"/>
+        <c:axId val="398829824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2922,7 +2939,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2989,12 +3005,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253405440"/>
+        <c:crossAx val="398826016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-253405440"/>
+        <c:axId val="398826016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3040,7 +3056,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3107,7 +3122,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253405984"/>
+        <c:crossAx val="398829824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3196,7 +3211,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3305,11 +3319,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-253398912"/>
-        <c:axId val="-253391840"/>
+        <c:axId val="398832544"/>
+        <c:axId val="398834176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-253398912"/>
+        <c:axId val="398832544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3358,7 +3372,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3425,12 +3438,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253391840"/>
+        <c:crossAx val="398834176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-253391840"/>
+        <c:axId val="398834176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3476,7 +3489,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3543,7 +3555,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253398912"/>
+        <c:crossAx val="398832544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3632,7 +3644,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3741,11 +3752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-253403264"/>
-        <c:axId val="-253395648"/>
+        <c:axId val="399764704"/>
+        <c:axId val="399763616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-253403264"/>
+        <c:axId val="399764704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3794,7 +3805,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3861,12 +3871,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253395648"/>
+        <c:crossAx val="399763616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-253395648"/>
+        <c:axId val="399763616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3912,7 +3922,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3979,7 +3988,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253403264"/>
+        <c:crossAx val="399764704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4121,11 +4130,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-253393472"/>
-        <c:axId val="-253403808"/>
+        <c:axId val="399765248"/>
+        <c:axId val="399760896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-253393472"/>
+        <c:axId val="399765248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4182,12 +4191,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253403808"/>
+        <c:crossAx val="399760896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-253403808"/>
+        <c:axId val="399760896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,7 +4253,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253393472"/>
+        <c:crossAx val="399765248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4386,11 +4395,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-253400000"/>
-        <c:axId val="-253398368"/>
+        <c:axId val="399758720"/>
+        <c:axId val="399767968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-253400000"/>
+        <c:axId val="399758720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4447,12 +4456,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253398368"/>
+        <c:crossAx val="399767968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-253398368"/>
+        <c:axId val="399767968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4509,7 +4518,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253400000"/>
+        <c:crossAx val="399758720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4598,7 +4607,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4707,11 +4715,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-253396736"/>
-        <c:axId val="-253395104"/>
+        <c:axId val="399757088"/>
+        <c:axId val="399761440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-253396736"/>
+        <c:axId val="399757088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4757,7 +4765,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4824,12 +4831,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253395104"/>
+        <c:crossAx val="399761440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-253395104"/>
+        <c:axId val="399761440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4875,7 +4882,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4942,7 +4948,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-253396736"/>
+        <c:crossAx val="399757088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5481,11 +5487,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-312515536"/>
-        <c:axId val="-312514448"/>
+        <c:axId val="398709648"/>
+        <c:axId val="398712912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-312515536"/>
+        <c:axId val="398709648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5528,7 +5534,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-312514448"/>
+        <c:crossAx val="398712912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5536,7 +5542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-312514448"/>
+        <c:axId val="398712912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5582,7 +5588,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5643,7 +5648,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-312515536"/>
+        <c:crossAx val="398709648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5657,7 +5662,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5687,6 +5691,1019 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> 2_6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Playing with indexes HISTOR '!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>No Index No Keys</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Index &amp; Keys</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Index with Keys</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Index PostingDate</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>New Index Unit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Index No</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>New Index Type</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>New Index multiple</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>New Index SubType</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>New Index VariantId</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Playing with indexes HISTOR '!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>403186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145645</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>252784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>247081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>248951</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>247358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>246135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>405023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>251415</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>249284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="402852752"/>
+        <c:axId val="402853296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="402852752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402853296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="402853296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402852752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> 1_1_1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Playing with indexes HISTOR '!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>No Index No Keys</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Index &amp; Keys</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Index with Keys</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Index PostingDate</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>New Index Unit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Index No</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>New Index Type</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>New Index multiple</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>New Index SubType</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>New Index VariantId</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Playing with indexes HISTOR '!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4916</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20684</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5041</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="402854928"/>
+        <c:axId val="402862544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="402854928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402862544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="402862544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402854928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> 1_1_2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Playing with indexes HISTOR '!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>No Index No Keys</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Index &amp; Keys</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Index with Keys</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Index PostingDate</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>New Index Unit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Index No</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>New Index Type</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>New Index multiple</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>New Index SubType</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>New Index VariantId</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Playing with indexes HISTOR '!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6924</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22792</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6467</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="402860912"/>
+        <c:axId val="402856016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="402860912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402856016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="402856016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="402860912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5878,11 +6895,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-312513904"/>
-        <c:axId val="-312521520"/>
+        <c:axId val="398712368"/>
+        <c:axId val="398715088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-312513904"/>
+        <c:axId val="398712368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5994,12 +7011,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-312521520"/>
+        <c:crossAx val="398715088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-312521520"/>
+        <c:axId val="398715088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6111,7 +7128,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-312513904"/>
+        <c:crossAx val="398712368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6200,7 +7217,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6315,11 +7331,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-312512816"/>
-        <c:axId val="-312512272"/>
+        <c:axId val="398717808"/>
+        <c:axId val="398705296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-312512816"/>
+        <c:axId val="398717808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6368,7 +7384,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6435,12 +7450,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-312512272"/>
+        <c:crossAx val="398705296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-312512272"/>
+        <c:axId val="398705296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6486,7 +7501,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6553,7 +7567,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-312512816"/>
+        <c:crossAx val="398717808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6642,7 +7656,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6757,11 +7770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-312520976"/>
-        <c:axId val="-312519888"/>
+        <c:axId val="398719440"/>
+        <c:axId val="398716720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-312520976"/>
+        <c:axId val="398719440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6810,7 +7823,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6877,12 +7889,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-312519888"/>
+        <c:crossAx val="398716720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-312519888"/>
+        <c:axId val="398716720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6928,7 +7940,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6995,7 +8006,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-312520976"/>
+        <c:crossAx val="398719440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7198,11 +8209,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-254247664"/>
-        <c:axId val="-254239504"/>
+        <c:axId val="398718352"/>
+        <c:axId val="398718896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-254247664"/>
+        <c:axId val="398718352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7317,12 +8328,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254239504"/>
+        <c:crossAx val="398718896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-254239504"/>
+        <c:axId val="398718896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7434,7 +8445,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254247664"/>
+        <c:crossAx val="398718352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7637,11 +8648,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-254235152"/>
-        <c:axId val="-254247120"/>
+        <c:axId val="398704752"/>
+        <c:axId val="398717264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-254235152"/>
+        <c:axId val="398704752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7756,12 +8767,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254247120"/>
+        <c:crossAx val="398717264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-254247120"/>
+        <c:axId val="398717264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7873,7 +8884,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254235152"/>
+        <c:crossAx val="398704752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7962,7 +8973,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8077,11 +9087,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-254246032"/>
-        <c:axId val="-254244400"/>
+        <c:axId val="398707472"/>
+        <c:axId val="398824928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-254246032"/>
+        <c:axId val="398707472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8130,7 +9140,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8197,12 +9206,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254244400"/>
+        <c:crossAx val="398824928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-254244400"/>
+        <c:axId val="398824928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8248,7 +9257,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8315,7 +9323,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254246032"/>
+        <c:crossAx val="398707472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8404,7 +9412,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8519,11 +9526,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-254235696"/>
-        <c:axId val="-254245488"/>
+        <c:axId val="398820576"/>
+        <c:axId val="398828192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-254235696"/>
+        <c:axId val="398820576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8572,7 +9579,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8639,12 +9645,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254245488"/>
+        <c:crossAx val="398828192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-254245488"/>
+        <c:axId val="398828192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8690,7 +9696,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8757,7 +9762,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-254235696"/>
+        <c:crossAx val="398820576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9286,6 +10291,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15379,6 +16504,1554 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -19952,6 +22625,273 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Guide"/>
+      <sheetName val="Times of SP"/>
+      <sheetName val="TimeStamps"/>
+      <sheetName val="Troublepart of SP"/>
+      <sheetName val="Table content drop wo I&amp;Keys"/>
+      <sheetName val="Table content drop w I&amp;Keys"/>
+      <sheetName val="Playing with indexes HISTORY_MA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>No Index No Keys</v>
+          </cell>
+          <cell r="B2">
+            <v>403186</v>
+          </cell>
+          <cell r="C2">
+            <v>15218</v>
+          </cell>
+          <cell r="D2">
+            <v>18111</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Index &amp; Keys</v>
+          </cell>
+          <cell r="B3">
+            <v>145645</v>
+          </cell>
+          <cell r="C3">
+            <v>10158</v>
+          </cell>
+          <cell r="D3">
+            <v>12512</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>No Index with Keys</v>
+          </cell>
+          <cell r="B4">
+            <v>252784</v>
+          </cell>
+          <cell r="C4">
+            <v>4887</v>
+          </cell>
+          <cell r="D4">
+            <v>6763</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>New Index PostingDate</v>
+          </cell>
+          <cell r="B5">
+            <v>247081</v>
+          </cell>
+          <cell r="C5">
+            <v>4916</v>
+          </cell>
+          <cell r="D5">
+            <v>6750</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>New Index Unit</v>
+          </cell>
+          <cell r="B6">
+            <v>248951</v>
+          </cell>
+          <cell r="C6">
+            <v>4972</v>
+          </cell>
+          <cell r="D6">
+            <v>6924</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>New Index No</v>
+          </cell>
+          <cell r="B7">
+            <v>247358</v>
+          </cell>
+          <cell r="C7">
+            <v>20684</v>
+          </cell>
+          <cell r="D7">
+            <v>22792</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>New Index Type</v>
+          </cell>
+          <cell r="B8">
+            <v>246135</v>
+          </cell>
+          <cell r="C8">
+            <v>5041</v>
+          </cell>
+          <cell r="D8">
+            <v>6467</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>New Index multiple</v>
+          </cell>
+          <cell r="B9">
+            <v>405023</v>
+          </cell>
+          <cell r="C9">
+            <v>22009</v>
+          </cell>
+          <cell r="D9">
+            <v>26302</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>New Index SubType</v>
+          </cell>
+          <cell r="B10">
+            <v>251415</v>
+          </cell>
+          <cell r="C10">
+            <v>5024</v>
+          </cell>
+          <cell r="D10">
+            <v>6429</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>New Index VariantId</v>
+          </cell>
+          <cell r="B11">
+            <v>249284</v>
+          </cell>
+          <cell r="C11">
+            <v>5334</v>
+          </cell>
+          <cell r="D11">
+            <v>6990</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -22152,17 +25092,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22172,112 +25112,198 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1">
+      <c r="B1" t="s">
         <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>57</v>
       </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:5" ht="15" thickBot="1">
       <c r="A2" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="19">
         <v>403186</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="20">
+      <c r="C2" s="20">
         <v>15218</v>
       </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="19">
+      <c r="D2" s="19">
         <v>18111</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="15">
         <v>145645</v>
       </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="16">
+      <c r="C3" s="16">
         <v>10158</v>
       </c>
-      <c r="E3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="D3" s="15">
         <v>12512</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B4">
         <v>252784</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>4887</v>
+      </c>
+      <c r="D4">
+        <v>6763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>62</v>
-      </c>
-      <c r="D4">
-        <v>4887</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4">
-        <v>6763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>63</v>
       </c>
       <c r="B5">
         <v>247081</v>
       </c>
-      <c r="C5" t="s">
-        <v>63</v>
+      <c r="C5">
+        <v>4916</v>
       </c>
       <c r="D5">
-        <v>4916</v>
+        <v>6750</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5">
-        <v>6750</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <v>248951</v>
+      </c>
+      <c r="C6">
+        <v>4972</v>
+      </c>
+      <c r="D6">
+        <v>6924</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7">
+        <v>247358</v>
+      </c>
+      <c r="C7">
+        <v>20684</v>
+      </c>
+      <c r="D7">
+        <v>22792</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8">
+        <v>246135</v>
+      </c>
+      <c r="C8">
+        <v>5041</v>
+      </c>
+      <c r="D8">
+        <v>6467</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>405023</v>
+      </c>
+      <c r="C9">
+        <v>22009</v>
+      </c>
+      <c r="D9">
+        <v>26302</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10">
+        <v>251415</v>
+      </c>
+      <c r="C10">
+        <v>5024</v>
+      </c>
+      <c r="D10">
+        <v>6429</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11">
+        <v>249284</v>
+      </c>
+      <c r="C11">
+        <v>5334</v>
+      </c>
+      <c r="D11">
+        <v>6990</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -15,9 +15,6 @@
     <sheet name="Table content drop w I&amp;Keys" sheetId="6" r:id="rId6"/>
     <sheet name="Playing with indexes HISTOR " sheetId="8" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -786,11 +783,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="398714000"/>
-        <c:axId val="398715632"/>
+        <c:axId val="1902001888"/>
+        <c:axId val="1902002432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="398714000"/>
+        <c:axId val="1902001888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,7 +830,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398715632"/>
+        <c:crossAx val="1902002432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -841,7 +838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="398715632"/>
+        <c:axId val="1902002432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +889,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398714000"/>
+        <c:crossAx val="1902001888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1154,11 +1151,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="398823296"/>
-        <c:axId val="398821120"/>
+        <c:axId val="2084285536"/>
+        <c:axId val="2084290976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="398823296"/>
+        <c:axId val="2084285536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,12 +1270,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398821120"/>
+        <c:crossAx val="2084290976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398821120"/>
+        <c:axId val="2084290976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1390,7 +1387,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398823296"/>
+        <c:crossAx val="2084285536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1587,11 +1584,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="398820032"/>
-        <c:axId val="398830368"/>
+        <c:axId val="2084287712"/>
+        <c:axId val="2084289344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="398820032"/>
+        <c:axId val="2084287712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1706,12 +1703,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398830368"/>
+        <c:crossAx val="2084289344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398830368"/>
+        <c:axId val="2084289344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,7 +1820,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398820032"/>
+        <c:crossAx val="2084287712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2020,11 +2017,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="398829280"/>
-        <c:axId val="398827648"/>
+        <c:axId val="2084289888"/>
+        <c:axId val="2084290432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="398829280"/>
+        <c:axId val="2084289888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,12 +2136,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398827648"/>
+        <c:crossAx val="2084290432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398827648"/>
+        <c:axId val="2084290432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2253,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398829280"/>
+        <c:crossAx val="2084289888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2453,11 +2450,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="398822208"/>
-        <c:axId val="398823840"/>
+        <c:axId val="2083663024"/>
+        <c:axId val="2083659760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="398822208"/>
+        <c:axId val="2083663024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2572,12 +2569,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398823840"/>
+        <c:crossAx val="2083659760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398823840"/>
+        <c:axId val="2083659760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2689,7 +2686,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398822208"/>
+        <c:crossAx val="2083663024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2886,11 +2883,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="398829824"/>
-        <c:axId val="398826016"/>
+        <c:axId val="2083660848"/>
+        <c:axId val="2083666288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="398829824"/>
+        <c:axId val="2083660848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,12 +3002,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398826016"/>
+        <c:crossAx val="2083666288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398826016"/>
+        <c:axId val="2083666288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3122,7 +3119,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398829824"/>
+        <c:crossAx val="2083660848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3319,11 +3316,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="398832544"/>
-        <c:axId val="398834176"/>
+        <c:axId val="2083661392"/>
+        <c:axId val="2083664112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="398832544"/>
+        <c:axId val="2083661392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3438,12 +3435,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398834176"/>
+        <c:crossAx val="2083664112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398834176"/>
+        <c:axId val="2083664112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3555,7 +3552,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398832544"/>
+        <c:crossAx val="2083661392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3752,11 +3749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="399764704"/>
-        <c:axId val="399763616"/>
+        <c:axId val="2083661936"/>
+        <c:axId val="2085025872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="399764704"/>
+        <c:axId val="2083661936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3871,12 +3868,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399763616"/>
+        <c:crossAx val="2085025872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399763616"/>
+        <c:axId val="2085025872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3988,7 +3985,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399764704"/>
+        <c:crossAx val="2083661936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4130,11 +4127,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="399765248"/>
-        <c:axId val="399760896"/>
+        <c:axId val="2085023152"/>
+        <c:axId val="2085034576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="399765248"/>
+        <c:axId val="2085023152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4191,12 +4188,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399760896"/>
+        <c:crossAx val="2085034576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399760896"/>
+        <c:axId val="2085034576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4253,7 +4250,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399765248"/>
+        <c:crossAx val="2085023152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4395,11 +4392,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="399758720"/>
-        <c:axId val="399767968"/>
+        <c:axId val="2085026416"/>
+        <c:axId val="2085031856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="399758720"/>
+        <c:axId val="2085026416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4456,12 +4453,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399767968"/>
+        <c:crossAx val="2085031856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399767968"/>
+        <c:axId val="2085031856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4518,7 +4515,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399758720"/>
+        <c:crossAx val="2085026416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4715,11 +4712,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="399757088"/>
-        <c:axId val="399761440"/>
+        <c:axId val="2085026960"/>
+        <c:axId val="2085028592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="399757088"/>
+        <c:axId val="2085026960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4831,12 +4828,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399761440"/>
+        <c:crossAx val="2085028592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="399761440"/>
+        <c:axId val="2085028592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4948,7 +4945,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="399757088"/>
+        <c:crossAx val="2085026960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5487,11 +5484,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="398709648"/>
-        <c:axId val="398712912"/>
+        <c:axId val="2083351936"/>
+        <c:axId val="2083363904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="398709648"/>
+        <c:axId val="2083351936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5534,7 +5531,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398712912"/>
+        <c:crossAx val="2083363904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5542,7 +5539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="398712912"/>
+        <c:axId val="2083363904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5648,7 +5645,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398709648"/>
+        <c:crossAx val="2083351936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5911,11 +5908,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="402852752"/>
-        <c:axId val="402853296"/>
+        <c:axId val="2085023696"/>
+        <c:axId val="2085024240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="402852752"/>
+        <c:axId val="2085023696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5958,7 +5955,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402853296"/>
+        <c:crossAx val="2085024240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5966,7 +5963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402853296"/>
+        <c:axId val="2085024240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5986,6 +5983,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6017,7 +6070,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402852752"/>
+        <c:crossAx val="2085023696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6249,11 +6302,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="402854928"/>
-        <c:axId val="402862544"/>
+        <c:axId val="2085036208"/>
+        <c:axId val="2085020976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="402854928"/>
+        <c:axId val="2085036208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6296,7 +6349,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402862544"/>
+        <c:crossAx val="2085020976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6304,7 +6357,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402862544"/>
+        <c:axId val="2085020976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6324,6 +6377,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6355,7 +6464,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402854928"/>
+        <c:crossAx val="2085036208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6448,6 +6557,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6586,11 +6696,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="402860912"/>
-        <c:axId val="402856016"/>
+        <c:axId val="2085032400"/>
+        <c:axId val="2085024784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="402860912"/>
+        <c:axId val="2085032400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6633,7 +6743,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402856016"/>
+        <c:crossAx val="2085024784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6641,7 +6751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="402856016"/>
+        <c:axId val="2085024784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6661,6 +6771,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6692,7 +6858,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402860912"/>
+        <c:crossAx val="2085032400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6895,11 +7061,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="398712368"/>
-        <c:axId val="398715088"/>
+        <c:axId val="2083350848"/>
+        <c:axId val="2083365536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="398712368"/>
+        <c:axId val="2083350848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7011,12 +7177,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398715088"/>
+        <c:crossAx val="2083365536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398715088"/>
+        <c:axId val="2083365536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7128,7 +7294,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398712368"/>
+        <c:crossAx val="2083350848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7331,11 +7497,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="398717808"/>
-        <c:axId val="398705296"/>
+        <c:axId val="2083353568"/>
+        <c:axId val="2083357920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="398717808"/>
+        <c:axId val="2083353568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7450,12 +7616,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398705296"/>
+        <c:crossAx val="2083357920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398705296"/>
+        <c:axId val="2083357920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7567,7 +7733,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398717808"/>
+        <c:crossAx val="2083353568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7770,11 +7936,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="398719440"/>
-        <c:axId val="398716720"/>
+        <c:axId val="2083360640"/>
+        <c:axId val="2083356288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="398719440"/>
+        <c:axId val="2083360640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7889,12 +8055,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398716720"/>
+        <c:crossAx val="2083356288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398716720"/>
+        <c:axId val="2083356288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8006,7 +8172,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398719440"/>
+        <c:crossAx val="2083360640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8209,11 +8375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="398718352"/>
-        <c:axId val="398718896"/>
+        <c:axId val="2083359552"/>
+        <c:axId val="2083351392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="398718352"/>
+        <c:axId val="2083359552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8328,12 +8494,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398718896"/>
+        <c:crossAx val="2083351392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398718896"/>
+        <c:axId val="2083351392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8445,7 +8611,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398718352"/>
+        <c:crossAx val="2083359552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8648,11 +8814,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="398704752"/>
-        <c:axId val="398717264"/>
+        <c:axId val="2083354112"/>
+        <c:axId val="2083362272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="398704752"/>
+        <c:axId val="2083354112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8767,12 +8933,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398717264"/>
+        <c:crossAx val="2083362272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398717264"/>
+        <c:axId val="2083362272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8884,7 +9050,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398704752"/>
+        <c:crossAx val="2083354112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9087,11 +9253,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="398707472"/>
-        <c:axId val="398824928"/>
+        <c:axId val="2083362816"/>
+        <c:axId val="2083364448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="398707472"/>
+        <c:axId val="2083362816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9206,12 +9372,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398824928"/>
+        <c:crossAx val="2083364448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398824928"/>
+        <c:axId val="2083364448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9323,7 +9489,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398707472"/>
+        <c:crossAx val="2083362816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9526,11 +9692,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="398820576"/>
-        <c:axId val="398828192"/>
+        <c:axId val="2083350304"/>
+        <c:axId val="2084287168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="398820576"/>
+        <c:axId val="2083350304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9645,12 +9811,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398828192"/>
+        <c:crossAx val="2084287168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398828192"/>
+        <c:axId val="2084287168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9762,7 +9928,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398820576"/>
+        <c:crossAx val="2083350304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -22726,172 +22892,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Guide"/>
-      <sheetName val="Times of SP"/>
-      <sheetName val="TimeStamps"/>
-      <sheetName val="Troublepart of SP"/>
-      <sheetName val="Table content drop wo I&amp;Keys"/>
-      <sheetName val="Table content drop w I&amp;Keys"/>
-      <sheetName val="Playing with indexes HISTORY_MA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>No Index No Keys</v>
-          </cell>
-          <cell r="B2">
-            <v>403186</v>
-          </cell>
-          <cell r="C2">
-            <v>15218</v>
-          </cell>
-          <cell r="D2">
-            <v>18111</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Index &amp; Keys</v>
-          </cell>
-          <cell r="B3">
-            <v>145645</v>
-          </cell>
-          <cell r="C3">
-            <v>10158</v>
-          </cell>
-          <cell r="D3">
-            <v>12512</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>No Index with Keys</v>
-          </cell>
-          <cell r="B4">
-            <v>252784</v>
-          </cell>
-          <cell r="C4">
-            <v>4887</v>
-          </cell>
-          <cell r="D4">
-            <v>6763</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>New Index PostingDate</v>
-          </cell>
-          <cell r="B5">
-            <v>247081</v>
-          </cell>
-          <cell r="C5">
-            <v>4916</v>
-          </cell>
-          <cell r="D5">
-            <v>6750</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>New Index Unit</v>
-          </cell>
-          <cell r="B6">
-            <v>248951</v>
-          </cell>
-          <cell r="C6">
-            <v>4972</v>
-          </cell>
-          <cell r="D6">
-            <v>6924</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>New Index No</v>
-          </cell>
-          <cell r="B7">
-            <v>247358</v>
-          </cell>
-          <cell r="C7">
-            <v>20684</v>
-          </cell>
-          <cell r="D7">
-            <v>22792</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>New Index Type</v>
-          </cell>
-          <cell r="B8">
-            <v>246135</v>
-          </cell>
-          <cell r="C8">
-            <v>5041</v>
-          </cell>
-          <cell r="D8">
-            <v>6467</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>New Index multiple</v>
-          </cell>
-          <cell r="B9">
-            <v>405023</v>
-          </cell>
-          <cell r="C9">
-            <v>22009</v>
-          </cell>
-          <cell r="D9">
-            <v>26302</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>New Index SubType</v>
-          </cell>
-          <cell r="B10">
-            <v>251415</v>
-          </cell>
-          <cell r="C10">
-            <v>5024</v>
-          </cell>
-          <cell r="D10">
-            <v>6429</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>New Index VariantId</v>
-          </cell>
-          <cell r="B11">
-            <v>249284</v>
-          </cell>
-          <cell r="C11">
-            <v>5334</v>
-          </cell>
-          <cell r="D11">
-            <v>6990</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -25092,17 +25092,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25114,8 +25114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -245,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,11 +783,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1902001888"/>
-        <c:axId val="1902002432"/>
+        <c:axId val="1214925584"/>
+        <c:axId val="1214927216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1902001888"/>
+        <c:axId val="1214925584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +830,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1902002432"/>
+        <c:crossAx val="1214927216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -838,7 +838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1902002432"/>
+        <c:axId val="1214927216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,7 +889,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1902001888"/>
+        <c:crossAx val="1214925584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1151,11 +1151,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2084285536"/>
-        <c:axId val="2084290976"/>
+        <c:axId val="1217965424"/>
+        <c:axId val="1218152896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2084285536"/>
+        <c:axId val="1217965424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,12 +1270,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084290976"/>
+        <c:crossAx val="1218152896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2084290976"/>
+        <c:axId val="1218152896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,7 +1387,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084285536"/>
+        <c:crossAx val="1217965424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1584,11 +1584,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2084287712"/>
-        <c:axId val="2084289344"/>
+        <c:axId val="1218154528"/>
+        <c:axId val="1218153984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2084287712"/>
+        <c:axId val="1218154528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,12 +1703,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084289344"/>
+        <c:crossAx val="1218153984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2084289344"/>
+        <c:axId val="1218153984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,7 +1820,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084287712"/>
+        <c:crossAx val="1218154528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2017,11 +2017,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2084289888"/>
-        <c:axId val="2084290432"/>
+        <c:axId val="1218148544"/>
+        <c:axId val="1218149088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2084289888"/>
+        <c:axId val="1218148544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,12 +2136,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084290432"/>
+        <c:crossAx val="1218149088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2084290432"/>
+        <c:axId val="1218149088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,7 +2253,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084289888"/>
+        <c:crossAx val="1218148544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2450,11 +2450,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083663024"/>
-        <c:axId val="2083659760"/>
+        <c:axId val="1218153440"/>
+        <c:axId val="1218151808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083663024"/>
+        <c:axId val="1218153440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2569,12 +2569,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083659760"/>
+        <c:crossAx val="1218151808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083659760"/>
+        <c:axId val="1218151808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2686,7 +2686,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083663024"/>
+        <c:crossAx val="1218153440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2883,11 +2883,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083660848"/>
-        <c:axId val="2083666288"/>
+        <c:axId val="1219627216"/>
+        <c:axId val="1219622320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083660848"/>
+        <c:axId val="1219627216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,12 +3002,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083666288"/>
+        <c:crossAx val="1219622320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083666288"/>
+        <c:axId val="1219622320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3119,7 +3119,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083660848"/>
+        <c:crossAx val="1219627216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3316,11 +3316,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083661392"/>
-        <c:axId val="2083664112"/>
+        <c:axId val="1219625040"/>
+        <c:axId val="1219627760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083661392"/>
+        <c:axId val="1219625040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3435,12 +3435,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083664112"/>
+        <c:crossAx val="1219627760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083664112"/>
+        <c:axId val="1219627760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3552,7 +3552,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083661392"/>
+        <c:crossAx val="1219625040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3749,11 +3749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083661936"/>
-        <c:axId val="2085025872"/>
+        <c:axId val="1219625584"/>
+        <c:axId val="1219629392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083661936"/>
+        <c:axId val="1219625584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3868,12 +3868,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085025872"/>
+        <c:crossAx val="1219629392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2085025872"/>
+        <c:axId val="1219629392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3985,7 +3985,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083661936"/>
+        <c:crossAx val="1219625584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4127,11 +4127,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2085023152"/>
-        <c:axId val="2085034576"/>
+        <c:axId val="1219628848"/>
+        <c:axId val="1219497744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2085023152"/>
+        <c:axId val="1219628848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4188,12 +4188,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085034576"/>
+        <c:crossAx val="1219497744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2085034576"/>
+        <c:axId val="1219497744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4250,7 +4250,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085023152"/>
+        <c:crossAx val="1219628848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4392,11 +4392,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2085026416"/>
-        <c:axId val="2085031856"/>
+        <c:axId val="1219504816"/>
+        <c:axId val="1219502096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2085026416"/>
+        <c:axId val="1219504816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4453,12 +4453,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085031856"/>
+        <c:crossAx val="1219502096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2085031856"/>
+        <c:axId val="1219502096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4515,7 +4515,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085026416"/>
+        <c:crossAx val="1219504816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4712,11 +4712,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2085026960"/>
-        <c:axId val="2085028592"/>
+        <c:axId val="1219499920"/>
+        <c:axId val="1219503184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2085026960"/>
+        <c:axId val="1219499920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4828,12 +4828,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085028592"/>
+        <c:crossAx val="1219503184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2085028592"/>
+        <c:axId val="1219503184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4945,7 +4945,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085026960"/>
+        <c:crossAx val="1219499920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5484,11 +5484,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2083351936"/>
-        <c:axId val="2083363904"/>
+        <c:axId val="1214922864"/>
+        <c:axId val="1214923408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2083351936"/>
+        <c:axId val="1214922864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5531,7 +5531,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083363904"/>
+        <c:crossAx val="1214923408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5539,7 +5539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083363904"/>
+        <c:axId val="1214923408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5645,7 +5645,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083351936"/>
+        <c:crossAx val="1214922864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5802,24 +5802,23 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Playing with indexes HISTOR '!$A$2:$A$11</c:f>
@@ -5897,7 +5896,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5907,17 +5905,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2085023696"/>
-        <c:axId val="2085024240"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="1219502640"/>
+        <c:axId val="1219501008"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2085023696"/>
+        <c:axId val="1219502640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5955,7 +5953,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085024240"/>
+        <c:crossAx val="1219501008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5963,12 +5961,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085024240"/>
+        <c:axId val="1219501008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5986,7 +5984,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -6019,7 +6017,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -6070,7 +6068,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085023696"/>
+        <c:crossAx val="1219502640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6196,24 +6194,23 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Playing with indexes HISTOR '!$A$2:$A$11</c:f>
@@ -6291,7 +6288,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6301,17 +6297,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2085036208"/>
-        <c:axId val="2085020976"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="1219909744"/>
+        <c:axId val="1219913008"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2085036208"/>
+        <c:axId val="1219909744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6349,7 +6345,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085020976"/>
+        <c:crossAx val="1219913008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6357,12 +6353,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085020976"/>
+        <c:axId val="1219913008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -6380,7 +6376,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -6413,7 +6409,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -6464,7 +6460,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085036208"/>
+        <c:crossAx val="1219909744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6590,24 +6586,23 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Playing with indexes HISTOR '!$A$2:$A$11</c:f>
@@ -6685,7 +6680,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6695,17 +6689,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="2085032400"/>
-        <c:axId val="2085024784"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="1219915184"/>
+        <c:axId val="1219915728"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2085032400"/>
+        <c:axId val="1219915184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6743,7 +6737,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085024784"/>
+        <c:crossAx val="1219915728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6751,12 +6745,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2085024784"/>
+        <c:axId val="1219915728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -6774,7 +6768,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -6807,7 +6801,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -6858,7 +6852,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2085032400"/>
+        <c:crossAx val="1219915184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7061,11 +7055,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083350848"/>
-        <c:axId val="2083365536"/>
+        <c:axId val="1214924496"/>
+        <c:axId val="1214917424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083350848"/>
+        <c:axId val="1214924496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7177,12 +7171,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083365536"/>
+        <c:crossAx val="1214917424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083365536"/>
+        <c:axId val="1214917424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7294,7 +7288,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083350848"/>
+        <c:crossAx val="1214924496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7497,11 +7491,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083353568"/>
-        <c:axId val="2083357920"/>
+        <c:axId val="1214922320"/>
+        <c:axId val="1214931024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083353568"/>
+        <c:axId val="1214922320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7616,12 +7610,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083357920"/>
+        <c:crossAx val="1214931024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083357920"/>
+        <c:axId val="1214931024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7733,7 +7727,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083353568"/>
+        <c:crossAx val="1214922320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7936,11 +7930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083360640"/>
-        <c:axId val="2083356288"/>
+        <c:axId val="1214928304"/>
+        <c:axId val="1214919056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083360640"/>
+        <c:axId val="1214928304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8055,12 +8049,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083356288"/>
+        <c:crossAx val="1214919056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083356288"/>
+        <c:axId val="1214919056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8172,7 +8166,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083360640"/>
+        <c:crossAx val="1214928304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8375,11 +8369,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083359552"/>
-        <c:axId val="2083351392"/>
+        <c:axId val="1214929936"/>
+        <c:axId val="1214928848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083359552"/>
+        <c:axId val="1214929936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8494,12 +8488,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083351392"/>
+        <c:crossAx val="1214928848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083351392"/>
+        <c:axId val="1214928848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8611,7 +8605,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083359552"/>
+        <c:crossAx val="1214929936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8814,11 +8808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083354112"/>
-        <c:axId val="2083362272"/>
+        <c:axId val="1217963792"/>
+        <c:axId val="1217965968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083354112"/>
+        <c:axId val="1217963792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8933,12 +8927,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083362272"/>
+        <c:crossAx val="1217965968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083362272"/>
+        <c:axId val="1217965968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9050,7 +9044,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083354112"/>
+        <c:crossAx val="1217963792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9253,11 +9247,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083362816"/>
-        <c:axId val="2083364448"/>
+        <c:axId val="1217968144"/>
+        <c:axId val="1217967056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083362816"/>
+        <c:axId val="1217968144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9372,12 +9366,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083364448"/>
+        <c:crossAx val="1217967056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2083364448"/>
+        <c:axId val="1217967056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9489,7 +9483,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083362816"/>
+        <c:crossAx val="1217968144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9692,11 +9686,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2083350304"/>
-        <c:axId val="2084287168"/>
+        <c:axId val="1217964336"/>
+        <c:axId val="1217964880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2083350304"/>
+        <c:axId val="1217964336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9811,12 +9805,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084287168"/>
+        <c:crossAx val="1217964880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2084287168"/>
+        <c:axId val="1217964880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9928,7 +9922,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083350304"/>
+        <c:crossAx val="1217964336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -23185,9 +23179,9 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -23195,7 +23189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -23203,7 +23197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -23211,7 +23205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -23219,7 +23213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -23227,7 +23221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -23235,7 +23229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -23243,7 +23237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -23264,15 +23258,15 @@
       <selection activeCell="B11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="21" t="s">
         <v>8</v>
@@ -23280,7 +23274,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -23294,7 +23288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" thickTop="1">
+    <row r="3" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -23309,7 +23303,7 @@
         <v>427017</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -23324,7 +23318,7 @@
         <v>202116</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -23339,7 +23333,7 @@
         <v>147443</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -23354,7 +23348,7 @@
         <v>33168</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -23369,7 +23363,7 @@
         <v>39300</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -23384,7 +23378,7 @@
         <v>21785</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -23399,7 +23393,7 @@
         <v>10634</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -23414,7 +23408,7 @@
         <v>9522</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -23429,7 +23423,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -23444,7 +23438,7 @@
         <v>12655</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -23459,7 +23453,7 @@
         <v>8998</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -23474,7 +23468,7 @@
         <v>11381</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
@@ -23489,7 +23483,7 @@
         <v>6429</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -23504,7 +23498,7 @@
         <v>6347</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
@@ -23519,7 +23513,7 @@
         <v>6249</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -23534,7 +23528,7 @@
         <v>5973</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -23549,7 +23543,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
@@ -23564,7 +23558,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
@@ -23579,7 +23573,7 @@
         <v>5483</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
@@ -23594,7 +23588,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
@@ -23609,7 +23603,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
@@ -23624,7 +23618,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
@@ -23639,7 +23633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
@@ -23654,7 +23648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
@@ -23669,7 +23663,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
@@ -23684,7 +23678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
@@ -23699,7 +23693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
@@ -23714,7 +23708,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
@@ -23729,7 +23723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1">
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>42</v>
       </c>
@@ -23744,7 +23738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" ht="15" thickTop="1"/>
+    <row r="33" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
@@ -23762,13 +23756,13 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="23" t="s">
         <v>45</v>
       </c>
@@ -23778,7 +23772,7 @@
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1">
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -23801,7 +23795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -23824,7 +23818,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -23847,7 +23841,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -23867,7 +23861,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -23875,7 +23869,7 @@
         <v>8134</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -23883,7 +23877,7 @@
         <v>12264</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -23900,7 +23894,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -23935,15 +23929,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -23954,7 +23948,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -23966,7 +23960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -23978,7 +23972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -23990,7 +23984,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
@@ -24002,7 +23996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -24014,7 +24008,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -24026,7 +24020,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -24052,13 +24046,13 @@
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="20.75" style="16" customWidth="1"/>
+    <col min="1" max="14" width="20.7109375" style="16" customWidth="1"/>
     <col min="15" max="15" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A2," - ",'Troublepart of SP'!$C2)</f>
         <v>Report 2_6 - EXT_HISTORY_MASTER</v>
@@ -24095,7 +24089,7 @@
       </c>
       <c r="N1" s="26"/>
     </row>
-    <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="2" spans="1:14" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
@@ -24139,7 +24133,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>17449200</v>
       </c>
@@ -24183,7 +24177,7 @@
         <v>15218</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1">
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10447188</v>
       </c>
@@ -24227,7 +24221,7 @@
         <v>10343</v>
       </c>
     </row>
-    <row r="5" spans="1:14" customFormat="1">
+    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>9706149</v>
       </c>
@@ -24271,7 +24265,7 @@
         <v>9671</v>
       </c>
     </row>
-    <row r="6" spans="1:14" customFormat="1">
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6945334</v>
       </c>
@@ -24315,7 +24309,7 @@
         <v>8947</v>
       </c>
     </row>
-    <row r="7" spans="1:14" customFormat="1">
+    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3726035</v>
       </c>
@@ -24359,7 +24353,7 @@
         <v>5278</v>
       </c>
     </row>
-    <row r="8" spans="1:14" customFormat="1">
+    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>280859</v>
       </c>
@@ -24403,7 +24397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:14" customFormat="1">
+    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="D9" s="15"/>
       <c r="F9" s="15"/>
@@ -24411,7 +24405,7 @@
       <c r="J9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:14" customFormat="1">
+    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="D10" s="15"/>
       <c r="F10" s="15"/>
@@ -24419,7 +24413,7 @@
       <c r="J10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:14" customFormat="1">
+    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="D11" s="15"/>
       <c r="F11" s="15"/>
@@ -24427,7 +24421,7 @@
       <c r="J11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:14" customFormat="1">
+    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="D12" s="15"/>
       <c r="F12" s="15"/>
@@ -24435,7 +24429,7 @@
       <c r="J12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:14" customFormat="1">
+    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="D13" s="15"/>
       <c r="F13" s="15"/>
@@ -24443,7 +24437,7 @@
       <c r="J13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:14" customFormat="1">
+    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="D14" s="15"/>
       <c r="F14" s="15"/>
@@ -24451,7 +24445,7 @@
       <c r="J14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:14" customFormat="1">
+    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="D15" s="15"/>
       <c r="F15" s="15"/>
@@ -24459,7 +24453,7 @@
       <c r="J15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="15"/>
       <c r="C16"/>
@@ -24499,13 +24493,13 @@
       <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="20.75" style="16" customWidth="1"/>
+    <col min="1" max="14" width="20.7109375" style="16" customWidth="1"/>
     <col min="15" max="15" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="str">
         <f>CONCATENATE('Troublepart of SP'!$A2," - ",'Troublepart of SP'!$C2)</f>
         <v>Report 2_6 - EXT_HISTORY_MASTER</v>
@@ -24542,7 +24536,7 @@
       </c>
       <c r="N1" s="26"/>
     </row>
-    <row r="2" spans="1:14" customFormat="1" ht="15.75" thickTop="1" thickBot="1">
+    <row r="2" spans="1:14" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>51</v>
       </c>
@@ -24586,7 +24580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:14" customFormat="1">
+    <row r="3" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10447188</v>
       </c>
@@ -24630,7 +24624,7 @@
         <v>10093</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1">
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9706149</v>
       </c>
@@ -24674,7 +24668,7 @@
         <v>9119</v>
       </c>
     </row>
-    <row r="5" spans="1:14" customFormat="1">
+    <row r="5" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6945334</v>
       </c>
@@ -24718,7 +24712,7 @@
         <v>8647</v>
       </c>
     </row>
-    <row r="6" spans="1:14" customFormat="1">
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3726035</v>
       </c>
@@ -24762,7 +24756,7 @@
         <v>4949</v>
       </c>
     </row>
-    <row r="7" spans="1:14" customFormat="1">
+    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>280859</v>
       </c>
@@ -24806,7 +24800,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" customFormat="1">
+    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="D8" s="15"/>
       <c r="F8" s="15"/>
@@ -24814,7 +24808,7 @@
       <c r="J8" s="15"/>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:14" customFormat="1">
+    <row r="9" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="D9" s="15"/>
       <c r="F9" s="15"/>
@@ -24822,7 +24816,7 @@
       <c r="J9" s="15"/>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:14" customFormat="1">
+    <row r="10" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
       <c r="D10" s="15"/>
       <c r="F10" s="15"/>
@@ -24830,7 +24824,7 @@
       <c r="J10" s="15"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:14" customFormat="1">
+    <row r="11" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="D11" s="15"/>
       <c r="F11" s="15"/>
@@ -24838,7 +24832,7 @@
       <c r="J11" s="15"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:14" customFormat="1">
+    <row r="12" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="D12" s="15"/>
       <c r="F12" s="15"/>
@@ -24846,7 +24840,7 @@
       <c r="J12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:14" customFormat="1">
+    <row r="13" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="D13" s="15"/>
       <c r="F13" s="15"/>
@@ -24854,7 +24848,7 @@
       <c r="J13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:14" customFormat="1">
+    <row r="14" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="D14" s="15"/>
       <c r="F14" s="15"/>
@@ -24862,7 +24856,7 @@
       <c r="J14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:14" customFormat="1">
+    <row r="15" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="D15" s="15"/>
       <c r="F15" s="15"/>
@@ -24870,7 +24864,7 @@
       <c r="J15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="34" spans="3:14" ht="15" thickBot="1">
+    <row r="34" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="26" t="s">
         <v>54</v>
       </c>
@@ -24888,7 +24882,7 @@
       </c>
       <c r="N34" s="27"/>
     </row>
-    <row r="35" spans="3:14" ht="15.75" thickTop="1" thickBot="1">
+    <row r="35" spans="3:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="11" t="s">
         <v>51</v>
       </c>
@@ -24914,7 +24908,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="3:14">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>10447188</v>
       </c>
@@ -24938,7 +24932,7 @@
         <v>10158</v>
       </c>
     </row>
-    <row r="37" spans="3:14">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>9706149</v>
       </c>
@@ -24962,7 +24956,7 @@
         <v>10062</v>
       </c>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>6945334</v>
       </c>
@@ -24986,7 +24980,7 @@
         <v>9943</v>
       </c>
     </row>
-    <row r="39" spans="3:14">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>3726035</v>
       </c>
@@ -25010,7 +25004,7 @@
         <v>9855</v>
       </c>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>280859</v>
       </c>
@@ -25034,56 +25028,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="3:14">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C41"/>
       <c r="D41" s="15"/>
       <c r="F41" s="15"/>
       <c r="K41" s="17"/>
       <c r="L41" s="15"/>
     </row>
-    <row r="42" spans="3:14">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C42"/>
       <c r="D42" s="15"/>
       <c r="F42" s="15"/>
       <c r="K42" s="17"/>
       <c r="L42" s="15"/>
     </row>
-    <row r="43" spans="3:14">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C43"/>
       <c r="D43" s="15"/>
       <c r="F43" s="15"/>
       <c r="K43" s="17"/>
       <c r="L43" s="15"/>
     </row>
-    <row r="44" spans="3:14">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C44"/>
       <c r="D44" s="15"/>
       <c r="F44" s="15"/>
       <c r="K44" s="17"/>
       <c r="L44" s="15"/>
     </row>
-    <row r="45" spans="3:14">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C45"/>
       <c r="D45" s="15"/>
       <c r="F45" s="15"/>
       <c r="K45" s="17"/>
       <c r="L45" s="15"/>
     </row>
-    <row r="46" spans="3:14">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C46"/>
       <c r="D46" s="15"/>
       <c r="F46" s="15"/>
       <c r="K46" s="17"/>
       <c r="L46" s="15"/>
     </row>
-    <row r="47" spans="3:14">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C47"/>
       <c r="D47" s="15"/>
       <c r="F47" s="15"/>
       <c r="K47" s="17"/>
       <c r="L47" s="15"/>
     </row>
-    <row r="48" spans="3:14">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C48"/>
       <c r="D48" s="15"/>
       <c r="F48" s="15"/>
@@ -25092,17 +25086,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25114,19 +25108,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>61</v>
       </c>
@@ -25140,7 +25134,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -25154,7 +25148,7 @@
         <v>18111</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -25168,7 +25162,7 @@
         <v>12512</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -25182,7 +25176,7 @@
         <v>6763</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -25199,7 +25193,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -25216,7 +25210,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -25233,7 +25227,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>69</v>
       </c>
@@ -25250,7 +25244,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -25267,7 +25261,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -25284,7 +25278,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>

--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="1" r:id="rId1"/>
     <sheet name="Times of SP" sheetId="2" r:id="rId2"/>
-    <sheet name="TimeStamps" sheetId="3" r:id="rId3"/>
-    <sheet name="Troublepart of SP" sheetId="4" r:id="rId4"/>
-    <sheet name="Table content drop wo I&amp;Keys" sheetId="5" r:id="rId5"/>
-    <sheet name="Table content drop w I&amp;Keys" sheetId="6" r:id="rId6"/>
-    <sheet name="Playing with indexes HISTOR " sheetId="8" r:id="rId7"/>
+    <sheet name="Times of SP after maintenance" sheetId="10" r:id="rId3"/>
+    <sheet name="TimeStamps" sheetId="3" r:id="rId4"/>
+    <sheet name="Troublepart of SP" sheetId="4" r:id="rId5"/>
+    <sheet name="Table content drop wo I&amp;Keys" sheetId="5" r:id="rId6"/>
+    <sheet name="Table content drop w I&amp;Keys" sheetId="6" r:id="rId7"/>
+    <sheet name="Playing with indexes HISTOR " sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="75">
   <si>
     <t>Measure time of total SP</t>
   </si>
@@ -239,6 +240,12 @@
   </si>
   <si>
     <t>New Index VariantId</t>
+  </si>
+  <si>
+    <t>Before Maintenance</t>
+  </si>
+  <si>
+    <t>After Maintenance</t>
   </si>
 </sst>
 </file>
@@ -504,6 +511,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -783,11 +791,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1214925584"/>
-        <c:axId val="1214927216"/>
+        <c:axId val="1180035264"/>
+        <c:axId val="1180041792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1214925584"/>
+        <c:axId val="1180035264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,7 +838,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214927216"/>
+        <c:crossAx val="1180041792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -838,7 +846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1214927216"/>
+        <c:axId val="1180041792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,7 +897,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214925584"/>
+        <c:crossAx val="1180035264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -978,6 +986,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1151,11 +1160,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1217965424"/>
-        <c:axId val="1218152896"/>
+        <c:axId val="1184290256"/>
+        <c:axId val="1184291344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1217965424"/>
+        <c:axId val="1184290256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,6 +1213,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1270,12 +1280,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1218152896"/>
+        <c:crossAx val="1184291344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1218152896"/>
+        <c:axId val="1184291344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,6 +1331,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1387,7 +1398,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1217965424"/>
+        <c:crossAx val="1184290256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1476,6 +1487,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1584,11 +1596,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1218154528"/>
-        <c:axId val="1218153984"/>
+        <c:axId val="1184292432"/>
+        <c:axId val="1184291888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1218154528"/>
+        <c:axId val="1184292432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,6 +1649,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1703,12 +1716,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1218153984"/>
+        <c:crossAx val="1184291888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1218153984"/>
+        <c:axId val="1184291888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,6 +1767,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1820,7 +1834,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1218154528"/>
+        <c:crossAx val="1184292432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1909,6 +1923,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2017,11 +2032,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1218148544"/>
-        <c:axId val="1218149088"/>
+        <c:axId val="1184297328"/>
+        <c:axId val="1184297872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1218148544"/>
+        <c:axId val="1184297328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,6 +2085,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2136,12 +2152,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1218149088"/>
+        <c:crossAx val="1184297872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1218149088"/>
+        <c:axId val="1184297872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,6 +2203,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2253,7 +2270,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1218148544"/>
+        <c:crossAx val="1184297328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2342,6 +2359,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2450,11 +2468,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1218153440"/>
-        <c:axId val="1218151808"/>
+        <c:axId val="1184300048"/>
+        <c:axId val="1184967504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1218153440"/>
+        <c:axId val="1184300048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2503,6 +2521,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2569,12 +2588,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1218151808"/>
+        <c:crossAx val="1184967504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1218151808"/>
+        <c:axId val="1184967504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2620,6 +2639,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2686,7 +2706,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1218153440"/>
+        <c:crossAx val="1184300048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2775,6 +2795,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2883,11 +2904,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1219627216"/>
-        <c:axId val="1219622320"/>
+        <c:axId val="1184972400"/>
+        <c:axId val="1184973488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1219627216"/>
+        <c:axId val="1184972400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2936,6 +2957,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3002,12 +3024,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219622320"/>
+        <c:crossAx val="1184973488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1219622320"/>
+        <c:axId val="1184973488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3053,6 +3075,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3119,7 +3142,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219627216"/>
+        <c:crossAx val="1184972400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3208,6 +3231,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3316,11 +3340,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1219625040"/>
-        <c:axId val="1219627760"/>
+        <c:axId val="1184977296"/>
+        <c:axId val="1184978384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1219625040"/>
+        <c:axId val="1184977296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3369,6 +3393,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3435,12 +3460,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219627760"/>
+        <c:crossAx val="1184978384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1219627760"/>
+        <c:axId val="1184978384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3486,6 +3511,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3552,7 +3578,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219625040"/>
+        <c:crossAx val="1184977296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3641,6 +3667,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3749,11 +3776,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1219625584"/>
-        <c:axId val="1219629392"/>
+        <c:axId val="1184968048"/>
+        <c:axId val="1184970224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1219625584"/>
+        <c:axId val="1184968048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3802,6 +3829,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3868,12 +3896,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219629392"/>
+        <c:crossAx val="1184970224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1219629392"/>
+        <c:axId val="1184970224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3919,6 +3947,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3985,7 +4014,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219625584"/>
+        <c:crossAx val="1184968048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4127,11 +4156,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1219628848"/>
-        <c:axId val="1219497744"/>
+        <c:axId val="1184981104"/>
+        <c:axId val="1184966416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1219628848"/>
+        <c:axId val="1184981104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4188,12 +4217,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219497744"/>
+        <c:crossAx val="1184966416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1219497744"/>
+        <c:axId val="1184966416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4250,7 +4279,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219628848"/>
+        <c:crossAx val="1184981104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4392,11 +4421,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1219504816"/>
-        <c:axId val="1219502096"/>
+        <c:axId val="1184968592"/>
+        <c:axId val="1184970768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1219504816"/>
+        <c:axId val="1184968592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4453,12 +4482,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219502096"/>
+        <c:crossAx val="1184970768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1219502096"/>
+        <c:axId val="1184970768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4515,7 +4544,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219504816"/>
+        <c:crossAx val="1184968592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4604,6 +4633,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4712,11 +4742,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1219499920"/>
-        <c:axId val="1219503184"/>
+        <c:axId val="1184972944"/>
+        <c:axId val="1184974032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1219499920"/>
+        <c:axId val="1184972944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4762,6 +4792,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4828,12 +4859,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219503184"/>
+        <c:crossAx val="1184974032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1219503184"/>
+        <c:axId val="1184974032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4879,6 +4910,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4945,7 +4977,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219499920"/>
+        <c:crossAx val="1184972944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5484,11 +5516,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1214922864"/>
-        <c:axId val="1214923408"/>
+        <c:axId val="1180035808"/>
+        <c:axId val="1180038528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1214922864"/>
+        <c:axId val="1180035808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5531,7 +5563,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214923408"/>
+        <c:crossAx val="1180038528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5539,7 +5571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1214923408"/>
+        <c:axId val="1180038528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5585,6 +5617,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5645,7 +5678,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214922864"/>
+        <c:crossAx val="1180035808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5659,6 +5692,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5906,11 +5940,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1219502640"/>
-        <c:axId val="1219501008"/>
+        <c:axId val="1184977840"/>
+        <c:axId val="1184975664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1219502640"/>
+        <c:axId val="1184977840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5953,7 +5987,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219501008"/>
+        <c:crossAx val="1184975664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5961,7 +5995,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1219501008"/>
+        <c:axId val="1184975664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6068,7 +6102,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219502640"/>
+        <c:crossAx val="1184977840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6298,11 +6332,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1219909744"/>
-        <c:axId val="1219913008"/>
+        <c:axId val="1185133616"/>
+        <c:axId val="1185135248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1219909744"/>
+        <c:axId val="1185133616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6345,7 +6379,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219913008"/>
+        <c:crossAx val="1185135248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6353,7 +6387,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1219913008"/>
+        <c:axId val="1185135248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6460,7 +6494,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219909744"/>
+        <c:crossAx val="1185133616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6690,11 +6724,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1219915184"/>
-        <c:axId val="1219915728"/>
+        <c:axId val="1185137968"/>
+        <c:axId val="1185132528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1219915184"/>
+        <c:axId val="1185137968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6737,7 +6771,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219915728"/>
+        <c:crossAx val="1185132528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6745,7 +6779,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1219915728"/>
+        <c:axId val="1185132528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6852,7 +6886,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1219915184"/>
+        <c:crossAx val="1185137968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7055,11 +7089,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1214924496"/>
-        <c:axId val="1214917424"/>
+        <c:axId val="1180040704"/>
+        <c:axId val="1180045600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1214924496"/>
+        <c:axId val="1180040704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7171,12 +7205,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214917424"/>
+        <c:crossAx val="1180045600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1214917424"/>
+        <c:axId val="1180045600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7288,7 +7322,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214924496"/>
+        <c:crossAx val="1180040704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7491,11 +7525,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1214922320"/>
-        <c:axId val="1214931024"/>
+        <c:axId val="1180046144"/>
+        <c:axId val="1180045056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1214922320"/>
+        <c:axId val="1180046144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7610,12 +7644,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214931024"/>
+        <c:crossAx val="1180045056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1214931024"/>
+        <c:axId val="1180045056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7727,7 +7761,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214922320"/>
+        <c:crossAx val="1180046144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7930,11 +7964,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1214928304"/>
-        <c:axId val="1214919056"/>
+        <c:axId val="1180043968"/>
+        <c:axId val="1180046688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1214928304"/>
+        <c:axId val="1180043968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8049,12 +8083,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214919056"/>
+        <c:crossAx val="1180046688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1214919056"/>
+        <c:axId val="1180046688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8166,7 +8200,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214928304"/>
+        <c:crossAx val="1180043968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8369,11 +8403,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1214929936"/>
-        <c:axId val="1214928848"/>
+        <c:axId val="1184289168"/>
+        <c:axId val="1184285904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1214929936"/>
+        <c:axId val="1184289168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8488,12 +8522,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214928848"/>
+        <c:crossAx val="1184285904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1214928848"/>
+        <c:axId val="1184285904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8605,7 +8639,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1214929936"/>
+        <c:crossAx val="1184289168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8808,11 +8842,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1217963792"/>
-        <c:axId val="1217965968"/>
+        <c:axId val="1184293520"/>
+        <c:axId val="1184286448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1217963792"/>
+        <c:axId val="1184293520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8927,12 +8961,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1217965968"/>
+        <c:crossAx val="1184286448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1217965968"/>
+        <c:axId val="1184286448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9044,7 +9078,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1217963792"/>
+        <c:crossAx val="1184293520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9247,11 +9281,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1217968144"/>
-        <c:axId val="1217967056"/>
+        <c:axId val="1184286992"/>
+        <c:axId val="1184287536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1217968144"/>
+        <c:axId val="1184286992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9366,12 +9400,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1217967056"/>
+        <c:crossAx val="1184287536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1217967056"/>
+        <c:axId val="1184287536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9483,7 +9517,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1217968144"/>
+        <c:crossAx val="1184286992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9686,11 +9720,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1217964336"/>
-        <c:axId val="1217964880"/>
+        <c:axId val="1184288080"/>
+        <c:axId val="1184288624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1217964336"/>
+        <c:axId val="1184288080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9805,12 +9839,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1217964880"/>
+        <c:crossAx val="1184288624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1217964880"/>
+        <c:axId val="1184288624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9922,7 +9956,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1217964336"/>
+        <c:crossAx val="1184288080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -23255,7 +23289,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:XFD1048576"/>
+      <selection activeCell="A3" sqref="A3:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23750,10 +23784,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="8">
+        <v>427017</v>
+      </c>
+      <c r="C2">
+        <v>241403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="8">
+        <v>202116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8">
+        <v>147443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8">
+        <v>33168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="8">
+        <v>39300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="8">
+        <v>21785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8">
+        <v>10634</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23921,7 +24045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -24038,7 +24162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
@@ -24485,7 +24609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O48"/>
   <sheetViews>
@@ -25086,17 +25210,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="K34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25104,11 +25228,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>

--- a/Master Thesis/Analys/Experiments.xlsx
+++ b/Master Thesis/Analys/Experiments.xlsx
@@ -791,11 +791,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1180035264"/>
-        <c:axId val="1180041792"/>
+        <c:axId val="-451543680"/>
+        <c:axId val="-451530624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1180035264"/>
+        <c:axId val="-451543680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +838,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1180041792"/>
+        <c:crossAx val="-451530624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -846,7 +846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1180041792"/>
+        <c:axId val="-451530624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,7 +897,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1180035264"/>
+        <c:crossAx val="-451543680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -981,12 +981,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sv-SE"/>
-              <a:t>Report 2_5</a:t>
+              <a:t>Report 1_1_1</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1023,73 +1022,8 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$A$3:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>10447188</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9706149</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6945334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3726035</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>280859</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$B$3:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>145645</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>177675</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127056</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>81026</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31979</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1104,48 +1038,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$A$3:$A$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$M$3:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>10447188</c:v>
+                  <c:v>69409</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9706149</c:v>
+                  <c:v>39869</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6945334</c:v>
+                  <c:v>29876</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3726035</c:v>
+                  <c:v>19883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>280859</c:v>
+                  <c:v>11053</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$B$3:$B$15</c:f>
+              <c:f>'Table content drop wo I&amp;Keys'!$N$3:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>145645</c:v>
+                  <c:v>15218</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>177675</c:v>
+                  <c:v>10343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127056</c:v>
+                  <c:v>9671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81026</c:v>
+                  <c:v>8947</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31979</c:v>
+                  <c:v>5278</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,11 +1100,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1184290256"/>
-        <c:axId val="1184291344"/>
+        <c:axId val="-240741888"/>
+        <c:axId val="-240742976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1184290256"/>
+        <c:axId val="-240741888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1153,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1280,12 +1219,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184291344"/>
+        <c:crossAx val="-240742976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1184291344"/>
+        <c:axId val="-240742976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1331,7 +1270,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1398,7 +1336,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184290256"/>
+        <c:crossAx val="-240741888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1487,7 +1425,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1529,6 +1466,71 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$A$3:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10447188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9706149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6945334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3726035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>145645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127056</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
@@ -1540,48 +1542,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$C$3:$C$7</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$A$3:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>39869</c:v>
+                  <c:v>10447188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29876</c:v>
+                  <c:v>9706149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19883</c:v>
+                  <c:v>6945334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11053</c:v>
+                  <c:v>3726035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>724</c:v>
+                  <c:v>280859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$D$3:$D$7</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>66826</c:v>
+                  <c:v>145645</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49032</c:v>
+                  <c:v>177675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37976</c:v>
+                  <c:v>127056</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23308</c:v>
+                  <c:v>81026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114</c:v>
+                  <c:v>31979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,11 +1598,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1184292432"/>
-        <c:axId val="1184291888"/>
+        <c:axId val="-240747872"/>
+        <c:axId val="-240744064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1184292432"/>
+        <c:axId val="-240747872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,7 +1651,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1716,12 +1717,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184291888"/>
+        <c:crossAx val="-240744064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1184291888"/>
+        <c:axId val="-240744064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,12 +1763,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="sv-SE"/>
-                  <a:t>TIme (ms)</a:t>
+                  <a:t>Time (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1834,7 +1834,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184292432"/>
+        <c:crossAx val="-240747872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1918,12 +1918,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sv-SE"/>
-              <a:t>Report 3_1</a:t>
+              <a:t>Report 2_5</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1976,48 +1975,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$E$3:$E$7</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2732242</c:v>
+                  <c:v>39869</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2572413</c:v>
+                  <c:v>29876</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1821520</c:v>
+                  <c:v>19883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>978797</c:v>
+                  <c:v>11053</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71366</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$F$3:$F$7</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$D$3:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>76997</c:v>
+                  <c:v>66826</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69353</c:v>
+                  <c:v>49032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56010</c:v>
+                  <c:v>37976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42274</c:v>
+                  <c:v>23308</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35234</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2032,11 +2031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1184297328"/>
-        <c:axId val="1184297872"/>
+        <c:axId val="-240744608"/>
+        <c:axId val="-240748960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1184297328"/>
+        <c:axId val="-240744608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2085,7 +2084,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2152,12 +2150,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184297872"/>
+        <c:crossAx val="-240748960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1184297872"/>
+        <c:axId val="-240748960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2203,7 +2201,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2270,7 +2267,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184297328"/>
+        <c:crossAx val="-240744608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2354,12 +2351,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sv-SE"/>
-              <a:t>Report 4_1</a:t>
+              <a:t>Report 3_1</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2412,48 +2408,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$G$3:$G$7</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10447188</c:v>
+                  <c:v>2732242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9706149</c:v>
+                  <c:v>2572413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6945334</c:v>
+                  <c:v>1821520</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3726035</c:v>
+                  <c:v>978797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>280859</c:v>
+                  <c:v>71366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$H$3:$H$7</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$F$3:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10951</c:v>
+                  <c:v>76997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8301</c:v>
+                  <c:v>69353</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10621</c:v>
+                  <c:v>56010</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9896</c:v>
+                  <c:v>42274</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>35234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2468,11 +2464,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1184300048"/>
-        <c:axId val="1184967504"/>
+        <c:axId val="-240750048"/>
+        <c:axId val="-240736992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1184300048"/>
+        <c:axId val="-240750048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2521,7 +2517,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2588,12 +2583,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184967504"/>
+        <c:crossAx val="-240736992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1184967504"/>
+        <c:axId val="-240736992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2634,12 +2629,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="sv-SE"/>
-                  <a:t>Time (ms)</a:t>
+                  <a:t>TIme (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2706,7 +2700,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184300048"/>
+        <c:crossAx val="-240750048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2790,12 +2784,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sv-SE"/>
-              <a:t>Report 4_4</a:t>
+              <a:t>Report 4_1</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2848,7 +2841,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$I$3:$I$7</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$G$3:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2872,24 +2865,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$J$3:$J$7</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21549</c:v>
+                  <c:v>10951</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12317</c:v>
+                  <c:v>8301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7700</c:v>
+                  <c:v>10621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4798</c:v>
+                  <c:v>9896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2904,11 +2897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1184972400"/>
-        <c:axId val="1184973488"/>
+        <c:axId val="-240746784"/>
+        <c:axId val="-240737536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1184972400"/>
+        <c:axId val="-240746784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2957,7 +2950,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3024,12 +3016,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184973488"/>
+        <c:crossAx val="-240737536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1184973488"/>
+        <c:axId val="-240737536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3075,7 +3067,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3142,7 +3133,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184972400"/>
+        <c:crossAx val="-240746784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3226,12 +3217,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sv-SE"/>
-              <a:t>Report 1_1_2</a:t>
+              <a:t>Report 4_4</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3284,48 +3274,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$K$3:$K$7</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$I$3:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>39869</c:v>
+                  <c:v>10447188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29876</c:v>
+                  <c:v>9706149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19883</c:v>
+                  <c:v>6945334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11053</c:v>
+                  <c:v>3726035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>724</c:v>
+                  <c:v>280859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$L$3:$L$7</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$J$3:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12072</c:v>
+                  <c:v>21549</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11029</c:v>
+                  <c:v>12317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10257</c:v>
+                  <c:v>7700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5996</c:v>
+                  <c:v>4798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3340,11 +3330,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1184977296"/>
-        <c:axId val="1184978384"/>
+        <c:axId val="-240745152"/>
+        <c:axId val="-240740800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1184977296"/>
+        <c:axId val="-240745152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3393,7 +3383,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3460,12 +3449,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184978384"/>
+        <c:crossAx val="-240740800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1184978384"/>
+        <c:axId val="-240740800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3511,7 +3500,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3578,7 +3566,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184977296"/>
+        <c:crossAx val="-240745152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3662,12 +3650,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sv-SE"/>
-              <a:t>Report 1_1_1</a:t>
+              <a:t>Report 1_1_2</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3720,7 +3707,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$M$3:$M$7</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$K$3:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3744,24 +3731,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$N$3:$N$7</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10093</c:v>
+                  <c:v>12072</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9119</c:v>
+                  <c:v>11029</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8647</c:v>
+                  <c:v>10257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4949</c:v>
+                  <c:v>5996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3776,11 +3763,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1184968048"/>
-        <c:axId val="1184970224"/>
+        <c:axId val="-240750592"/>
+        <c:axId val="-240739712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1184968048"/>
+        <c:axId val="-240750592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3829,7 +3816,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3896,12 +3882,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184970224"/>
+        <c:crossAx val="-240739712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1184970224"/>
+        <c:axId val="-240739712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3947,7 +3933,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4014,7 +3999,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184968048"/>
+        <c:crossAx val="-240750592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4077,14 +4062,69 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report 1_1_1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4100,48 +4140,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$K$36:$K$40</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$M$3:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10447188</c:v>
+                  <c:v>39869</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9706149</c:v>
+                  <c:v>29876</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6945334</c:v>
+                  <c:v>19883</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3726035</c:v>
+                  <c:v>11053</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>280859</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$L$36:$L$40</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$N$3:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12512</c:v>
+                  <c:v>10093</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12077</c:v>
+                  <c:v>9119</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12100</c:v>
+                  <c:v>8647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15978</c:v>
+                  <c:v>4949</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4156,11 +4196,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1184981104"/>
-        <c:axId val="1184966416"/>
+        <c:axId val="-240735360"/>
+        <c:axId val="-240435712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1184981104"/>
+        <c:axId val="-240735360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4180,6 +4220,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Entries</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4217,12 +4315,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184966416"/>
+        <c:crossAx val="-240435712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1184966416"/>
+        <c:axId val="-240435712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4242,6 +4340,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4279,7 +4432,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184981104"/>
+        <c:crossAx val="-240735360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4365,7 +4518,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$M$36:$M$40</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$K$36:$K$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4389,24 +4542,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$N$36:$N$40</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$L$36:$L$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10158</c:v>
+                  <c:v>12512</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10062</c:v>
+                  <c:v>12077</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9943</c:v>
+                  <c:v>12100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9855</c:v>
+                  <c:v>15978</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4421,11 +4574,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1184968592"/>
-        <c:axId val="1184970768"/>
+        <c:axId val="-240439520"/>
+        <c:axId val="-240435168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1184968592"/>
+        <c:axId val="-240439520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4482,12 +4635,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184970768"/>
+        <c:crossAx val="-240435168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1184970768"/>
+        <c:axId val="-240435168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4544,7 +4697,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184968592"/>
+        <c:crossAx val="-240439520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4607,63 +4760,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sv-SE"/>
-              <a:t>Report 2_5</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4686,7 +4783,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$C$36:$C$40</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$M$36:$M$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4710,24 +4807,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Table content drop w I&amp;Keys'!$D$36:$D$40</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$N$36:$N$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>62396</c:v>
+                  <c:v>10158</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62171</c:v>
+                  <c:v>10062</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61191</c:v>
+                  <c:v>9943</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69669</c:v>
+                  <c:v>9855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37407</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4742,11 +4839,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1184972944"/>
-        <c:axId val="1184974032"/>
+        <c:axId val="-240433536"/>
+        <c:axId val="-240430272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1184972944"/>
+        <c:axId val="-240433536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4766,62 +4863,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="sv-SE"/>
-                  <a:t>Entities</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="sv-SE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4859,12 +4900,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184974032"/>
+        <c:crossAx val="-240430272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1184974032"/>
+        <c:axId val="-240430272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4884,62 +4925,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="sv-SE"/>
-                  <a:t>Time (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="sv-SE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4977,7 +4962,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184972944"/>
+        <c:crossAx val="-240433536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5040,7 +5025,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Execution</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -5052,11 +5097,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>TimeStamps!$B$2</c:f>
+              <c:f>'Times of SP after maintenance'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>INSERT</c:v>
+                  <c:v>Before Maintenance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5073,7 +5118,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>TimeStamps!$A$3:$A$9</c:f>
+              <c:f>'Times of SP after maintenance'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5102,30 +5147,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TimeStamps!$B$3:$B$9</c:f>
+              <c:f>'Times of SP after maintenance'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>24200</c:v>
+                  <c:v>427017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35043</c:v>
+                  <c:v>202116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4806</c:v>
+                  <c:v>147443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8134</c:v>
+                  <c:v>33168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12264</c:v>
+                  <c:v>39300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12010</c:v>
+                  <c:v>21785</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10710</c:v>
+                  <c:v>10634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5136,11 +5181,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>TimeStamps!$C$2</c:f>
+              <c:f>'Times of SP after maintenance'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>UPDATE</c:v>
+                  <c:v>After Maintenance</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5157,7 +5202,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>TimeStamps!$A$3:$A$9</c:f>
+              <c:f>'Times of SP after maintenance'!$A$2:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5186,321 +5231,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TimeStamps!$C$3:$C$9</c:f>
+              <c:f>'Times of SP after maintenance'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>87160</c:v>
+                  <c:v>241403</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9116</c:v>
+                  <c:v>73938</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45713</c:v>
+                  <c:v>69480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8527</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5972</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>223</c:v>
+                  <c:v>12364</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>TimeStamps!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UPDATE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>TimeStamps!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Report 2_6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Report 2_5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Report 3_1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Report 4_2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Report 4_4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Report 1_1_2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Report 1_1_1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>TimeStamps!$D$3:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10020</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7870</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24616</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>TimeStamps!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UPDATE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>TimeStamps!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Report 2_6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Report 2_5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Report 3_1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Report 4_2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Report 4_4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Report 1_1_2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Report 1_1_1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>TimeStamps!$E$3:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>10850</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10140</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>TimeStamps!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UPDATE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>TimeStamps!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Report 2_6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Report 2_5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Report 3_1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Report 4_2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Report 4_4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Report 1_1_2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Report 1_1_1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>TimeStamps!$F$3:$F$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9573</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>473</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>TimeStamps!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DELETE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>TimeStamps!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Report 2_6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Report 2_5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Report 3_1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Report 4_2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Report 4_4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Report 1_1_2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Report 1_1_1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>TimeStamps!$G$3:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>565</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>514</c:v>
+                  <c:v>10094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5516,11 +5270,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1180035808"/>
-        <c:axId val="1180038528"/>
+        <c:axId val="-201871168"/>
+        <c:axId val="-201877696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1180035808"/>
+        <c:axId val="-201871168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5563,7 +5317,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1180038528"/>
+        <c:crossAx val="-201877696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5571,7 +5325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1180038528"/>
+        <c:axId val="-201877696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5591,62 +5345,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="sv-SE"/>
-                  <a:t>Time (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="sv-SE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5678,7 +5376,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1180035808"/>
+        <c:crossAx val="-201871168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5794,16 +5492,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="sv-SE"/>
-              <a:t>Report</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="sv-SE" baseline="0"/>
-              <a:t> 2_6</a:t>
+              <a:t>Report 2_5</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5836,100 +5529,73 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Playing with indexes HISTOR '!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>No Index No Keys</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Index &amp; Keys</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>No Index with Keys</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>New Index PostingDate</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>New Index Unit</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>New Index No</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>New Index Type</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>New Index multiple</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>New Index SubType</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>New Index VariantId</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Playing with indexes HISTOR '!$B$2:$B$11</c:f>
+              <c:f>'Table content drop w I&amp;Keys'!$C$36:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>403186</c:v>
+                  <c:v>10447188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>145645</c:v>
+                  <c:v>9706149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>252784</c:v>
+                  <c:v>6945334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>247081</c:v>
+                  <c:v>3726035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>248951</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>247358</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>246135</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>405023</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>251415</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>249284</c:v>
+                  <c:v>280859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Table content drop w I&amp;Keys'!$D$36:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>62396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5939,63 +5605,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1184977840"/>
-        <c:axId val="1184975664"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1184977840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1184975664"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:axId val="-240428096"/>
+        <c:axId val="-240431904"/>
+      </c:scatterChart>
       <c:valAx>
-        <c:axId val="1184975664"/>
+        <c:axId val="-240428096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6036,12 +5650,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="sv-SE"/>
-                  <a:t>Time (ms)</a:t>
+                  <a:t>Entities</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6077,8 +5690,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -6102,9 +5721,126 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184977840"/>
+        <c:crossAx val="-240431904"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-240431904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-240428096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6190,12 +5926,11 @@
             </a:r>
             <a:r>
               <a:rPr lang="sv-SE" baseline="0"/>
-              <a:t> 1_1_1</a:t>
+              <a:t> 2_6</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6285,39 +6020,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Playing with indexes HISTOR '!$C$2:$C$11</c:f>
+              <c:f>'Playing with indexes HISTOR '!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>15218</c:v>
+                  <c:v>403186</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10158</c:v>
+                  <c:v>145645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4887</c:v>
+                  <c:v>252784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4916</c:v>
+                  <c:v>247081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4972</c:v>
+                  <c:v>248951</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20684</c:v>
+                  <c:v>247358</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5041</c:v>
+                  <c:v>246135</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22009</c:v>
+                  <c:v>405023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5024</c:v>
+                  <c:v>251415</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5334</c:v>
+                  <c:v>249284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6332,11 +6067,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1185133616"/>
-        <c:axId val="1185135248"/>
+        <c:axId val="-240432448"/>
+        <c:axId val="-240434624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1185133616"/>
+        <c:axId val="-240432448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6379,7 +6114,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185135248"/>
+        <c:crossAx val="-240434624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6387,7 +6122,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1185135248"/>
+        <c:axId val="-240434624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6433,7 +6168,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6494,7 +6228,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185133616"/>
+        <c:crossAx val="-240432448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6582,12 +6316,11 @@
             </a:r>
             <a:r>
               <a:rPr lang="sv-SE" baseline="0"/>
-              <a:t> 1_1_2</a:t>
+              <a:t> 1_1_1</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6677,39 +6410,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Playing with indexes HISTOR '!$D$2:$D$11</c:f>
+              <c:f>'Playing with indexes HISTOR '!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>18111</c:v>
+                  <c:v>15218</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12512</c:v>
+                  <c:v>10158</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6763</c:v>
+                  <c:v>4887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6750</c:v>
+                  <c:v>4916</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6924</c:v>
+                  <c:v>4972</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22792</c:v>
+                  <c:v>20684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6467</c:v>
+                  <c:v>5041</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26302</c:v>
+                  <c:v>22009</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6429</c:v>
+                  <c:v>5024</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6990</c:v>
+                  <c:v>5334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6724,11 +6457,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1185137968"/>
-        <c:axId val="1185132528"/>
+        <c:axId val="-240424832"/>
+        <c:axId val="-240436800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1185137968"/>
+        <c:axId val="-240424832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6771,7 +6504,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185132528"/>
+        <c:crossAx val="-240436800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6779,7 +6512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1185132528"/>
+        <c:axId val="-240436800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6825,7 +6558,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6886,7 +6618,397 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185137968"/>
+        <c:crossAx val="-240424832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE"/>
+              <a:t>Report</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" baseline="0"/>
+              <a:t> 1_1_2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Playing with indexes HISTOR '!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>No Index No Keys</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Index &amp; Keys</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>No Index with Keys</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>New Index PostingDate</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>New Index Unit</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>New Index No</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>New Index Type</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>New Index multiple</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>New Index SubType</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>New Index VariantId</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Playing with indexes HISTOR '!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>18111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6924</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22792</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6467</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-240425920"/>
+        <c:axId val="-240429728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-240425920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-240429728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-240429728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-240425920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6936,6 +7058,737 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TimeStamps!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INSERT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TimeStamps!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Report 2_6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Report 2_5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Report 3_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Report 4_2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Report 4_4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report 1_1_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Report 1_1_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TimeStamps!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>24200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TimeStamps!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UPDATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TimeStamps!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Report 2_6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Report 2_5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Report 3_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Report 4_2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Report 4_4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report 1_1_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Report 1_1_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TimeStamps!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>87160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45713</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TimeStamps!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UPDATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TimeStamps!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Report 2_6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Report 2_5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Report 3_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Report 4_2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Report 4_4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report 1_1_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Report 1_1_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TimeStamps!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7870</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24616</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TimeStamps!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UPDATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TimeStamps!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Report 2_6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Report 2_5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Report 3_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Report 4_2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Report 4_4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report 1_1_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Report 1_1_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TimeStamps!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10850</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10140</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TimeStamps!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UPDATE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TimeStamps!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Report 2_6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Report 2_5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Report 3_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Report 4_2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Report 4_4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report 1_1_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Report 1_1_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TimeStamps!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TimeStamps!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DELETE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TimeStamps!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Report 2_6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Report 2_5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Report 3_1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Report 4_2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Report 4_4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Report 1_1_2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Report 1_1_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TimeStamps!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-242298432"/>
+        <c:axId val="-242299520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-242298432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-242299520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-242299520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sv-SE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-242298432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7089,11 +7942,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1180040704"/>
-        <c:axId val="1180045600"/>
+        <c:axId val="-242310944"/>
+        <c:axId val="-242301152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1180040704"/>
+        <c:axId val="-242310944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7205,12 +8058,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1180045600"/>
+        <c:crossAx val="-242301152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1180045600"/>
+        <c:axId val="-242301152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7322,7 +8175,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1180040704"/>
+        <c:crossAx val="-242310944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7371,7 +8224,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7525,11 +8378,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1180046144"/>
-        <c:axId val="1180045056"/>
+        <c:axId val="-242298976"/>
+        <c:axId val="-242309856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1180046144"/>
+        <c:axId val="-242298976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7644,12 +8497,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1180045056"/>
+        <c:crossAx val="-242309856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1180045056"/>
+        <c:axId val="-242309856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7761,7 +8614,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1180046144"/>
+        <c:crossAx val="-242298976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7810,7 +8663,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7964,11 +8817,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1180043968"/>
-        <c:axId val="1180046688"/>
+        <c:axId val="-242302240"/>
+        <c:axId val="-242300064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1180043968"/>
+        <c:axId val="-242302240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8083,12 +8936,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1180046688"/>
+        <c:crossAx val="-242300064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1180046688"/>
+        <c:axId val="-242300064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8200,7 +9053,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1180043968"/>
+        <c:crossAx val="-242302240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8249,7 +9102,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8403,11 +9256,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1184289168"/>
-        <c:axId val="1184285904"/>
+        <c:axId val="-242296256"/>
+        <c:axId val="-242311488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1184289168"/>
+        <c:axId val="-242296256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8522,12 +9375,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184285904"/>
+        <c:crossAx val="-242311488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1184285904"/>
+        <c:axId val="-242311488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8639,7 +9492,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184289168"/>
+        <c:crossAx val="-242296256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8688,7 +9541,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8842,11 +9695,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1184293520"/>
-        <c:axId val="1184286448"/>
+        <c:axId val="-242309312"/>
+        <c:axId val="-242308768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1184293520"/>
+        <c:axId val="-242309312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8961,12 +9814,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184286448"/>
+        <c:crossAx val="-242308768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1184286448"/>
+        <c:axId val="-242308768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9078,7 +9931,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184293520"/>
+        <c:crossAx val="-242309312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9127,7 +9980,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9281,11 +10134,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1184286992"/>
-        <c:axId val="1184287536"/>
+        <c:axId val="-242305504"/>
+        <c:axId val="-242304960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1184286992"/>
+        <c:axId val="-242305504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9400,12 +10253,12 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184287536"/>
+        <c:crossAx val="-242304960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1184287536"/>
+        <c:axId val="-242304960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9517,446 +10370,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184286992"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="sv-SE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="sv-SE"/>
-              <a:t>Report 1_1_1</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$M$3:$M$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>69409</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>39869</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>29876</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19883</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11053</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>724</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Table content drop wo I&amp;Keys'!$N$3:$N$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>15218</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10343</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9671</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8947</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5278</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1184288080"/>
-        <c:axId val="1184288624"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1184288080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="sv-SE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Entries</a:t>
-                </a:r>
-                <a:endParaRPr lang="sv-SE"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="sv-SE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1184288624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1184288624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="sv-SE"/>
-                  <a:t>Time (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="sv-SE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="sv-SE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1184288080"/>
+        <c:crossAx val="-242305504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10605,6 +11019,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17052,7 +17506,7 @@
 </file>
 
 <file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -17079,8 +17533,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -17160,11 +17614,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -17175,11 +17624,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -17191,7 +17635,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -17211,9 +17655,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -17226,10 +17667,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -17269,22 +17710,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -17389,8 +17831,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -17522,19 +17964,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -17548,6 +17991,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -18599,8 +19053,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -18627,8 +19081,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -18708,6 +19162,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -18718,6 +19177,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -18729,7 +19193,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -18749,6 +19213,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -18761,10 +19228,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -18804,23 +19271,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -18925,8 +19391,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -19058,20 +19524,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -19085,17 +19550,509 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+ 